--- a/exercises/excercises/ex130.MF_well_new.xlsx
+++ b/exercises/excercises/ex130.MF_well_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB8092-47BD-4D87-80CF-27A2B9F92AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91012A-B0B7-45B3-B560-A1C2FD78F65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
@@ -926,39 +926,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13659085184011441"/>
+          <c:y val="0.10645021787641701"/>
+          <c:w val="0.79917798200921475"/>
+          <c:h val="0.86442035781859183"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -967,16 +947,173 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$Y$40</c:f>
+              <c:f>Лист1!$P$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p_tub_atma</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$P$52:$P$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>45.319990235747426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.243288114919089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.534857707764274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.970764924583591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.568704044262063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.80712507256797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118.12966805688693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.03045410884357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.63044997088181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152.85401998160839</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>163.59838764960864</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>173.89891365528149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>183.75894580900223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>193.12845442862795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>202.0605595230916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>206.30407686279983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210.54759420250809</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101.7623892227938</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110.08528396796831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.12514732957787</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$O$52:$O$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>833.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1166.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1333.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1666.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1833.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2166.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2333.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2416.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2666.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2833.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F77-40FB-82B2-4BC1700D20B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -987,107 +1124,156 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$Y$41:$Y$60</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
+            <c:numRef>
+              <c:f>Лист1!$AB$52:$AB$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>27.503873103557957</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.766265290161339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.204308543440348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.846071598787432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.75805702496158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.859699731082245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.215025606700635</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>54.990502861647265</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>t_dis_C</c:v>
+                  <c:v>60.075855804372978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>65.30999641511157</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>hmes_m</c:v>
+                  <c:v>70.617947873379293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>75.924089027360495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>175</c:v>
+                  <c:v>81.198394211297369</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>350</c:v>
+                  <c:v>86.427033682769689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>525</c:v>
+                  <c:v>91.638512593219843</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>700</c:v>
+                  <c:v>96.928456132680466</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>875</c:v>
+                  <c:v>101.7623892227938</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1050</c:v>
+                  <c:v>103.05188933664667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1225</c:v>
+                  <c:v>110.9480238161609</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>116.32927081896889</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$W$41:$W$60</c:f>
+              <c:f>Лист1!$AA$52:$AA$72</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315.78947368421052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>473.68421052631578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>631.57894736842104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789.47368421052624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>947.36842105263156</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>1105.2631578947369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1263.1578947368421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>1421.0526315789473</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1578.9473684210525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1736.8421052631579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.44444444444446</c:v>
+                  <c:v>1894.7368421052631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>388.88888888888891</c:v>
+                  <c:v>2052.6315789473683</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>583.33333333333337</c:v>
+                  <c:v>2210.5263157894738</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>777.77777777777783</c:v>
+                  <c:v>2368.4210526315787</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>972.22222222222229</c:v>
+                  <c:v>2501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1166.6666666666667</c:v>
+                  <c:v>2526.3157894736842</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1361.1111111111113</c:v>
+                  <c:v>2684.2105263157896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1555.5555555555557</c:v>
+                  <c:v>2842.1052631578946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +1281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3EA0-46E9-A060-DFBDAC028D5D}"/>
+              <c16:uniqueId val="{00000001-8F77-40FB-82B2-4BC1700D20B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,7 +1300,6 @@
         <c:axId val="13642095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1132,7 +1317,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1194,7 +1379,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1235,40 +1420,12 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1345,96 +1502,145 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$Z$41:$Z$60</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
+            <c:numRef>
+              <c:f>Лист1!$X$52:$X$72</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>22.534415923858127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.13155283569214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.752984553520648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.410789808983289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.083866244947586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.86913276123353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.787768884852085</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>76</c:v>
+                  <c:v>35.083551343772321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>t_int_C</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hl_tub</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>38.222069452415425</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>43.130162897732831</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>50.567475795444047</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>57.98475041677851</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>65.348052341720475</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>72.992533769861708</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>81.58353107564372</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>86.987191833763831</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>92.390852591883942</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>83.063455478880343</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>87.002423139058024</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>89.282026486129212</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$W$41:$W$60</c:f>
+              <c:f>Лист1!$W$52:$W$72</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>833.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>1166.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>194.44444444444446</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>388.88888888888891</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>583.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>777.77777777777783</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>972.22222222222229</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1166.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1361.1111111111113</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1555.5555555555557</c:v>
+                  <c:v>1333.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1666.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1833.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>2166.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2333.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2416.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>2666.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>2833.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,6 +1649,184 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1166-4508-AEB7-624473C67BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$AF$52:$AF$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.593333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.143333333333338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.92166666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.829999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.521666666666647</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.720833333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.956850000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.987611000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.204166666666652</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$AE$52:$AE$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>833.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1166.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1333.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1666.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1833.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2166.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2333.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2416.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2666.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2833.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B718-4598-B40F-44A1BFA4E1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1647,352 +2031,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13659085184011441"/>
-          <c:y val="0.10645021787641701"/>
-          <c:w val="0.79917798200921475"/>
-          <c:h val="0.86442035781859183"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$AA$41:$AA$60</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>choke.c_degrad_fr</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hmes_m</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2501</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2550.95</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2600.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2650.85</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2700.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2750.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2800.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2850.65</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2900.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$W$41:$W$60</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>194.44444444444446</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>388.88888888888891</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>583.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>777.77777777777783</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>972.22222222222229</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1166.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1361.1111111111113</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1555.5555555555557</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF35-4D7E-9495-C460A20252A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="13642095"/>
-        <c:axId val="2050658607"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="13642095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2050658607"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2050658607"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13642095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2092,49 +2130,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.75</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.75</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.5</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.25</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>189.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>240.5</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>297.75479999999993</c:v>
+                  <c:v>182.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>361.32175000000018</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>482.62500000000017</c:v>
+                  <c:v>272.50979999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>604.25000000000011</c:v>
+                  <c:v>324.01979999999992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>725.87500000000011</c:v>
+                  <c:v>395.75000000000017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>847.5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,64 +2187,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>525</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>700</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>875</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1050</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1225</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>1400</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1575</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1925</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2275</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2450</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>2625</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2800</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2975</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3150</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3325</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,7 +2443,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2495,78 +2533,6 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$W$52:$W$72</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>194.44444444444446</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>388.88888888888891</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>583.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>777.77777777777783</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>972.22222222222229</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1166.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1361.1111111111113</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1555.5555555555557</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1944.4444444444446</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>2138.8888888888891</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>2333.3333333333335</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>2501</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>2527.7777777777778</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>2722.2222222222226</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>2916.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>3111.1111111111113</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>3305.5555555555557</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>3500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Лист1!$V$52:$V$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2590,49 +2556,121 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>72.772461476460705</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>67.70244912071314</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.8732468827261</c:v>
+                  <c:v>68.434814984757395</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.773411912175646</c:v>
+                  <c:v>64.189299205653242</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.097334709908338</c:v>
+                  <c:v>60.45863949985727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.727605833746011</c:v>
+                  <c:v>57.155203693041116</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>54.095931416682895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.269700173506124</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>48.590377890729194</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>45.647785010029047</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42.848586835174778</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.168732039166805</c:v>
+                  <c:v>46.060654691386475</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.758163906557428</c:v>
+                  <c:v>43.630108867854346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.758163906557428</c:v>
+                  <c:v>41.304333337999893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.758163906557428</c:v>
+                  <c:v>39.05012253615353</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>17.758163906557428</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>17.758163906557428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$U$52:$U$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,7 +2714,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2831,7 +2869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3406,86 +3444,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5035,1038 +4993,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6660,54 +5586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5D5AFD-A925-4C26-A4B1-D86DB35052D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6726,7 +5614,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6734,16 +5622,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>23814</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6764,7 +5652,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6800,7 +5688,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6818,6 +5706,7 @@
     </sheetNames>
     <definedNames>
       <definedName name="ESP_encode_string"/>
+      <definedName name="ESP_name"/>
       <definedName name="getUFVersion"/>
       <definedName name="MF_p_pipe_new_atma"/>
       <definedName name="PVT_encode_string"/>
@@ -7131,13 +6020,17 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AM72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="35" max="36" width="13.140625" customWidth="1"/>
+    <col min="37" max="37" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7149,17 +6042,17 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -7175,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -7191,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -7207,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -7225,7 +6118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -7242,8 +6135,11 @@
       <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="Y11">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -7260,26 +6156,41 @@
       <c r="F12" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="Y12">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="8">
         <f>Tres_*9/5+32</f>
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="Y13">
+        <f>Y11*Y12</f>
+        <v>800</v>
+      </c>
+      <c r="Z13">
+        <f>Y13/1000</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA13">
+        <f>Z13*100</f>
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -7290,7 +6201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
@@ -7301,7 +6212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -7311,7 +6222,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>23</v>
@@ -7378,7 +6289,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>13</v>
@@ -7389,7 +6300,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="11">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>13</v>
@@ -7423,7 +6334,7 @@
       </c>
       <c r="C28" s="13" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:90.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -7433,19 +6344,23 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C29" t="str">
-        <f>[1]!ESP_encode_string()</f>
-        <v>ESP_ID:1005.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;t_intake_C:85.00000;t_dis_C:85.00000;KsepGS_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_h_mes_m:0.00000;ESP_gas_degradation_type:0;c_calibr_head:0.00000;c_calibr_rate:0.00000;c_calibr_power:0.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
+        <f>[1]!ESP_encode_string(,,,,,,,0.5)</f>
+        <v>ESP_ID:1005.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;t_intake_C:85.00000;t_dis_C:85.00000;KsepGS_fr:0.50000;Ksep_manual_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_h_mes_m:0.00000;ESP_gas_degradation_type:0;c_calibr_head:1.00000;c_calibr_rate:1.00000;c_calibr_power:1.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f>[1]!ESP_name(1005)</f>
+        <v>ВНН5-50</v>
+      </c>
       <c r="P31">
         <v>0</v>
       </c>
@@ -7466,7 +6381,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="17">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>28</v>
@@ -7537,7 +6452,7 @@
       <c r="G38" s="10"/>
       <c r="P38">
         <f t="array" ref="P38:Q38">[1]!MF_p_pipe_new_atma(qliq_,fw_,B43:C44,Pcalc_,,P33,P34,PVTstr_,,,E43:F45,1)</f>
-        <v>39.94432294739709</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>20</v>
@@ -7648,19 +6563,19 @@
       </c>
       <c r="P42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,P40,P41,PVTstr_)</f>
-        <v>43.024655733489823</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,Q40,Q41,PVTstr_)</f>
-        <v>59.301402759068743</v>
+        <v>6.8324261316861357</v>
       </c>
       <c r="R42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,R40,R41,PVTstr_)</f>
-        <v>154.74799966118218</v>
+        <v>29.96365668936015</v>
       </c>
       <c r="S42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,S40,S41,PVTstr_)</f>
-        <v>129.69938746308239</v>
+        <v>18.739370598858471</v>
       </c>
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
@@ -7838,77 +6753,77 @@
       <c r="K48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48">
-        <f t="array" ref="N48:AM72">[1]!well_plin_pwf_new_atma(qliq_,fw_,C24,C33,,,PVTstr_,ESP_,B43:C63,J43:K45,H43:I45,E43:F45,hcor,tempm)</f>
-        <v>170.90458697497493</v>
+        <f t="array" ref="N48:AM72">[1]!well_plin_pwf_new_atma(qliq_,fw_,C24,C33,Pcalc_,C37,PVTstr_,ESP_,B43:C63,J43:K45,H43:I45,E43:F45,hcor,tempm)</f>
+        <v>44.019917273662386</v>
       </c>
       <c r="O48">
-        <v>170.90458697497493</v>
+        <v>44.019917273662386</v>
       </c>
       <c r="P48">
-        <v>170.90458697497493</v>
+        <v>45.319990235747426</v>
       </c>
       <c r="Q48">
-        <v>345.53363996840454</v>
+        <v>210.54759420250809</v>
       </c>
       <c r="R48">
-        <v>189.37503867767998</v>
+        <v>101.7623892227938</v>
       </c>
       <c r="S48">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="T48">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48">
-        <v>98.387500000000003</v>
+        <v>90</v>
       </c>
       <c r="W48" s="21">
-        <v>20</v>
+        <v>22.534415923858127</v>
       </c>
       <c r="X48" s="21">
         <v>20</v>
       </c>
       <c r="Y48" s="21">
-        <v>77.014499285714564</v>
+        <v>92.390852591883942</v>
       </c>
       <c r="Z48" s="21">
-        <v>76.013467857142857</v>
+        <v>83.063455478880343</v>
       </c>
       <c r="AA48">
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC48">
         <v>0</v>
       </c>
       <c r="AD48">
-        <v>1064.7637716030149</v>
+        <v>0</v>
       </c>
       <c r="AE48">
         <v>50</v>
       </c>
       <c r="AF48">
-        <v>0.64150029893990901</v>
+        <v>14.345949417102116</v>
       </c>
       <c r="AG48">
-        <v>3.3333333333333333E-2</v>
+        <v>0.74543739838256551</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>0.43304227089033803</v>
       </c>
       <c r="AI48">
+        <v>0.88920414991231822</v>
+      </c>
+      <c r="AJ48">
+        <v>0.77840829982463633</v>
+      </c>
+      <c r="AK48">
         <v>0.5</v>
-      </c>
-      <c r="AJ48">
-        <v>0.5</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
@@ -8175,7 +7090,7 @@
         <v>hmes_m</v>
       </c>
       <c r="AB51" t="str">
-        <v>p_cas_C</v>
+        <v>p_cas_atma</v>
       </c>
       <c r="AC51" t="str">
         <v>hmes_m</v>
@@ -8183,11 +7098,11 @@
       <c r="AD51" t="str">
         <v>Hl_cas</v>
       </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
+      <c r="AE51" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="AF51" t="str">
+        <v>t_amb_C</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -8237,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>170.90458697497493</v>
+        <v>45.319990235747426</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -8261,31 +7176,31 @@
         <v>0</v>
       </c>
       <c r="X52" s="21">
-        <v>20</v>
+        <v>22.534415923858127</v>
       </c>
       <c r="Y52" s="21">
         <v>0</v>
       </c>
       <c r="Z52" s="21">
-        <v>0.97289353660441358</v>
+        <v>0.83199716975222793</v>
       </c>
       <c r="AA52">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <v>189.37503867767998</v>
+        <v>27.503873103557957</v>
       </c>
       <c r="AC52">
         <v>2501</v>
       </c>
       <c r="AD52">
-        <v>1</v>
+        <v>0.99649860798271772</v>
       </c>
       <c r="AE52">
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG52">
         <v>0</v>
@@ -8332,58 +7247,58 @@
         <v>2</v>
       </c>
       <c r="O53">
-        <v>194.44444444444446</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="P53">
-        <v>186.44477253904091</v>
+        <v>57.243288114919089</v>
       </c>
       <c r="Q53">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
       <c r="S53">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="T53">
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="U53">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="V53">
         <v>90</v>
       </c>
       <c r="W53" s="21">
-        <v>194.44444444444446</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="X53" s="21">
-        <v>24.354861111111113</v>
+        <v>24.13155283569214</v>
       </c>
       <c r="Y53" s="21">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Z53" s="21">
-        <v>0.97289222552469679</v>
+        <v>0.87111836860031977</v>
       </c>
       <c r="AA53">
-        <v>2550.9499999999998</v>
+        <v>157.89473684210526</v>
       </c>
       <c r="AB53">
-        <v>191.97247972578475</v>
+        <v>30.766265290161339</v>
       </c>
       <c r="AC53">
-        <v>2550.9499999999998</v>
+        <v>2525.9499999999998</v>
       </c>
       <c r="AD53">
-        <v>1</v>
+        <v>0.99647607292304818</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="AG53">
         <v>0</v>
@@ -8430,58 +7345,58 @@
         <v>3</v>
       </c>
       <c r="O54">
-        <v>388.88888888888891</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="P54">
-        <v>201.95816462125546</v>
+        <v>69.534857707764274</v>
       </c>
       <c r="Q54">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="T54">
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="U54">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="V54">
         <v>90</v>
       </c>
       <c r="W54" s="21">
-        <v>388.88888888888891</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="X54" s="21">
-        <v>28.709722222222222</v>
+        <v>25.752984553520648</v>
       </c>
       <c r="Y54" s="21">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Z54" s="21">
-        <v>0.97281840993493929</v>
+        <v>0.90049167514554507</v>
       </c>
       <c r="AA54">
-        <v>2600.9</v>
+        <v>315.78947368421052</v>
       </c>
       <c r="AB54">
-        <v>194.56992077388955</v>
+        <v>34.204308543440348</v>
       </c>
       <c r="AC54">
-        <v>2600.9</v>
+        <v>2550.9</v>
       </c>
       <c r="AD54">
-        <v>1</v>
+        <v>0.99645353786337865</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -8528,58 +7443,58 @@
         <v>4</v>
       </c>
       <c r="O55">
-        <v>583.33333333333337</v>
+        <v>500</v>
       </c>
       <c r="P55">
-        <v>217.19311856693309</v>
+        <v>81.970764924583591</v>
       </c>
       <c r="Q55">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="R55">
         <v>0</v>
       </c>
       <c r="S55">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="T55">
-        <v>0.06</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="U55">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="V55">
         <v>90</v>
       </c>
       <c r="W55" s="21">
-        <v>583.33333333333337</v>
+        <v>500</v>
       </c>
       <c r="X55" s="21">
-        <v>33.064583333333331</v>
+        <v>27.410789808983289</v>
       </c>
       <c r="Y55" s="21">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="Z55" s="21">
-        <v>0.92198166515329238</v>
+        <v>0.85923938254928645</v>
       </c>
       <c r="AA55">
-        <v>2650.85</v>
+        <v>473.68421052631578</v>
       </c>
       <c r="AB55">
-        <v>197.08538974664319</v>
+        <v>37.846071598787432</v>
       </c>
       <c r="AC55">
-        <v>2650.85</v>
+        <v>2575.85</v>
       </c>
       <c r="AD55">
-        <v>1</v>
+        <v>0.99643100280370922</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -8626,58 +7541,58 @@
         <v>5</v>
       </c>
       <c r="O56">
-        <v>777.77777777777783</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="P56">
-        <v>232.12629519978785</v>
+        <v>93.568704044262063</v>
       </c>
       <c r="Q56">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T56">
         <v>0.06</v>
       </c>
       <c r="U56">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="V56">
         <v>90</v>
       </c>
       <c r="W56" s="21">
-        <v>777.77777777777783</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="X56" s="21">
-        <v>37.419444444444444</v>
+        <v>29.083866244947586</v>
       </c>
       <c r="Y56" s="21">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Z56" s="21">
-        <v>0.9214375525049483</v>
+        <v>0.85003417136794979</v>
       </c>
       <c r="AA56">
-        <v>2700.8</v>
+        <v>631.57894736842104</v>
       </c>
       <c r="AB56">
-        <v>199.60069428193376</v>
+        <v>41.75805702496158</v>
       </c>
       <c r="AC56">
-        <v>2700.8</v>
+        <v>2600.8000000000002</v>
       </c>
       <c r="AD56">
-        <v>1</v>
+        <v>0.99640846774403968</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -8724,58 +7639,58 @@
         <v>6</v>
       </c>
       <c r="O57">
-        <v>972.22222222222229</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="P57">
-        <v>246.98578452797182</v>
+        <v>105.80712507256797</v>
       </c>
       <c r="Q57">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T57">
         <v>0.06</v>
       </c>
       <c r="U57">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="V57">
         <v>90</v>
       </c>
       <c r="W57" s="21">
-        <v>972.22222222222229</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="X57" s="21">
-        <v>41.774305555555557</v>
+        <v>30.86913276123353</v>
       </c>
       <c r="Y57" s="21">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Z57" s="21">
-        <v>0.92061083144118738</v>
+        <v>0.90773645433014793</v>
       </c>
       <c r="AA57">
-        <v>2750.75</v>
+        <v>789.47368421052624</v>
       </c>
       <c r="AB57">
-        <v>201.4503000006226</v>
+        <v>45.859699731082245</v>
       </c>
       <c r="AC57">
-        <v>2750.75</v>
+        <v>2625.75</v>
       </c>
       <c r="AD57">
-        <v>1</v>
+        <v>0.99638070028586634</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -8822,58 +7737,58 @@
         <v>7</v>
       </c>
       <c r="O58">
-        <v>1166.6666666666667</v>
+        <v>1000</v>
       </c>
       <c r="P58">
-        <v>261.32327652213036</v>
+        <v>118.12966805688693</v>
       </c>
       <c r="Q58">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T58">
         <v>0.06</v>
       </c>
       <c r="U58">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="V58">
-        <v>72.772461476460705</v>
+        <v>90</v>
       </c>
       <c r="W58" s="21">
-        <v>1166.6666666666667</v>
+        <v>1000</v>
       </c>
       <c r="X58" s="21">
-        <v>46.129166666666663</v>
+        <v>32.787768884852085</v>
       </c>
       <c r="Y58" s="21">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="Z58" s="21">
-        <v>0.93601053527995082</v>
+        <v>0.91707746156781011</v>
       </c>
       <c r="AA58">
-        <v>2800.7</v>
+        <v>947.36842105263156</v>
       </c>
       <c r="AB58">
-        <v>203.29722954316432</v>
+        <v>50.215025606700635</v>
       </c>
       <c r="AC58">
-        <v>2800.7</v>
+        <v>2650.7</v>
       </c>
       <c r="AD58">
-        <v>1</v>
+        <v>0.99635289054568488</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -8920,58 +7835,58 @@
         <v>8</v>
       </c>
       <c r="O59">
-        <v>1361.1111111111113</v>
+        <v>1166.6666666666665</v>
       </c>
       <c r="P59">
-        <v>275.15867623553828</v>
+        <v>130.03045410884357</v>
       </c>
       <c r="Q59">
-        <v>1225</v>
+        <v>1050</v>
       </c>
       <c r="R59">
-        <v>10.75</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1225</v>
+        <v>1050</v>
       </c>
       <c r="T59">
         <v>0.06</v>
       </c>
       <c r="U59">
-        <v>1225</v>
+        <v>1050</v>
       </c>
       <c r="V59">
-        <v>67.70244912071314</v>
+        <v>72.772461476460705</v>
       </c>
       <c r="W59" s="21">
-        <v>1361.1111111111113</v>
+        <v>1166.6666666666665</v>
       </c>
       <c r="X59" s="21">
-        <v>50.484027777777783</v>
+        <v>35.083551343772321</v>
       </c>
       <c r="Y59" s="21">
-        <v>1225</v>
+        <v>1050</v>
       </c>
       <c r="Z59" s="21">
-        <v>0.94084695521329598</v>
+        <v>0.92442130211462792</v>
       </c>
       <c r="AA59">
-        <v>2850.65</v>
+        <v>1105.2631578947369</v>
       </c>
       <c r="AB59">
-        <v>204.49816842041545</v>
+        <v>54.990502861647265</v>
       </c>
       <c r="AC59">
-        <v>2850.65</v>
+        <v>2675.65</v>
       </c>
       <c r="AD59">
-        <v>1</v>
+        <v>0.99632508080550353</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1166.6666666666665</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>31.593333333333334</v>
       </c>
       <c r="AG59">
         <v>0</v>
@@ -9018,58 +7933,58 @@
         <v>9</v>
       </c>
       <c r="O60">
-        <v>1555.5555555555557</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="P60">
-        <v>288.63974899698047</v>
+        <v>141.63044997088181</v>
       </c>
       <c r="Q60">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="R60">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="S60">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T60">
         <v>0.06</v>
       </c>
       <c r="U60">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="V60">
-        <v>62.8732468827261</v>
+        <v>68.434814984757395</v>
       </c>
       <c r="W60" s="21">
-        <v>1555.5555555555557</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="X60" s="21">
-        <v>54.838888888888889</v>
+        <v>38.222069452415425</v>
       </c>
       <c r="Y60" s="21">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Z60" s="21">
-        <v>0.96998990796514339</v>
+        <v>0.93026840696000046</v>
       </c>
       <c r="AA60">
-        <v>2900.6</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="AB60">
-        <v>205.69520403080685</v>
+        <v>60.075855804372978</v>
       </c>
       <c r="AC60">
-        <v>2900.6</v>
+        <v>2700.6</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0.99629727106532207</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="AF60">
-        <v>0</v>
+        <v>33.143333333333338</v>
       </c>
       <c r="AG60">
         <v>0</v>
@@ -9116,58 +8031,58 @@
         <v>10</v>
       </c>
       <c r="O61">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="P61">
-        <v>301.5329198747574</v>
+        <v>152.85401998160839</v>
       </c>
       <c r="Q61">
-        <v>1575</v>
+        <v>1350</v>
       </c>
       <c r="R61">
-        <v>45.75</v>
+        <v>20.5</v>
       </c>
       <c r="S61">
-        <v>1575</v>
+        <v>1350</v>
       </c>
       <c r="T61">
         <v>0.06</v>
       </c>
       <c r="U61">
-        <v>1575</v>
+        <v>1350</v>
       </c>
       <c r="V61">
-        <v>58.773411912175646</v>
+        <v>64.189299205653242</v>
       </c>
       <c r="W61">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="X61">
-        <v>59.193749999999994</v>
+        <v>43.130162897732831</v>
       </c>
       <c r="Y61">
-        <v>1575</v>
+        <v>1350</v>
       </c>
       <c r="Z61">
-        <v>0.9739644206228748</v>
+        <v>0.93420222099694361</v>
       </c>
       <c r="AA61">
-        <v>2950.55</v>
+        <v>1421.0526315789473</v>
       </c>
       <c r="AB61">
-        <v>206.89082616989791</v>
+        <v>65.30999641511157</v>
       </c>
       <c r="AC61">
-        <v>2950.55</v>
+        <v>2725.55</v>
       </c>
       <c r="AD61">
-        <v>1</v>
+        <v>0.99554862267356603</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>34.64</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -9214,58 +8129,58 @@
         <v>11</v>
       </c>
       <c r="O62">
-        <v>1944.4444444444446</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="P62">
-        <v>313.82169239271752</v>
+        <v>163.59838764960864</v>
       </c>
       <c r="Q62">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="R62">
-        <v>72.5</v>
+        <v>36</v>
       </c>
       <c r="S62">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="T62">
         <v>0.06</v>
       </c>
       <c r="U62">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="V62">
-        <v>55.097334709908338</v>
+        <v>60.45863949985727</v>
       </c>
       <c r="W62">
-        <v>1944.4444444444446</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="X62">
-        <v>63.548611111111114</v>
+        <v>50.567475795444047</v>
       </c>
       <c r="Y62">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="Z62">
-        <v>0.97631595747060484</v>
+        <v>0.93622838632336625</v>
       </c>
       <c r="AA62">
-        <v>3000.5</v>
+        <v>1578.9473684210525</v>
       </c>
       <c r="AB62">
-        <v>208.08643689852437</v>
+        <v>70.617947873379293</v>
       </c>
       <c r="AC62">
-        <v>3000.5</v>
+        <v>2750.5</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0.99478822945652989</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>40.92166666666666</v>
       </c>
       <c r="AG62">
         <v>0</v>
@@ -9306,58 +8221,58 @@
         <v>12</v>
       </c>
       <c r="O63">
-        <v>2138.8888888888891</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="P63">
-        <v>325.49486063442981</v>
+        <v>173.89891365528149</v>
       </c>
       <c r="Q63">
-        <v>1925</v>
+        <v>1650</v>
       </c>
       <c r="R63">
-        <v>105.25</v>
+        <v>56.5</v>
       </c>
       <c r="S63">
-        <v>1925</v>
+        <v>1650</v>
       </c>
       <c r="T63">
         <v>0.06</v>
       </c>
       <c r="U63">
-        <v>1925</v>
+        <v>1650</v>
       </c>
       <c r="V63">
-        <v>51.727605833746011</v>
+        <v>57.155203693041116</v>
       </c>
       <c r="W63">
-        <v>2138.8888888888891</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="X63">
-        <v>67.90347222222222</v>
+        <v>57.98475041677851</v>
       </c>
       <c r="Y63">
-        <v>1925</v>
+        <v>1650</v>
       </c>
       <c r="Z63">
-        <v>0.97734932608787417</v>
+        <v>0.93613482233410905</v>
       </c>
       <c r="AA63">
-        <v>3050.45</v>
+        <v>1736.8421052631579</v>
       </c>
       <c r="AB63">
-        <v>209.28063833944952</v>
+        <v>75.924089027360495</v>
       </c>
       <c r="AC63">
-        <v>3050.45</v>
+        <v>2775.45</v>
       </c>
       <c r="AD63">
-        <v>1</v>
+        <v>0.99402783623949365</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="AF63">
-        <v>0</v>
+        <v>48.53</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -9390,58 +8305,58 @@
         <v>13</v>
       </c>
       <c r="O64">
-        <v>2333.3333333333335</v>
+        <v>2000</v>
       </c>
       <c r="P64">
-        <v>336.5448947282996</v>
+        <v>183.75894580900223</v>
       </c>
       <c r="Q64">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="R64">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S64">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="T64">
         <v>0.06</v>
       </c>
       <c r="U64">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="V64">
-        <v>48.590377890729194</v>
+        <v>54.095931416682895</v>
       </c>
       <c r="W64">
-        <v>2333.3333333333335</v>
+        <v>2000</v>
       </c>
       <c r="X64">
-        <v>72.258333333333326</v>
+        <v>65.348052341720475</v>
       </c>
       <c r="Y64">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="Z64">
-        <v>0.97728551117210738</v>
+        <v>0.93589645875663185</v>
       </c>
       <c r="AA64">
-        <v>3100.4</v>
+        <v>1894.7368421052631</v>
       </c>
       <c r="AB64">
-        <v>210.47482553075184</v>
+        <v>81.198394211297369</v>
       </c>
       <c r="AC64">
-        <v>3100.4</v>
+        <v>2800.4</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0.99326744302245751</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -9474,58 +8389,58 @@
         <v>14</v>
       </c>
       <c r="O65">
-        <v>2500</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="P65">
-        <v>345.53363996840454</v>
+        <v>193.12845442862795</v>
       </c>
       <c r="Q65">
-        <v>2275</v>
+        <v>1950</v>
       </c>
       <c r="R65">
-        <v>189.25</v>
+        <v>110.5</v>
       </c>
       <c r="S65">
-        <v>2275</v>
+        <v>1950</v>
       </c>
       <c r="T65">
         <v>0.06</v>
       </c>
       <c r="U65">
-        <v>2275</v>
+        <v>1950</v>
       </c>
       <c r="V65">
-        <v>45.647785010029047</v>
+        <v>51.269700173506124</v>
       </c>
       <c r="W65">
-        <v>2500</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="X65">
-        <v>75.991071428571416</v>
+        <v>72.992533769861708</v>
       </c>
       <c r="Y65">
-        <v>2275</v>
+        <v>1950</v>
       </c>
       <c r="Z65">
-        <v>0.97622362163805798</v>
+        <v>0.93567967118963147</v>
       </c>
       <c r="AA65">
-        <v>3150.35</v>
+        <v>2052.6315789473683</v>
       </c>
       <c r="AB65">
-        <v>211.66760753379643</v>
+        <v>86.427033682769689</v>
       </c>
       <c r="AC65">
-        <v>3150.35</v>
+        <v>2825.35</v>
       </c>
       <c r="AD65">
-        <v>1</v>
+        <v>0.99324282982553946</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>2166.6666666666665</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>62.829999999999991</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -9555,58 +8470,58 @@
         <v>15</v>
       </c>
       <c r="O66">
-        <v>2501</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="P66">
-        <v>189.37503867767998</v>
+        <v>202.0605595230916</v>
       </c>
       <c r="Q66">
-        <v>2450</v>
+        <v>2100</v>
       </c>
       <c r="R66">
-        <v>240.5</v>
+        <v>144</v>
       </c>
       <c r="S66">
-        <v>2450</v>
+        <v>2100</v>
       </c>
       <c r="T66">
-        <v>9.2499999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="U66">
-        <v>2450</v>
+        <v>2100</v>
       </c>
       <c r="V66">
-        <v>42.848586835174778</v>
+        <v>48.590377890729194</v>
       </c>
       <c r="W66">
-        <v>2501</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="X66">
-        <v>76.013467857142857</v>
+        <v>81.58353107564372</v>
       </c>
       <c r="Y66">
-        <v>2450</v>
+        <v>2100</v>
       </c>
       <c r="Z66">
-        <v>0.97436256187174886</v>
+        <v>0.93567212385991494</v>
       </c>
       <c r="AA66">
-        <v>3200.3</v>
+        <v>2210.5263157894738</v>
       </c>
       <c r="AB66">
-        <v>212.86037245248531</v>
+        <v>91.638512593219843</v>
       </c>
       <c r="AC66">
-        <v>3200.3</v>
+        <v>2850.3</v>
       </c>
       <c r="AD66">
-        <v>1</v>
+        <v>0.99323634673178651</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>69.521666666666647</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -9636,58 +8551,58 @@
         <v>16</v>
       </c>
       <c r="O67">
-        <v>2527.7777777777778</v>
+        <v>2416.6666666666665</v>
       </c>
       <c r="P67">
-        <v>190.76750512767055</v>
+        <v>206.30407686279983</v>
       </c>
       <c r="Q67">
-        <v>2625</v>
+        <v>2250</v>
       </c>
       <c r="R67">
-        <v>297.75479999999993</v>
+        <v>182.5</v>
       </c>
       <c r="S67">
-        <v>2625</v>
+        <v>2250</v>
       </c>
       <c r="T67">
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="U67">
-        <v>2625</v>
+        <v>2250</v>
       </c>
       <c r="V67">
-        <v>40.168732039166805</v>
+        <v>46.060654691386475</v>
       </c>
       <c r="W67">
-        <v>2527.7777777777778</v>
+        <v>2416.6666666666665</v>
       </c>
       <c r="X67">
-        <v>76.613194444444446</v>
+        <v>86.987191833763831</v>
       </c>
       <c r="Y67">
-        <v>2625</v>
+        <v>2250</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>0.93551257099196383</v>
       </c>
       <c r="AA67">
-        <v>3250.25</v>
+        <v>2368.4210526315787</v>
       </c>
       <c r="AB67">
-        <v>214.05173620170297</v>
+        <v>96.928456132680466</v>
       </c>
       <c r="AC67">
-        <v>3250.25</v>
+        <v>2875.25</v>
       </c>
       <c r="AD67">
-        <v>1</v>
+        <v>0.99322986363803367</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>2416.6666666666665</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>72.720833333333331</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -9717,58 +8632,58 @@
         <v>17</v>
       </c>
       <c r="O68">
-        <v>2722.2222222222226</v>
+        <v>2500</v>
       </c>
       <c r="P68">
-        <v>200.39546925866381</v>
+        <v>210.54759420250809</v>
       </c>
       <c r="Q68">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="R68">
-        <v>361.32175000000018</v>
+        <v>225</v>
       </c>
       <c r="S68">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T68">
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="U68">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="V68">
-        <v>17.758163906557428</v>
+        <v>43.630108867854346</v>
       </c>
       <c r="W68">
-        <v>2722.2222222222226</v>
+        <v>2500</v>
       </c>
       <c r="X68">
-        <v>80.968055555555566</v>
+        <v>92.390852591883942</v>
       </c>
       <c r="Y68">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>0.93504865337443011</v>
       </c>
       <c r="AA68">
-        <v>3300.2</v>
+        <v>2501</v>
       </c>
       <c r="AB68">
-        <v>215.24308003582152</v>
+        <v>101.7623892227938</v>
       </c>
       <c r="AC68">
-        <v>3300.2</v>
+        <v>2900.2</v>
       </c>
       <c r="AD68">
-        <v>1</v>
+        <v>0.99322338054428083</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF68">
-        <v>0</v>
+        <v>75.92</v>
       </c>
       <c r="AG68">
         <v>0</v>
@@ -9798,58 +8713,58 @@
         <v>18</v>
       </c>
       <c r="O69">
-        <v>2916.666666666667</v>
+        <v>2501</v>
       </c>
       <c r="P69">
-        <v>206.07978959622503</v>
+        <v>101.7623892227938</v>
       </c>
       <c r="Q69">
-        <v>2975</v>
+        <v>2550</v>
       </c>
       <c r="R69">
-        <v>482.62500000000017</v>
+        <v>272.50979999999993</v>
       </c>
       <c r="S69">
-        <v>2975</v>
+        <v>2550</v>
       </c>
       <c r="T69">
         <v>0.125</v>
       </c>
       <c r="U69">
-        <v>2975</v>
+        <v>2550</v>
       </c>
       <c r="V69">
-        <v>17.758163906557428</v>
+        <v>41.304333337999893</v>
       </c>
       <c r="W69">
-        <v>2916.666666666667</v>
+        <v>2501</v>
       </c>
       <c r="X69">
-        <v>85.322916666666671</v>
+        <v>83.063455478880343</v>
       </c>
       <c r="Y69">
-        <v>2975</v>
+        <v>2550</v>
       </c>
       <c r="Z69">
-        <v>1</v>
+        <v>0.99645435075130262</v>
       </c>
       <c r="AA69">
-        <v>3350.15</v>
+        <v>2526.3157894736842</v>
       </c>
       <c r="AB69">
-        <v>216.43302664187755</v>
+        <v>103.05188933664667</v>
       </c>
       <c r="AC69">
-        <v>3350.15</v>
+        <v>2925.15</v>
       </c>
       <c r="AD69">
-        <v>1</v>
+        <v>0.99322076682978067</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>2501</v>
       </c>
       <c r="AF69">
-        <v>0</v>
+        <v>75.956850000000003</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -9879,58 +8794,58 @@
         <v>19</v>
       </c>
       <c r="O70">
-        <v>3111.1111111111113</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="P70">
-        <v>210.73061513910179</v>
+        <v>110.08528396796831</v>
       </c>
       <c r="Q70">
-        <v>3150</v>
+        <v>2700</v>
       </c>
       <c r="R70">
-        <v>604.25000000000011</v>
+        <v>324.01979999999992</v>
       </c>
       <c r="S70">
-        <v>3150</v>
+        <v>2700</v>
       </c>
       <c r="T70">
         <v>0.125</v>
       </c>
       <c r="U70">
-        <v>3150</v>
+        <v>2700</v>
       </c>
       <c r="V70">
-        <v>17.758163906557428</v>
+        <v>39.05012253615353</v>
       </c>
       <c r="W70">
-        <v>3111.1111111111113</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="X70">
-        <v>89.677777777777777</v>
+        <v>87.002423139058024</v>
       </c>
       <c r="Y70">
-        <v>3150</v>
+        <v>2700</v>
       </c>
       <c r="Z70">
-        <v>1</v>
+        <v>0.99629793983662907</v>
       </c>
       <c r="AA70">
-        <v>3400.1</v>
+        <v>2684.2105263157896</v>
       </c>
       <c r="AB70">
-        <v>217.62295050566601</v>
+        <v>110.9480238161609</v>
       </c>
       <c r="AC70">
-        <v>3400.1</v>
+        <v>2950.1</v>
       </c>
       <c r="AD70">
-        <v>1</v>
+        <v>0.99321828129347522</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="AF70">
-        <v>0</v>
+        <v>81.987611000000001</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -9960,58 +8875,58 @@
         <v>20</v>
       </c>
       <c r="O71">
-        <v>3305.5555555555557</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="P71">
-        <v>215.37068442692592</v>
+        <v>116.12514732957787</v>
       </c>
       <c r="Q71">
-        <v>3325</v>
+        <v>2850</v>
       </c>
       <c r="R71">
-        <v>725.87500000000011</v>
+        <v>395.75000000000017</v>
       </c>
       <c r="S71">
-        <v>3325</v>
+        <v>2850</v>
       </c>
       <c r="T71">
         <v>0.125</v>
       </c>
       <c r="U71">
-        <v>3325</v>
+        <v>2850</v>
       </c>
       <c r="V71">
         <v>17.758163906557428</v>
       </c>
       <c r="W71">
-        <v>3305.5555555555557</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="X71">
-        <v>94.032638888888897</v>
+        <v>89.282026486129212</v>
       </c>
       <c r="Y71">
-        <v>3325</v>
+        <v>2850</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>0.99323642468481765</v>
       </c>
       <c r="AA71">
-        <v>3450.05</v>
+        <v>2842.1052631578946</v>
       </c>
       <c r="AB71">
-        <v>218.81148797207504</v>
+        <v>116.32927081896889</v>
       </c>
       <c r="AC71">
-        <v>3450.05</v>
+        <v>2975.05</v>
       </c>
       <c r="AD71">
-        <v>1</v>
+        <v>0.99321579575716978</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>87.204166666666652</v>
       </c>
       <c r="AG71">
         <v>0</v>
@@ -10041,58 +8956,58 @@
         <v>21</v>
       </c>
       <c r="O72">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P72">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="Q72">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="R72">
-        <v>847.5</v>
+        <v>500</v>
       </c>
       <c r="S72">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T72">
         <v>0.125</v>
       </c>
       <c r="U72">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="V72">
         <v>17.758163906557428</v>
       </c>
       <c r="W72">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="X72">
-        <v>98.387500000000003</v>
+        <v>90</v>
       </c>
       <c r="Y72">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0.99321331022086434</v>
       </c>
       <c r="AA72">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="AB72">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AC72">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="AD72">
-        <v>1</v>
+        <v>0.99321331022086434</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AG72">
         <v>0</v>

--- a/exercises/excercises/ex130.MF_well_new.xlsx
+++ b/exercises/excercises/ex130.MF_well_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91012A-B0B7-45B3-B560-A1C2FD78F65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76031A8-2760-4F87-A11F-9359A3F935C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
@@ -963,64 +963,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>45.319990235747426</c:v>
+                  <c:v>59.128019482828876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.243288114919089</c:v>
+                  <c:v>71.817329433767611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.534857707764274</c:v>
+                  <c:v>84.639788000121143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.970764924583591</c:v>
+                  <c:v>97.585111199783029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.568704044262063</c:v>
+                  <c:v>110.2724277468218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.80712507256797</c:v>
+                  <c:v>123.05371909621539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>118.12966805688693</c:v>
+                  <c:v>135.80864495735878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.03045410884357</c:v>
+                  <c:v>148.07444843987696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141.63044997088181</c:v>
+                  <c:v>159.99751470126304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152.85401998160839</c:v>
+                  <c:v>171.51123854190604</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>163.59838764960864</c:v>
+                  <c:v>182.51926940622141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>173.89891365528149</c:v>
+                  <c:v>193.06441171189527</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>183.75894580900223</c:v>
+                  <c:v>203.15215334592025</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>193.12845442862795</c:v>
+                  <c:v>212.72992634274462</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>202.0605595230916</c:v>
+                  <c:v>221.85369321008312</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>206.30407686279983</c:v>
+                  <c:v>226.18457206610492</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>210.54759420250809</c:v>
+                  <c:v>230.51545092212672</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101.7623892227938</c:v>
+                  <c:v>101.72274173128164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110.08528396796831</c:v>
+                  <c:v>110.06148650169266</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116.12514732957787</c:v>
+                  <c:v>116.11448964920008</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>120</c:v>
@@ -1141,64 +1141,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>27.503873103557957</c:v>
+                  <c:v>27.265164054340659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.766265290161339</c:v>
+                  <c:v>30.50644799483899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.204308543440348</c:v>
+                  <c:v>33.92727155268485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.846071598787432</c:v>
+                  <c:v>37.554342645060395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.75805702496158</c:v>
+                  <c:v>41.426351524163721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.859699731082245</c:v>
+                  <c:v>45.487557935780124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.215025606700635</c:v>
+                  <c:v>49.813897389258472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.990502861647265</c:v>
+                  <c:v>54.61551549400982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.075855804372978</c:v>
+                  <c:v>59.735873586969788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.30999641511157</c:v>
+                  <c:v>65.014726566938819</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.617947873379293</c:v>
+                  <c:v>70.374850690813446</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.924089027360495</c:v>
+                  <c:v>75.73326976011154</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81.198394211297369</c:v>
+                  <c:v>81.055585063528511</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.427033682769689</c:v>
+                  <c:v>86.323254892271081</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.638512593219843</c:v>
+                  <c:v>91.564349235789962</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96.928456132680466</c:v>
+                  <c:v>96.875130306414846</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.7623892227938</c:v>
+                  <c:v>101.72274173128164</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103.05188933664667</c:v>
+                  <c:v>103.0147590502531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110.9480238161609</c:v>
+                  <c:v>110.92580444322063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116.32927081896889</c:v>
+                  <c:v>116.31918450188628</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>120</c:v>
@@ -1508,64 +1508,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>22.534415923858127</c:v>
+                  <c:v>22.173698367499675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.13155283569214</c:v>
+                  <c:v>23.780499661946802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.752984553520648</c:v>
+                  <c:v>25.405435364268584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.410789808983289</c:v>
+                  <c:v>27.082889487297031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.083866244947586</c:v>
+                  <c:v>28.792635558879731</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.86913276123353</c:v>
+                  <c:v>30.541407416063237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.787768884852085</c:v>
+                  <c:v>32.376187757445024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.083551343772321</c:v>
+                  <c:v>34.51897484315279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.222069452415425</c:v>
+                  <c:v>37.444047619608298</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>43.130162897732831</c:v>
+                  <c:v>42.155423344092718</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>50.567475795444047</c:v>
+                  <c:v>49.589199433168595</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>57.98475041677851</c:v>
+                  <c:v>57.001017759618911</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>65.348052341720475</c:v>
+                  <c:v>64.340268709773369</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>72.992533769861708</c:v>
+                  <c:v>71.969136910822726</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>81.58353107564372</c:v>
+                  <c:v>80.685945835093136</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>86.987191833763831</c:v>
+                  <c:v>86.410978259546965</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>92.390852591883942</c:v>
+                  <c:v>92.136010684000794</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>83.063455478880343</c:v>
+                  <c:v>82.609305430571126</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>87.002423139058024</c:v>
+                  <c:v>86.762602592641329</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>89.282026486129212</c:v>
+                  <c:v>89.207678295451899</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
                   <c:v>90</c:v>
@@ -6021,7 +6021,7 @@
   <dimension ref="A1:AM72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6222,7 +6222,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>23</v>
@@ -6567,15 +6567,15 @@
       </c>
       <c r="Q42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,Q40,Q41,PVTstr_)</f>
-        <v>6.8324261316861357</v>
+        <v>6.2502561240238217</v>
       </c>
       <c r="R42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,R40,R41,PVTstr_)</f>
-        <v>29.96365668936015</v>
+        <v>29.614145023047335</v>
       </c>
       <c r="S42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,S40,S41,PVTstr_)</f>
-        <v>18.739370598858471</v>
+        <v>19.485292216745712</v>
       </c>
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
@@ -6754,25 +6754,25 @@
       <c r="M48" s="19"/>
       <c r="N48">
         <f t="array" ref="N48:AM72">[1]!well_plin_pwf_new_atma(qliq_,fw_,C24,C33,Pcalc_,C37,PVTstr_,ESP_,B43:C63,J43:K45,H43:I45,E43:F45,hcor,tempm)</f>
-        <v>44.019917273662386</v>
+        <v>58.362935246356727</v>
       </c>
       <c r="O48">
-        <v>44.019917273662386</v>
+        <v>58.362935246356727</v>
       </c>
       <c r="P48">
-        <v>45.319990235747426</v>
+        <v>59.128019482828876</v>
       </c>
       <c r="Q48">
-        <v>210.54759420250809</v>
+        <v>230.51545092212672</v>
       </c>
       <c r="R48">
-        <v>101.7623892227938</v>
+        <v>101.72274173128164</v>
       </c>
       <c r="S48">
         <v>120</v>
       </c>
       <c r="T48">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -6781,16 +6781,16 @@
         <v>90</v>
       </c>
       <c r="W48" s="21">
-        <v>22.534415923858127</v>
+        <v>22.173698367499675</v>
       </c>
       <c r="X48" s="21">
         <v>20</v>
       </c>
       <c r="Y48" s="21">
-        <v>92.390852591883942</v>
+        <v>92.136010684000794</v>
       </c>
       <c r="Z48" s="21">
-        <v>83.063455478880343</v>
+        <v>82.609305430571126</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -6808,19 +6808,19 @@
         <v>50</v>
       </c>
       <c r="AF48">
-        <v>14.345949417102116</v>
+        <v>13.984662694978663</v>
       </c>
       <c r="AG48">
-        <v>0.74543739838256551</v>
+        <v>0.72666438961335755</v>
       </c>
       <c r="AH48">
-        <v>0.43304227089033803</v>
+        <v>0.46577294055834534</v>
       </c>
       <c r="AI48">
-        <v>0.88920414991231822</v>
+        <v>0.89748148385278737</v>
       </c>
       <c r="AJ48">
-        <v>0.77840829982463633</v>
+        <v>0.79496296770557484</v>
       </c>
       <c r="AK48">
         <v>0.5</v>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>45.319990235747426</v>
+        <v>59.128019482828876</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -7176,25 +7176,25 @@
         <v>0</v>
       </c>
       <c r="X52" s="21">
-        <v>22.534415923858127</v>
+        <v>22.173698367499675</v>
       </c>
       <c r="Y52" s="21">
         <v>0</v>
       </c>
       <c r="Z52" s="21">
-        <v>0.83199716975222793</v>
+        <v>0.91013830862218015</v>
       </c>
       <c r="AA52">
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>27.503873103557957</v>
+        <v>27.265164054340659</v>
       </c>
       <c r="AC52">
         <v>2501</v>
       </c>
       <c r="AD52">
-        <v>0.99649860798271772</v>
+        <v>0.99851900137197791</v>
       </c>
       <c r="AE52">
         <v>0</v>
@@ -7250,7 +7250,7 @@
         <v>166.66666666666666</v>
       </c>
       <c r="P53">
-        <v>57.243288114919089</v>
+        <v>71.817329433767611</v>
       </c>
       <c r="Q53">
         <v>150</v>
@@ -7274,25 +7274,25 @@
         <v>166.66666666666666</v>
       </c>
       <c r="X53" s="21">
-        <v>24.13155283569214</v>
+        <v>23.780499661946802</v>
       </c>
       <c r="Y53" s="21">
         <v>150</v>
       </c>
       <c r="Z53" s="21">
-        <v>0.87111836860031977</v>
+        <v>0.93079988315929418</v>
       </c>
       <c r="AA53">
         <v>157.89473684210526</v>
       </c>
       <c r="AB53">
-        <v>30.766265290161339</v>
+        <v>30.50644799483899</v>
       </c>
       <c r="AC53">
         <v>2525.9499999999998</v>
       </c>
       <c r="AD53">
-        <v>0.99647607292304818</v>
+        <v>0.99848332898471293</v>
       </c>
       <c r="AE53">
         <v>166.66666666666666</v>
@@ -7348,7 +7348,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="P54">
-        <v>69.534857707764274</v>
+        <v>84.639788000121143</v>
       </c>
       <c r="Q54">
         <v>300</v>
@@ -7372,25 +7372,25 @@
         <v>333.33333333333331</v>
       </c>
       <c r="X54" s="21">
-        <v>25.752984553520648</v>
+        <v>25.405435364268584</v>
       </c>
       <c r="Y54" s="21">
         <v>300</v>
       </c>
       <c r="Z54" s="21">
-        <v>0.90049167514554507</v>
+        <v>0.94657066267090995</v>
       </c>
       <c r="AA54">
         <v>315.78947368421052</v>
       </c>
       <c r="AB54">
-        <v>34.204308543440348</v>
+        <v>33.92727155268485</v>
       </c>
       <c r="AC54">
         <v>2550.9</v>
       </c>
       <c r="AD54">
-        <v>0.99645353786337865</v>
+        <v>0.99844765659744805</v>
       </c>
       <c r="AE54">
         <v>333.33333333333331</v>
@@ -7446,7 +7446,7 @@
         <v>500</v>
       </c>
       <c r="P55">
-        <v>81.970764924583591</v>
+        <v>97.585111199783029</v>
       </c>
       <c r="Q55">
         <v>450</v>
@@ -7470,25 +7470,25 @@
         <v>500</v>
       </c>
       <c r="X55" s="21">
-        <v>27.410789808983289</v>
+        <v>27.082889487297031</v>
       </c>
       <c r="Y55" s="21">
         <v>450</v>
       </c>
       <c r="Z55" s="21">
-        <v>0.85923938254928645</v>
+        <v>0.94853692153178293</v>
       </c>
       <c r="AA55">
         <v>473.68421052631578</v>
       </c>
       <c r="AB55">
-        <v>37.846071598787432</v>
+        <v>37.554342645060395</v>
       </c>
       <c r="AC55">
         <v>2575.85</v>
       </c>
       <c r="AD55">
-        <v>0.99643100280370922</v>
+        <v>0.99841198421018307</v>
       </c>
       <c r="AE55">
         <v>500</v>
@@ -7544,7 +7544,7 @@
         <v>666.66666666666663</v>
       </c>
       <c r="P56">
-        <v>93.568704044262063</v>
+        <v>110.2724277468218</v>
       </c>
       <c r="Q56">
         <v>600</v>
@@ -7568,25 +7568,25 @@
         <v>666.66666666666663</v>
       </c>
       <c r="X56" s="21">
-        <v>29.083866244947586</v>
+        <v>28.792635558879731</v>
       </c>
       <c r="Y56" s="21">
         <v>600</v>
       </c>
       <c r="Z56" s="21">
-        <v>0.85003417136794979</v>
+        <v>0.94042321155355346</v>
       </c>
       <c r="AA56">
         <v>631.57894736842104</v>
       </c>
       <c r="AB56">
-        <v>41.75805702496158</v>
+        <v>41.426351524163721</v>
       </c>
       <c r="AC56">
         <v>2600.8000000000002</v>
       </c>
       <c r="AD56">
-        <v>0.99640846774403968</v>
+        <v>0.99837631182291808</v>
       </c>
       <c r="AE56">
         <v>666.66666666666663</v>
@@ -7642,7 +7642,7 @@
         <v>833.33333333333326</v>
       </c>
       <c r="P57">
-        <v>105.80712507256797</v>
+        <v>123.05371909621539</v>
       </c>
       <c r="Q57">
         <v>750</v>
@@ -7666,25 +7666,25 @@
         <v>833.33333333333326</v>
       </c>
       <c r="X57" s="21">
-        <v>30.86913276123353</v>
+        <v>30.541407416063237</v>
       </c>
       <c r="Y57" s="21">
         <v>750</v>
       </c>
       <c r="Z57" s="21">
-        <v>0.90773645433014793</v>
+        <v>0.94659182791097929</v>
       </c>
       <c r="AA57">
         <v>789.47368421052624</v>
       </c>
       <c r="AB57">
-        <v>45.859699731082245</v>
+        <v>45.487557935780124</v>
       </c>
       <c r="AC57">
         <v>2625.75</v>
       </c>
       <c r="AD57">
-        <v>0.99638070028586634</v>
+        <v>0.99834109755072065</v>
       </c>
       <c r="AE57">
         <v>833.33333333333326</v>
@@ -7740,7 +7740,7 @@
         <v>1000</v>
       </c>
       <c r="P58">
-        <v>118.12966805688693</v>
+        <v>135.80864495735878</v>
       </c>
       <c r="Q58">
         <v>900</v>
@@ -7764,25 +7764,25 @@
         <v>1000</v>
       </c>
       <c r="X58" s="21">
-        <v>32.787768884852085</v>
+        <v>32.376187757445024</v>
       </c>
       <c r="Y58" s="21">
         <v>900</v>
       </c>
       <c r="Z58" s="21">
-        <v>0.91707746156781011</v>
+        <v>0.95188270461492652</v>
       </c>
       <c r="AA58">
         <v>947.36842105263156</v>
       </c>
       <c r="AB58">
-        <v>50.215025606700635</v>
+        <v>49.813897389258472</v>
       </c>
       <c r="AC58">
         <v>2650.7</v>
       </c>
       <c r="AD58">
-        <v>0.99635289054568488</v>
+        <v>0.99830588698046308</v>
       </c>
       <c r="AE58">
         <v>1000</v>
@@ -7838,7 +7838,7 @@
         <v>1166.6666666666665</v>
       </c>
       <c r="P59">
-        <v>130.03045410884357</v>
+        <v>148.07444843987696</v>
       </c>
       <c r="Q59">
         <v>1050</v>
@@ -7862,25 +7862,25 @@
         <v>1166.6666666666665</v>
       </c>
       <c r="X59" s="21">
-        <v>35.083551343772321</v>
+        <v>34.51897484315279</v>
       </c>
       <c r="Y59" s="21">
         <v>1050</v>
       </c>
       <c r="Z59" s="21">
-        <v>0.92442130211462792</v>
+        <v>0.95610286949284728</v>
       </c>
       <c r="AA59">
         <v>1105.2631578947369</v>
       </c>
       <c r="AB59">
-        <v>54.990502861647265</v>
+        <v>54.61551549400982</v>
       </c>
       <c r="AC59">
         <v>2675.65</v>
       </c>
       <c r="AD59">
-        <v>0.99632508080550353</v>
+        <v>0.99827067641020562</v>
       </c>
       <c r="AE59">
         <v>1166.6666666666665</v>
@@ -7936,7 +7936,7 @@
         <v>1333.3333333333333</v>
       </c>
       <c r="P60">
-        <v>141.63044997088181</v>
+        <v>159.99751470126304</v>
       </c>
       <c r="Q60">
         <v>1200</v>
@@ -7960,25 +7960,25 @@
         <v>1333.3333333333333</v>
       </c>
       <c r="X60" s="21">
-        <v>38.222069452415425</v>
+        <v>37.444047619608298</v>
       </c>
       <c r="Y60" s="21">
         <v>1200</v>
       </c>
       <c r="Z60" s="21">
-        <v>0.93026840696000046</v>
+        <v>0.95942858828294908</v>
       </c>
       <c r="AA60">
         <v>1263.1578947368421</v>
       </c>
       <c r="AB60">
-        <v>60.075855804372978</v>
+        <v>59.735873586969788</v>
       </c>
       <c r="AC60">
         <v>2700.6</v>
       </c>
       <c r="AD60">
-        <v>0.99629727106532207</v>
+        <v>0.99823546583994804</v>
       </c>
       <c r="AE60">
         <v>1333.3333333333333</v>
@@ -8034,7 +8034,7 @@
         <v>1500</v>
       </c>
       <c r="P61">
-        <v>152.85401998160839</v>
+        <v>171.51123854190604</v>
       </c>
       <c r="Q61">
         <v>1350</v>
@@ -8058,25 +8058,25 @@
         <v>1500</v>
       </c>
       <c r="X61">
-        <v>43.130162897732831</v>
+        <v>42.155423344092718</v>
       </c>
       <c r="Y61">
         <v>1350</v>
       </c>
       <c r="Z61">
-        <v>0.93420222099694361</v>
+        <v>0.96150848019710455</v>
       </c>
       <c r="AA61">
         <v>1421.0526315789473</v>
       </c>
       <c r="AB61">
-        <v>65.30999641511157</v>
+        <v>65.014726566938819</v>
       </c>
       <c r="AC61">
         <v>2725.55</v>
       </c>
       <c r="AD61">
-        <v>0.99554862267356603</v>
+        <v>0.9978100032085202</v>
       </c>
       <c r="AE61">
         <v>1500</v>
@@ -8132,7 +8132,7 @@
         <v>1666.6666666666665</v>
       </c>
       <c r="P62">
-        <v>163.59838764960864</v>
+        <v>182.51926940622141</v>
       </c>
       <c r="Q62">
         <v>1500</v>
@@ -8156,25 +8156,25 @@
         <v>1666.6666666666665</v>
       </c>
       <c r="X62">
-        <v>50.567475795444047</v>
+        <v>49.589199433168595</v>
       </c>
       <c r="Y62">
         <v>1500</v>
       </c>
       <c r="Z62">
-        <v>0.93622838632336625</v>
+        <v>0.9622395654303485</v>
       </c>
       <c r="AA62">
         <v>1578.9473684210525</v>
       </c>
       <c r="AB62">
-        <v>70.617947873379293</v>
+        <v>70.374850690813446</v>
       </c>
       <c r="AC62">
         <v>2750.5</v>
       </c>
       <c r="AD62">
-        <v>0.99478822945652989</v>
+        <v>0.99737818209137052</v>
       </c>
       <c r="AE62">
         <v>1666.6666666666665</v>
@@ -8224,7 +8224,7 @@
         <v>1833.3333333333333</v>
       </c>
       <c r="P63">
-        <v>173.89891365528149</v>
+        <v>193.06441171189527</v>
       </c>
       <c r="Q63">
         <v>1650</v>
@@ -8248,25 +8248,25 @@
         <v>1833.3333333333333</v>
       </c>
       <c r="X63">
-        <v>57.98475041677851</v>
+        <v>57.001017759618911</v>
       </c>
       <c r="Y63">
         <v>1650</v>
       </c>
       <c r="Z63">
-        <v>0.93613482233410905</v>
+        <v>0.96137516405758883</v>
       </c>
       <c r="AA63">
         <v>1736.8421052631579</v>
       </c>
       <c r="AB63">
-        <v>75.924089027360495</v>
+        <v>75.73326976011154</v>
       </c>
       <c r="AC63">
         <v>2775.45</v>
       </c>
       <c r="AD63">
-        <v>0.99402783623949365</v>
+        <v>0.99694636097422096</v>
       </c>
       <c r="AE63">
         <v>1833.3333333333333</v>
@@ -8308,7 +8308,7 @@
         <v>2000</v>
       </c>
       <c r="P64">
-        <v>183.75894580900223</v>
+        <v>203.15215334592025</v>
       </c>
       <c r="Q64">
         <v>1800</v>
@@ -8332,25 +8332,25 @@
         <v>2000</v>
       </c>
       <c r="X64">
-        <v>65.348052341720475</v>
+        <v>64.340268709773369</v>
       </c>
       <c r="Y64">
         <v>1800</v>
       </c>
       <c r="Z64">
-        <v>0.93589645875663185</v>
+        <v>0.96050858657172267</v>
       </c>
       <c r="AA64">
         <v>1894.7368421052631</v>
       </c>
       <c r="AB64">
-        <v>81.198394211297369</v>
+        <v>81.055585063528511</v>
       </c>
       <c r="AC64">
         <v>2800.4</v>
       </c>
       <c r="AD64">
-        <v>0.99326744302245751</v>
+        <v>0.99651453985707128</v>
       </c>
       <c r="AE64">
         <v>2000</v>
@@ -8392,7 +8392,7 @@
         <v>2166.6666666666665</v>
       </c>
       <c r="P65">
-        <v>193.12845442862795</v>
+        <v>212.72992634274462</v>
       </c>
       <c r="Q65">
         <v>1950</v>
@@ -8416,25 +8416,25 @@
         <v>2166.6666666666665</v>
       </c>
       <c r="X65">
-        <v>72.992533769861708</v>
+        <v>71.969136910822726</v>
       </c>
       <c r="Y65">
         <v>1950</v>
       </c>
       <c r="Z65">
-        <v>0.93567967118963147</v>
+        <v>0.95972482050560903</v>
       </c>
       <c r="AA65">
         <v>2052.6315789473683</v>
       </c>
       <c r="AB65">
-        <v>86.427033682769689</v>
+        <v>86.323254892271081</v>
       </c>
       <c r="AC65">
         <v>2825.35</v>
       </c>
       <c r="AD65">
-        <v>0.99324282982553946</v>
+        <v>0.99648513723770682</v>
       </c>
       <c r="AE65">
         <v>2166.6666666666665</v>
@@ -8473,7 +8473,7 @@
         <v>2333.333333333333</v>
       </c>
       <c r="P66">
-        <v>202.0605595230916</v>
+        <v>221.85369321008312</v>
       </c>
       <c r="Q66">
         <v>2100</v>
@@ -8497,25 +8497,25 @@
         <v>2333.333333333333</v>
       </c>
       <c r="X66">
-        <v>81.58353107564372</v>
+        <v>80.685945835093136</v>
       </c>
       <c r="Y66">
         <v>2100</v>
       </c>
       <c r="Z66">
-        <v>0.93567212385991494</v>
+        <v>0.95894686176377752</v>
       </c>
       <c r="AA66">
         <v>2210.5263157894738</v>
       </c>
       <c r="AB66">
-        <v>91.638512593219843</v>
+        <v>91.564349235789962</v>
       </c>
       <c r="AC66">
         <v>2850.3</v>
       </c>
       <c r="AD66">
-        <v>0.99323634673178651</v>
+        <v>0.9964656504745506</v>
       </c>
       <c r="AE66">
         <v>2333.333333333333</v>
@@ -8554,7 +8554,7 @@
         <v>2416.6666666666665</v>
       </c>
       <c r="P67">
-        <v>206.30407686279983</v>
+        <v>226.18457206610492</v>
       </c>
       <c r="Q67">
         <v>2250</v>
@@ -8578,25 +8578,25 @@
         <v>2416.6666666666665</v>
       </c>
       <c r="X67">
-        <v>86.987191833763831</v>
+        <v>86.410978259546965</v>
       </c>
       <c r="Y67">
         <v>2250</v>
       </c>
       <c r="Z67">
-        <v>0.93551257099196383</v>
+        <v>0.95803945503782806</v>
       </c>
       <c r="AA67">
         <v>2368.4210526315787</v>
       </c>
       <c r="AB67">
-        <v>96.928456132680466</v>
+        <v>96.875130306414846</v>
       </c>
       <c r="AC67">
         <v>2875.25</v>
       </c>
       <c r="AD67">
-        <v>0.99322986363803367</v>
+        <v>0.99644616371139438</v>
       </c>
       <c r="AE67">
         <v>2416.6666666666665</v>
@@ -8635,7 +8635,7 @@
         <v>2500</v>
       </c>
       <c r="P68">
-        <v>210.54759420250809</v>
+        <v>230.51545092212672</v>
       </c>
       <c r="Q68">
         <v>2400</v>
@@ -8659,25 +8659,25 @@
         <v>2500</v>
       </c>
       <c r="X68">
-        <v>92.390852591883942</v>
+        <v>92.136010684000794</v>
       </c>
       <c r="Y68">
         <v>2400</v>
       </c>
       <c r="Z68">
-        <v>0.93504865337443011</v>
+        <v>0.95684187023272504</v>
       </c>
       <c r="AA68">
         <v>2501</v>
       </c>
       <c r="AB68">
-        <v>101.7623892227938</v>
+        <v>101.72274173128164</v>
       </c>
       <c r="AC68">
         <v>2900.2</v>
       </c>
       <c r="AD68">
-        <v>0.99322338054428083</v>
+        <v>0.99642667694823805</v>
       </c>
       <c r="AE68">
         <v>2500</v>
@@ -8716,7 +8716,7 @@
         <v>2501</v>
       </c>
       <c r="P69">
-        <v>101.7623892227938</v>
+        <v>101.72274173128164</v>
       </c>
       <c r="Q69">
         <v>2550</v>
@@ -8740,25 +8740,25 @@
         <v>2501</v>
       </c>
       <c r="X69">
-        <v>83.063455478880343</v>
+        <v>82.609305430571126</v>
       </c>
       <c r="Y69">
         <v>2550</v>
       </c>
       <c r="Z69">
-        <v>0.99645435075130262</v>
+        <v>0.99844894337694856</v>
       </c>
       <c r="AA69">
         <v>2526.3157894736842</v>
       </c>
       <c r="AB69">
-        <v>103.05188933664667</v>
+        <v>103.0147590502531</v>
       </c>
       <c r="AC69">
         <v>2925.15</v>
       </c>
       <c r="AD69">
-        <v>0.99322076682978067</v>
+        <v>0.99640962003201639</v>
       </c>
       <c r="AE69">
         <v>2501</v>
@@ -8797,7 +8797,7 @@
         <v>2666.6666666666665</v>
       </c>
       <c r="P70">
-        <v>110.08528396796831</v>
+        <v>110.06148650169266</v>
       </c>
       <c r="Q70">
         <v>2700</v>
@@ -8821,25 +8821,25 @@
         <v>2666.6666666666665</v>
       </c>
       <c r="X70">
-        <v>87.002423139058024</v>
+        <v>86.762602592641329</v>
       </c>
       <c r="Y70">
         <v>2700</v>
       </c>
       <c r="Z70">
-        <v>0.99629793983662907</v>
+        <v>0.99823631258712864</v>
       </c>
       <c r="AA70">
         <v>2684.2105263157896</v>
       </c>
       <c r="AB70">
-        <v>110.9480238161609</v>
+        <v>110.92580444322063</v>
       </c>
       <c r="AC70">
         <v>2950.1</v>
       </c>
       <c r="AD70">
-        <v>0.99321828129347522</v>
+        <v>0.9963926436076187</v>
       </c>
       <c r="AE70">
         <v>2666.6666666666665</v>
@@ -8878,7 +8878,7 @@
         <v>2833.333333333333</v>
       </c>
       <c r="P71">
-        <v>116.12514732957787</v>
+        <v>116.11448964920008</v>
       </c>
       <c r="Q71">
         <v>2850</v>
@@ -8902,25 +8902,25 @@
         <v>2833.333333333333</v>
       </c>
       <c r="X71">
-        <v>89.282026486129212</v>
+        <v>89.207678295451899</v>
       </c>
       <c r="Y71">
         <v>2850</v>
       </c>
       <c r="Z71">
-        <v>0.99323642468481765</v>
+        <v>0.99646588478432796</v>
       </c>
       <c r="AA71">
         <v>2842.1052631578946</v>
       </c>
       <c r="AB71">
-        <v>116.32927081896889</v>
+        <v>116.31918450188628</v>
       </c>
       <c r="AC71">
         <v>2975.05</v>
       </c>
       <c r="AD71">
-        <v>0.99321579575716978</v>
+        <v>0.9963756671832209</v>
       </c>
       <c r="AE71">
         <v>2833.333333333333</v>
@@ -8989,7 +8989,7 @@
         <v>3000</v>
       </c>
       <c r="Z72">
-        <v>0.99321331022086434</v>
+        <v>0.99635869075882322</v>
       </c>
       <c r="AA72">
         <v>3000</v>
@@ -9001,7 +9001,7 @@
         <v>3000</v>
       </c>
       <c r="AD72">
-        <v>0.99321331022086434</v>
+        <v>0.99635869075882322</v>
       </c>
       <c r="AE72">
         <v>3000</v>

--- a/exercises/excercises/ex130.MF_well_new.xlsx
+++ b/exercises/excercises/ex130.MF_well_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA94EE-7C61-429B-A268-4AA86383DAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F0F62C-4E9E-4C77-B191-93901373E060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
@@ -724,6 +724,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,6 +966,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1019,7 +1026,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ptub</c:v>
+                  <c:v>q_gas_inj_sm3day</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1031,67 +1038,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>43.566218088361637</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.744840696281301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.015851262142107</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.407914393335183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.326773799483469</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.32292886356592</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.473664956556973</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.790440812940005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.093951454179205</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.427145399669001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.787834938024716</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87.051983074732121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91.194883915197991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.180618372055136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99.012402325224812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101.5998831827653</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.60488510889436</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>110.03016038741193</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116.10164518391662</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118.05082259195831</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,67 +1110,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>666.66666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>833.33333333333326</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1166.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1333.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1666.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1833.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2166.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2333.333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2666.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2833.333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2916.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,7 +1216,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1281,7 +1288,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1576,67 +1583,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.593333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.143333333333338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>34.64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>40.92166666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>48.53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>55.844999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>62.829999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>69.521666666666647</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>74.077500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>81.98833333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>87.204166666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>88.602083333333326</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,67 +1655,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>666.66666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>833.33333333333326</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1166.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1333.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>1500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>1666.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1833.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>2166.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>2333.333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>2450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>2500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>2666.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>2833.333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>2916.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>3000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,67 +1761,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.666666666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.333333333333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.593333333333334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.143333333333338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.92166666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.844999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.829999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69.521666666666647</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74.077500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81.98833333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.204166666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88.602083333333326</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,67 +1833,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>666.66666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>833.33333333333326</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1166.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1333.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1666.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1833.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2166.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2333.333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2666.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2833.333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2916.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,7 +2151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hl_tub</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2180,67 +2187,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.1499672733898664</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15570060038672587</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16142244030110903</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1641644894164907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16730015418917282</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17352853237094185</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17968881835421763</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21717809356168508</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23198727180950576</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24582000243177332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25806257208743655</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26510382616285566</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26964105012855361</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27273534506596298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27480795137362923</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27575752696635192</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27592432499326464</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99983716511187959</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99953597668060212</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99976559682838917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99995407092838151</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,67 +2259,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>750</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>1350</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>1500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1650</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>2100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>2250</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>2400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>2550</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>2700</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>2850</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>3000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,7 +2577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmes_m</c:v>
+                  <c:v>p_gas_inj_atma</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2606,67 +2613,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.772461476460705</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.434814984757395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.189299205653242</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.45863949985727</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.155203693041116</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.095931416682895</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.269700173506124</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.590377890729194</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.060654691386475</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.630108867854346</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.304333337999893</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.05012253615353</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.758163906557428</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.758163906557428</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2678,67 +2685,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>750</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1350</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1650</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2250</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2550</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2700</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2850</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3415,67 +3422,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.30990787351481</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.067430756133462</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.88685644237917</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.704250248980586</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.512403243002268</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107.20091589590815</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.28984329333792</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>132.97219766910217</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145.20593037241812</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>156.92453070702041</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>168.16488037578725</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>178.93040673070621</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>189.16741422074566</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>198.93933062042314</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>203.594645150178</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.24995967993289</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.50275104999338</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134.86444787995396</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>140.9501524414155</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>144.86713011851421</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,64 +3497,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.66666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>666.66666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>833.33333333333326</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1166.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1333.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1666.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1833.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2166.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2333.333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2416.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2666.6666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2833.333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,67 +3588,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.162499647143342</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.326618829534084</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.374016054552587</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.679293624153058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.74826990076728</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.804058764016595</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.134640489000816</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.203728904882624</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.958707223885391</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.878627803560491</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.527354322462529</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.715799164726803</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.519797900969451</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>108.16899458881448</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.52616447512801</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>126.45070134450869</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.50275104999338</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134.86444787995396</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>140.9501524414155</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>144.86713011851421</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,67 +3660,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.66666666666666</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>381.17040400331649</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>666.66666666666663</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>833.33333333333326</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1166.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1333.3333333333333</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1500</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1666.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1833.3333333333333</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2000</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2166.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2333.333333333333</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2501</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2666.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2833.333333333333</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,67 +3963,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.666666666666668</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.333333333333332</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.666666666666668</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.333333333333332</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.593333333333334</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.143333333333338</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.64</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.92166666666666</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.53</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.844999999999999</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.829999999999991</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69.521666666666647</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.720833333333331</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.92</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.956850000000003</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81.987611000000001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.204166666666652</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,67 +4035,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.66666666666666</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.33333333333331</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>666.66666666666663</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>833.33333333333326</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1166.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1333.3333333333333</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1500</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1666.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1833.3333333333333</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2166.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2333.333333333333</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2416.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2501</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2666.6666666666665</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2833.333333333333</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4345,6 +4352,9 @@
               <c:f>Лист1!$AT$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4376,6 +4386,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4385,6 +4455,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8261,8 +8391,8 @@
       <definedName name="getUFVersion"/>
       <definedName name="GL_encode_string"/>
       <definedName name="PVT_encode_string"/>
-      <definedName name="well_plin_pwf_new_atma"/>
-      <definedName name="well_pwf_plin_new_atma"/>
+      <definedName name="well_plin_pwf_atma"/>
+      <definedName name="well_pwf_plin_atma"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -8570,15 +8700,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A7C6B1-D08D-4B8C-90EB-0A5185B9FB63}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:AO102"/>
+  <dimension ref="A1:AZ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
     <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -8776,7 +8908,7 @@
         <v>69</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
@@ -8784,14 +8916,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G18">
-        <f>H18*1000</f>
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="H18">
         <v>60</v>
@@ -8841,7 +8972,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>13</v>
@@ -8964,7 +9095,7 @@
       </c>
       <c r="C30" s="24" t="str">
         <f>[1]!GL_encode_string(qgas_inj_,,,M35:M38,N35:N38,O35:O38)</f>
-        <v>GLV:1;q_gas_inj_sm3day:60000.00000;p_gas_inj_atma:0.00000;d_gas_inj_mm:0.00000;GLV:1;H_glv_m1:2450.000;d_glv_mm1:0.000;p_glv_atma1:25.000;</v>
+        <v>GLV:1;q_gas_inj_sm3day:1000.00000;p_gas_inj_atma:0.00000;d_gas_inj_mm:0.00000;GLV:1;H_glv_m1:2450.000;d_glv_mm1:0.000;p_glv_atma1:25.000;</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -8990,7 +9121,7 @@
       </c>
       <c r="C31" s="25" t="str">
         <f>IF(ALsel,ESP_,GLV_)</f>
-        <v>GLV:1;q_gas_inj_sm3day:60000.00000;p_gas_inj_atma:0.00000;d_gas_inj_mm:0.00000;GLV:1;H_glv_m1:2450.000;d_glv_mm1:0.000;p_glv_atma1:25.000;</v>
+        <v>GLV:1;q_gas_inj_sm3day:1000.00000;p_gas_inj_atma:0.00000;d_gas_inj_mm:0.00000;GLV:1;H_glv_m1:2450.000;d_glv_mm1:0.000;p_glv_atma1:25.000;</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -9400,7 +9531,7 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
     </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B49" s="16">
         <v>1400</v>
       </c>
@@ -9419,21 +9550,21 @@
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="M49" s="18"/>
-      <c r="N49">
-        <f t="array" ref="N49:AM73">[1]!well_plin_pwf_new_atma(qliq_,fw_,C24,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm,C26,,,,Qinj_)</f>
-        <v>43.566218088361637</v>
-      </c>
-      <c r="O49">
-        <v>43.566218088361637</v>
-      </c>
-      <c r="P49">
-        <v>43.566218088361637</v>
-      </c>
-      <c r="Q49">
-        <v>120</v>
-      </c>
-      <c r="R49">
-        <v>45</v>
+      <c r="N49" s="27">
+        <f t="array" ref="N49:AZ73">[1]!well_plin_pwf_atma(qliq_,fw_,C24,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm,C26,,,,Qinj_)</f>
+        <v>1</v>
+      </c>
+      <c r="O49" s="27">
+        <v>1</v>
+      </c>
+      <c r="P49" s="27">
+        <v>1.253401653427729</v>
+      </c>
+      <c r="Q49" s="27">
+        <v>20</v>
+      </c>
+      <c r="R49" s="27">
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -9442,22 +9573,22 @@
         <v>120</v>
       </c>
       <c r="U49">
+        <v>45</v>
+      </c>
+      <c r="V49">
+        <v>12</v>
+      </c>
+      <c r="W49" s="20">
+        <v>5168</v>
+      </c>
+      <c r="X49" s="20">
         <v>20</v>
       </c>
-      <c r="V49">
+      <c r="Y49" s="20">
         <v>20</v>
       </c>
-      <c r="W49" s="20">
-        <v>0</v>
-      </c>
-      <c r="X49" s="20">
-        <v>10</v>
-      </c>
-      <c r="Y49" s="20">
-        <v>0</v>
-      </c>
       <c r="Z49" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -9466,13 +9597,13 @@
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -9498,8 +9629,47 @@
       <c r="AM49">
         <v>0</v>
       </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ49" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B50" s="16">
         <v>1500</v>
       </c>
@@ -9525,52 +9695,52 @@
         <v>p_line_atma</v>
       </c>
       <c r="P50" t="str">
-        <v>pbuf_atma</v>
+        <v>p_buf_atma</v>
       </c>
       <c r="Q50" t="str">
-        <v>pwf_atma</v>
+        <v>p_cas_atma</v>
       </c>
       <c r="R50" t="str">
+        <v>p_dis_atma</v>
+      </c>
+      <c r="S50" t="str">
+        <v>p_int_atma</v>
+      </c>
+      <c r="T50" t="str">
+        <v>p_wf_atma</v>
+      </c>
+      <c r="U50" t="str">
         <v>qliq_sm3day</v>
       </c>
-      <c r="S50" t="str">
+      <c r="V50" t="str">
         <v>fw_perc</v>
       </c>
-      <c r="T50" t="str">
-        <v>t_bh_C</v>
-      </c>
-      <c r="U50" t="str">
-        <v>t_wh_C</v>
-      </c>
-      <c r="V50" t="str">
-        <v>t_surf_C</v>
-      </c>
       <c r="W50" s="20" t="str">
-        <v>choke.c_degrad_fr</v>
+        <v>qgas_sm3day</v>
       </c>
       <c r="X50" s="20" t="str">
-        <v>pcas_atma</v>
-      </c>
-      <c r="Y50" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
+        <v>t_line_C</v>
+      </c>
+      <c r="Y50" s="20" t="str">
+        <v>t_buf_C</v>
+      </c>
+      <c r="Z50" s="20" t="str">
+        <v>t_cas_C</v>
+      </c>
+      <c r="AA50" t="str">
+        <v>t_dis_C</v>
+      </c>
+      <c r="AB50" t="str">
+        <v>t_int_C</v>
+      </c>
+      <c r="AC50" t="str">
+        <v>t_wf_C</v>
+      </c>
+      <c r="AD50" t="str">
+        <v>dchoke_mm</v>
+      </c>
+      <c r="AE50" t="str">
+        <v>c_calibr_choke</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -9596,8 +9766,47 @@
       <c r="AM50">
         <v>0</v>
       </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ50" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B51" s="16">
         <v>1600</v>
       </c>
@@ -9623,79 +9832,118 @@
         <v>1</v>
       </c>
       <c r="P51">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>8</v>
-      </c>
-      <c r="W51" s="20">
-        <v>9</v>
-      </c>
-      <c r="X51" s="20">
-        <v>10</v>
-      </c>
-      <c r="Y51" s="20">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="W51" s="26">
+        <v>0</v>
+      </c>
+      <c r="X51" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="26">
+        <v>0</v>
       </c>
       <c r="Z51" s="20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AH51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AK51">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL51">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AM51">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ51" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:52" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="16">
         <v>1700</v>
       </c>
@@ -9714,64 +9962,64 @@
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="M52" s="18"/>
-      <c r="N52" t="str">
-        <v>num</v>
-      </c>
-      <c r="O52" t="str">
-        <v>hmes ptub</v>
-      </c>
-      <c r="P52" t="str">
-        <v>ptub</v>
-      </c>
-      <c r="Q52" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="R52" t="str">
-        <v>h_vert_m</v>
-      </c>
-      <c r="S52" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="T52" t="str">
-        <v>c_Diam</v>
-      </c>
-      <c r="U52" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="V52" t="str">
-        <v>c_Theta</v>
-      </c>
-      <c r="W52" s="20" t="str">
-        <v>hmes ttub</v>
-      </c>
-      <c r="X52" s="20" t="str">
-        <v>ttub</v>
-      </c>
-      <c r="Y52" s="20" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="Z52" s="20" t="str">
-        <v>Hl_tub</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="AD52" t="str">
-        <v>Hl_cas</v>
-      </c>
-      <c r="AE52" t="str">
-        <v>hmes tamb</v>
-      </c>
-      <c r="AF52" t="str">
-        <v>tamb</v>
-      </c>
-      <c r="AG52">
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" s="10" t="str">
+        <v>GLV.count</v>
+      </c>
+      <c r="P52" s="10" t="str">
+        <v>q_gas_inj_sm3day</v>
+      </c>
+      <c r="Q52" s="10" t="str">
+        <v>p_gas_inj_atma</v>
+      </c>
+      <c r="R52" s="10" t="str">
+        <v>d_gas_inj_mm</v>
+      </c>
+      <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
+        <v>0</v>
+      </c>
+      <c r="U52" s="10">
+        <v>0</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0</v>
+      </c>
+      <c r="W52" s="28">
+        <v>0</v>
+      </c>
+      <c r="X52" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="10">
         <v>0</v>
       </c>
       <c r="AH52">
@@ -9792,8 +10040,47 @@
       <c r="AM52">
         <v>0</v>
       </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ52" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B53" s="16">
         <v>1800</v>
       </c>
@@ -9813,85 +10100,124 @@
       <c r="K53" s="18"/>
       <c r="M53" s="18"/>
       <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
         <v>1</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
       <c r="P53">
-        <v>43.566218088361637</v>
+        <v>2</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>7.2000000000000008E-2</v>
+        <v>6</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V53">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="W53" s="20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X53" s="20">
+        <v>10</v>
+      </c>
+      <c r="Y53" s="20">
+        <v>11</v>
+      </c>
+      <c r="Z53" s="26">
+        <v>12</v>
+      </c>
+      <c r="AA53">
+        <v>13</v>
+      </c>
+      <c r="AB53">
+        <v>14</v>
+      </c>
+      <c r="AC53">
+        <v>15</v>
+      </c>
+      <c r="AD53">
+        <v>16</v>
+      </c>
+      <c r="AE53">
+        <v>17</v>
+      </c>
+      <c r="AF53">
+        <v>18</v>
+      </c>
+      <c r="AG53">
+        <v>19</v>
+      </c>
+      <c r="AH53">
         <v>20</v>
       </c>
-      <c r="Y53" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="26">
-        <v>0.1499672733898664</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>20</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
       <c r="AI53">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK53">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AM53">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="AN53">
+        <v>26</v>
+      </c>
+      <c r="AO53">
+        <v>27</v>
+      </c>
+      <c r="AP53">
+        <v>28</v>
+      </c>
+      <c r="AQ53">
+        <v>29</v>
+      </c>
+      <c r="AR53">
+        <v>30</v>
+      </c>
+      <c r="AS53">
+        <v>31</v>
+      </c>
+      <c r="AT53">
+        <v>32</v>
+      </c>
+      <c r="AU53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ53" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B54" s="16">
         <v>1900</v>
       </c>
@@ -9911,43 +10237,43 @@
       <c r="K54" s="18"/>
       <c r="M54" s="18"/>
       <c r="N54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>166.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>46.744840696281301</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>7.2000000000000008E-2</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W54" s="20">
-        <v>166.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="X54" s="20">
-        <v>21.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="20">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="26">
-        <v>0.15570060038672587</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -9956,16 +10282,16 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54">
-        <v>166.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>21.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -9988,8 +10314,47 @@
       <c r="AM54">
         <v>0</v>
       </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ54" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B55" s="16">
         <v>2000</v>
       </c>
@@ -10009,43 +10374,43 @@
       <c r="K55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>333.33333333333331</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>50.015851262142107</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R55">
         <v>0</v>
       </c>
       <c r="S55">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>7.2000000000000008E-2</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W55" s="20">
-        <v>333.33333333333331</v>
+        <v>0</v>
       </c>
       <c r="X55" s="20">
-        <v>23.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="20">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="26">
-        <v>0.16142244030110903</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -10054,16 +10419,16 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>333.33333333333331</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>23.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -10086,8 +10451,47 @@
       <c r="AM55">
         <v>0</v>
       </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ55" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B56" s="16">
         <v>2100</v>
       </c>
@@ -10107,43 +10511,43 @@
       <c r="K56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>53.407914393335183</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>6.6000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W56" s="20">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X56" s="20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="20">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="26">
-        <v>0.1641644894164907</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -10152,16 +10556,16 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>367.5</v>
+        <v>0</v>
       </c>
       <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -10184,8 +10588,47 @@
       <c r="AM56">
         <v>0</v>
       </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ56" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B57" s="16">
         <v>2200</v>
       </c>
@@ -10205,43 +10648,43 @@
       <c r="K57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>666.66666666666663</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>57.326773799483469</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W57" s="20">
-        <v>666.66666666666663</v>
+        <v>0</v>
       </c>
       <c r="X57" s="20">
-        <v>26.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="20">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="26">
-        <v>0.16730015418917282</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -10250,16 +10693,16 @@
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="AD57">
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>666.66666666666663</v>
+        <v>0</v>
       </c>
       <c r="AF57">
-        <v>26.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -10282,8 +10725,47 @@
       <c r="AM57">
         <v>0</v>
       </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ57" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B58" s="16">
         <v>2300</v>
       </c>
@@ -10303,43 +10785,43 @@
       <c r="K58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>833.33333333333326</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>61.32292886356592</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
       <c r="S58">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W58" s="20">
-        <v>833.33333333333326</v>
+        <v>0</v>
       </c>
       <c r="X58" s="20">
-        <v>28.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="20">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="26">
-        <v>0.17352853237094185</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -10348,16 +10830,16 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>612.5</v>
+        <v>0</v>
       </c>
       <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58">
-        <v>833.33333333333326</v>
+        <v>0</v>
       </c>
       <c r="AF58">
-        <v>28.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -10380,8 +10862,47 @@
       <c r="AM58">
         <v>0</v>
       </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ58" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B59" s="16">
         <v>2400</v>
       </c>
@@ -10401,43 +10922,43 @@
       <c r="K59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>65.473664956556973</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W59" s="20">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X59" s="20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="20">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="26">
-        <v>0.17968881835421763</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <v>0</v>
@@ -10446,16 +10967,16 @@
         <v>0</v>
       </c>
       <c r="AC59">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF59">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG59">
         <v>0</v>
@@ -10478,8 +10999,47 @@
       <c r="AM59">
         <v>0</v>
       </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ59" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B60" s="16">
         <v>2500</v>
       </c>
@@ -10499,43 +11059,43 @@
       <c r="K60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>1166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>69.790440812940005</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>72.772461476460705</v>
+        <v>0</v>
       </c>
       <c r="W60" s="20">
-        <v>1166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="X60" s="20">
-        <v>31.593333333333334</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="20">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="26">
-        <v>0.21717809356168508</v>
+        <v>0</v>
       </c>
       <c r="AA60">
         <v>0</v>
@@ -10544,16 +11104,16 @@
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>857.5</v>
+        <v>0</v>
       </c>
       <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60">
-        <v>1166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="AF60">
-        <v>31.593333333333334</v>
+        <v>0</v>
       </c>
       <c r="AG60">
         <v>0</v>
@@ -10576,8 +11136,47 @@
       <c r="AM60">
         <v>0</v>
       </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ60" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B61" s="16">
         <v>2600</v>
       </c>
@@ -10597,43 +11196,43 @@
       <c r="K61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>1333.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>74.093951454179205</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>68.434814984757395</v>
+        <v>0</v>
       </c>
       <c r="W61" s="20">
-        <v>1333.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="X61" s="20">
-        <v>33.143333333333338</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="20">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="26">
-        <v>0.23198727180950576</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>0</v>
@@ -10642,16 +11241,16 @@
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>1333.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF61">
-        <v>33.143333333333338</v>
+        <v>0</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -10674,8 +11273,47 @@
       <c r="AM61">
         <v>0</v>
       </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ61" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B62" s="16">
         <v>2700</v>
       </c>
@@ -10695,43 +11333,43 @@
       <c r="K62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>78.427145399669001</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>64.189299205653242</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>34.64</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="26">
-        <v>0.24582000243177332</v>
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>0</v>
@@ -10740,16 +11378,16 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>1102.5</v>
+        <v>0</v>
       </c>
       <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AF62">
-        <v>34.64</v>
+        <v>0</v>
       </c>
       <c r="AG62">
         <v>0</v>
@@ -10772,8 +11410,47 @@
       <c r="AM62">
         <v>0</v>
       </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ62" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B63" s="16">
         <v>2800</v>
       </c>
@@ -10793,43 +11470,43 @@
       <c r="K63" s="18"/>
       <c r="M63" s="18"/>
       <c r="N63">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>1666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>82.787834938024716</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>60.45863949985727</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>1666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>40.92166666666666</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="26">
-        <v>0.25806257208743655</v>
+        <v>0</v>
       </c>
       <c r="AA63">
         <v>0</v>
@@ -10838,16 +11515,16 @@
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63">
-        <v>1666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="AF63">
-        <v>40.92166666666666</v>
+        <v>0</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -10870,8 +11547,47 @@
       <c r="AM63">
         <v>0</v>
       </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ63" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B64" s="16">
         <v>3000</v>
       </c>
@@ -10885,43 +11601,43 @@
       <c r="G64" s="10"/>
       <c r="M64" s="18"/>
       <c r="N64">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>1833.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="P64">
-        <v>87.051983074732121</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>57.155203693041116</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>1833.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>48.53</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="26">
-        <v>0.26510382616285566</v>
+        <v>0</v>
       </c>
       <c r="AA64">
         <v>0</v>
@@ -10930,16 +11646,16 @@
         <v>0</v>
       </c>
       <c r="AC64">
-        <v>1347.5</v>
+        <v>0</v>
       </c>
       <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64">
-        <v>1833.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF64">
-        <v>48.53</v>
+        <v>0</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -10962,50 +11678,89 @@
       <c r="AM64">
         <v>0</v>
       </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ64" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="65" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="G65" s="10"/>
       <c r="M65" s="18"/>
       <c r="N65">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>91.194883915197991</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>54.095931416682895</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="X65">
-        <v>55.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="26">
-        <v>0.26964105012855361</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>0</v>
@@ -11014,16 +11769,16 @@
         <v>0</v>
       </c>
       <c r="AC65">
-        <v>1470</v>
+        <v>0</v>
       </c>
       <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <v>55.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -11046,50 +11801,89 @@
       <c r="AM65">
         <v>0</v>
       </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ65" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="66" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="G66" s="10"/>
       <c r="M66" s="18"/>
       <c r="N66">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>2166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>95.180618372055136</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>110.5</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>51.269700173506124</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>2166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>62.829999999999991</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="26">
-        <v>0.27273534506596298</v>
+        <v>0</v>
       </c>
       <c r="AA66">
         <v>0</v>
@@ -11098,16 +11892,16 @@
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>1592.5</v>
+        <v>0</v>
       </c>
       <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66">
-        <v>2166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="AF66">
-        <v>62.829999999999991</v>
+        <v>0</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -11130,47 +11924,86 @@
       <c r="AM66">
         <v>0</v>
       </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ66" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="67" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M67" s="18"/>
       <c r="N67">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>99.012402325224812</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>48.590377890729194</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>69.521666666666647</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="26">
-        <v>0.27480795137362923</v>
+        <v>0</v>
       </c>
       <c r="AA67">
         <v>0</v>
@@ -11179,16 +12012,16 @@
         <v>0</v>
       </c>
       <c r="AC67">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67">
-        <v>2333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF67">
-        <v>69.521666666666647</v>
+        <v>0</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -11211,47 +12044,86 @@
       <c r="AM67">
         <v>0</v>
       </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ67" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="68" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M68" s="18"/>
       <c r="N68">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>101.5998831827653</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>182.5</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="T68">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>46.060654691386475</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="X68">
-        <v>74.077500000000001</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="26">
-        <v>0.27575752696635192</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>0</v>
@@ -11260,16 +12132,16 @@
         <v>0</v>
       </c>
       <c r="AC68">
-        <v>1837.5</v>
+        <v>0</v>
       </c>
       <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="AF68">
-        <v>74.077500000000001</v>
+        <v>0</v>
       </c>
       <c r="AG68">
         <v>0</v>
@@ -11292,47 +12164,86 @@
       <c r="AM68">
         <v>0</v>
       </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ68" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="69" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M69" s="18"/>
       <c r="N69">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>101.60488510889436</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>43.630108867854346</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="26">
-        <v>0.27592432499326464</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -11341,16 +12252,16 @@
         <v>0</v>
       </c>
       <c r="AC69">
-        <v>1960</v>
+        <v>0</v>
       </c>
       <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="AF69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -11373,47 +12284,86 @@
       <c r="AM69">
         <v>0</v>
       </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ69" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="70" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M70" s="18"/>
       <c r="N70">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>110.03016038741193</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1394.5</v>
+        <v>0</v>
       </c>
       <c r="S70">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>9.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>41.304333337999893</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="X70">
-        <v>81.98833333333333</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="26">
-        <v>0.99983716511187959</v>
+        <v>0</v>
       </c>
       <c r="AA70">
         <v>0</v>
@@ -11422,16 +12372,16 @@
         <v>0</v>
       </c>
       <c r="AC70">
-        <v>2082.5</v>
+        <v>0</v>
       </c>
       <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70">
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="AF70">
-        <v>81.98833333333333</v>
+        <v>0</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -11454,47 +12404,86 @@
       <c r="AM70">
         <v>0</v>
       </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ70" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="71" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M71" s="18"/>
       <c r="N71">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>116.10164518391662</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>39.05012253615353</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>87.204166666666666</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="26">
-        <v>0.99953597668060212</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>0</v>
@@ -11503,16 +12492,16 @@
         <v>0</v>
       </c>
       <c r="AC71">
-        <v>2205</v>
+        <v>0</v>
       </c>
       <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71">
-        <v>2833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="AF71">
-        <v>87.204166666666666</v>
+        <v>0</v>
       </c>
       <c r="AG71">
         <v>0</v>
@@ -11535,47 +12524,86 @@
       <c r="AM71">
         <v>0</v>
       </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ71" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="72" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M72" s="18"/>
       <c r="N72">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>2916.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>118.05082259195831</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>395.75</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>17.758163906557428</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>2916.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="X72">
-        <v>88.602083333333326</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="26">
-        <v>0.99976559682838917</v>
+        <v>0</v>
       </c>
       <c r="AA72">
         <v>0</v>
@@ -11584,16 +12612,16 @@
         <v>0</v>
       </c>
       <c r="AC72">
-        <v>2327.5</v>
+        <v>0</v>
       </c>
       <c r="AD72">
         <v>0</v>
       </c>
       <c r="AE72">
-        <v>2916.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="AF72">
-        <v>88.602083333333326</v>
+        <v>0</v>
       </c>
       <c r="AG72">
         <v>0</v>
@@ -11616,47 +12644,86 @@
       <c r="AM72">
         <v>0</v>
       </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ72" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="73" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M73" s="18"/>
       <c r="N73">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>17.758163906557428</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="X73">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="26">
-        <v>0.99995407092838151</v>
+        <v>0</v>
       </c>
       <c r="AA73">
         <v>0</v>
@@ -11665,16 +12732,16 @@
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="AD73">
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AF73">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AG73">
         <v>0</v>
@@ -11697,8 +12764,47 @@
       <c r="AM73">
         <v>0</v>
       </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ73" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="78" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:52" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>57</v>
       </c>
@@ -11706,2003 +12812,2003 @@
         <v>25</v>
       </c>
       <c r="N78">
-        <f t="array" ref="N78:AM102">[1]!well_pwf_plin_new_atma(qliq_,fw_,plin_calc_,C34,Pcalc_,C38,PVTstr_,ESP_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm)</f>
-        <v>25</v>
-      </c>
-      <c r="O78">
-        <v>25</v>
-      </c>
-      <c r="P78">
-        <v>25</v>
-      </c>
-      <c r="Q78">
-        <v>208.24995967993289</v>
-      </c>
-      <c r="R78">
-        <v>126.50275104999338</v>
-      </c>
-      <c r="S78">
-        <v>144.86713011851421</v>
-      </c>
-      <c r="T78">
-        <v>45</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>90</v>
-      </c>
-      <c r="W78">
-        <v>20</v>
-      </c>
-      <c r="X78">
-        <v>20</v>
-      </c>
-      <c r="Y78">
-        <v>75.92</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>10</v>
-      </c>
-      <c r="AC78">
-        <v>381.17040400331649</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>50</v>
-      </c>
-      <c r="AF78">
-        <v>7.6374179443335839</v>
-      </c>
-      <c r="AG78">
-        <v>0.39685187764550051</v>
-      </c>
-      <c r="AH78">
-        <v>0.47554046434388636</v>
-      </c>
-      <c r="AI78">
-        <v>0.90914301524088459</v>
-      </c>
-      <c r="AJ78">
-        <v>0.81828603048176918</v>
-      </c>
-      <c r="AK78">
-        <v>0.5</v>
-      </c>
-      <c r="AL78">
-        <v>1</v>
-      </c>
-      <c r="AM78">
-        <v>0</v>
+        <f t="array" ref="N78:AM102">[1]!well_pwf_plin_atma(qliq_,fw_,plin_calc_,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm)</f>
+        <v>-1</v>
+      </c>
+      <c r="O78" t="str">
+        <v>error</v>
+      </c>
+      <c r="P78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM78" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="N79" t="str">
-        <v>p_line_atma</v>
+    <row r="79" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <v>-1</v>
       </c>
       <c r="O79" t="str">
-        <v>p_line_atma</v>
-      </c>
-      <c r="P79" t="str">
-        <v>pbuf_atma</v>
-      </c>
-      <c r="Q79" t="str">
-        <v>p_dis_atma</v>
-      </c>
-      <c r="R79" t="str">
-        <v>p_int_atma</v>
-      </c>
-      <c r="S79" t="str">
-        <v>pwf_atma</v>
-      </c>
-      <c r="T79" t="str">
-        <v>qliq_sm3day</v>
-      </c>
-      <c r="U79" t="str">
-        <v>fw_perc</v>
-      </c>
-      <c r="V79" t="str">
-        <v>t_bh_C</v>
-      </c>
-      <c r="W79" t="str">
-        <v>t_wh_C</v>
-      </c>
-      <c r="X79" t="str">
-        <v>t_surf_C</v>
-      </c>
-      <c r="Y79" t="str">
-        <v>t_dis_C</v>
-      </c>
-      <c r="Z79" t="str">
-        <v>t_int_C</v>
-      </c>
-      <c r="AA79" t="str">
-        <v>choke.c_degrad_fr</v>
-      </c>
-      <c r="AB79" t="str">
-        <v>pcas_atma</v>
-      </c>
-      <c r="AC79" t="str">
-        <v>h_dyn_m</v>
-      </c>
-      <c r="AD79" t="str">
-        <v>ESP.power_CS_calc_W</v>
-      </c>
-      <c r="AE79" t="str">
-        <v>ESP.freq_Hz</v>
-      </c>
-      <c r="AF79" t="str">
-        <v>ESP.I_A</v>
-      </c>
-      <c r="AG79" t="str">
-        <v>ESP.load_fr</v>
-      </c>
-      <c r="AH79" t="str">
-        <v>ESP.ESP_pump.eff_ESP_d</v>
-      </c>
-      <c r="AI79" t="str">
-        <v>ESP.ksep_total_fr</v>
-      </c>
-      <c r="AJ79" t="str">
-        <v>ESP.ksep_nat_fr</v>
-      </c>
-      <c r="AK79" t="str">
-        <v>ESP.ksep_gassep_fr</v>
-      </c>
-      <c r="AL79" t="str">
-        <v>ESP.c_calibr_head</v>
-      </c>
-      <c r="AM79">
-        <v>0</v>
+        <v>error</v>
+      </c>
+      <c r="P79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM79" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:52" x14ac:dyDescent="0.25">
       <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>2</v>
-      </c>
-      <c r="Q80">
-        <v>3</v>
-      </c>
-      <c r="R80">
-        <v>4</v>
-      </c>
-      <c r="S80">
-        <v>5</v>
-      </c>
-      <c r="T80">
-        <v>6</v>
-      </c>
-      <c r="U80">
-        <v>7</v>
-      </c>
-      <c r="V80">
-        <v>8</v>
-      </c>
-      <c r="W80">
-        <v>9</v>
-      </c>
-      <c r="X80">
-        <v>10</v>
-      </c>
-      <c r="Y80">
-        <v>11</v>
-      </c>
-      <c r="Z80">
-        <v>12</v>
-      </c>
-      <c r="AA80">
-        <v>13</v>
-      </c>
-      <c r="AB80">
-        <v>14</v>
-      </c>
-      <c r="AC80">
-        <v>15</v>
-      </c>
-      <c r="AD80">
-        <v>16</v>
-      </c>
-      <c r="AE80">
-        <v>17</v>
-      </c>
-      <c r="AF80">
-        <v>18</v>
-      </c>
-      <c r="AG80">
-        <v>19</v>
-      </c>
-      <c r="AH80">
-        <v>20</v>
-      </c>
-      <c r="AI80">
-        <v>21</v>
-      </c>
-      <c r="AJ80">
-        <v>22</v>
-      </c>
-      <c r="AK80">
-        <v>23</v>
-      </c>
-      <c r="AL80">
-        <v>24</v>
-      </c>
-      <c r="AM80">
-        <v>25</v>
+        <v>-1</v>
+      </c>
+      <c r="O80" t="str">
+        <v>error</v>
+      </c>
+      <c r="P80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM80" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="14:39" x14ac:dyDescent="0.25">
-      <c r="N81" t="str">
-        <v>num</v>
+      <c r="N81">
+        <v>-1</v>
       </c>
       <c r="O81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="P81" t="str">
-        <v>p_tub_atma</v>
-      </c>
-      <c r="Q81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="R81" t="str">
-        <v>h_vert_m</v>
-      </c>
-      <c r="S81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="T81" t="str">
-        <v>c_Diam</v>
-      </c>
-      <c r="U81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="V81" t="str">
-        <v>c_Theta</v>
-      </c>
-      <c r="W81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="X81" t="str">
-        <v>t_tub_C</v>
-      </c>
-      <c r="Y81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="Z81" t="str">
-        <v>Hl_tub</v>
-      </c>
-      <c r="AA81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="AB81" t="str">
-        <v>p_cas_atma</v>
-      </c>
-      <c r="AC81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="AD81" t="str">
-        <v>Hl_cas</v>
-      </c>
-      <c r="AE81" t="str">
-        <v>hmes_m</v>
-      </c>
-      <c r="AF81" t="str">
-        <v>t_amb_C</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-      <c r="AI81">
-        <v>0</v>
-      </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
+        <v>error</v>
+      </c>
+      <c r="P81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM81" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>25</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>90</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>20</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0.92874036434455653</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>10</v>
-      </c>
-      <c r="AC82">
-        <v>2501</v>
-      </c>
-      <c r="AD82">
-        <v>1</v>
-      </c>
-      <c r="AE82">
-        <v>0</v>
-      </c>
-      <c r="AF82">
-        <v>20</v>
-      </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
-      <c r="AI82">
-        <v>0</v>
-      </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
-      <c r="AK82">
-        <v>0</v>
-      </c>
-      <c r="AL82">
-        <v>0</v>
-      </c>
-      <c r="AM82">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O82" t="str">
+        <v>error</v>
+      </c>
+      <c r="P82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM82" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>166.66666666666666</v>
-      </c>
-      <c r="P83">
-        <v>38.30990787351481</v>
-      </c>
-      <c r="Q83">
-        <v>150</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>150</v>
-      </c>
-      <c r="T83">
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="U83">
-        <v>150</v>
-      </c>
-      <c r="V83">
-        <v>90</v>
-      </c>
-      <c r="W83">
-        <v>166.66666666666666</v>
-      </c>
-      <c r="X83">
-        <v>21.666666666666668</v>
-      </c>
-      <c r="Y83">
-        <v>150</v>
-      </c>
-      <c r="Z83">
-        <v>0.97349918377988631</v>
-      </c>
-      <c r="AA83">
-        <v>166.66666666666666</v>
-      </c>
-      <c r="AB83">
-        <v>10.162499647143342</v>
-      </c>
-      <c r="AC83">
-        <v>2525.9499999999998</v>
-      </c>
-      <c r="AD83">
-        <v>1</v>
-      </c>
-      <c r="AE83">
-        <v>166.66666666666666</v>
-      </c>
-      <c r="AF83">
-        <v>21.666666666666668</v>
-      </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
-      <c r="AI83">
-        <v>0</v>
-      </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
-      <c r="AK83">
-        <v>0</v>
-      </c>
-      <c r="AL83">
-        <v>0</v>
-      </c>
-      <c r="AM83">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O83" t="str">
+        <v>error</v>
+      </c>
+      <c r="P83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM83" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N84">
-        <v>3</v>
-      </c>
-      <c r="O84">
-        <v>333.33333333333331</v>
-      </c>
-      <c r="P84">
-        <v>52.067430756133462</v>
-      </c>
-      <c r="Q84">
-        <v>300</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>300</v>
-      </c>
-      <c r="T84">
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="U84">
-        <v>300</v>
-      </c>
-      <c r="V84">
-        <v>90</v>
-      </c>
-      <c r="W84">
-        <v>333.33333333333331</v>
-      </c>
-      <c r="X84">
-        <v>23.333333333333332</v>
-      </c>
-      <c r="Y84">
-        <v>300</v>
-      </c>
-      <c r="Z84">
-        <v>1</v>
-      </c>
-      <c r="AA84">
-        <v>333.33333333333331</v>
-      </c>
-      <c r="AB84">
-        <v>10.326618829534084</v>
-      </c>
-      <c r="AC84">
-        <v>2550.9</v>
-      </c>
-      <c r="AD84">
-        <v>1</v>
-      </c>
-      <c r="AE84">
-        <v>333.33333333333331</v>
-      </c>
-      <c r="AF84">
-        <v>23.333333333333332</v>
-      </c>
-      <c r="AG84">
-        <v>0</v>
-      </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
-      <c r="AI84">
-        <v>0</v>
-      </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
-      <c r="AK84">
-        <v>0</v>
-      </c>
-      <c r="AL84">
-        <v>0</v>
-      </c>
-      <c r="AM84">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O84" t="str">
+        <v>error</v>
+      </c>
+      <c r="P84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM84" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N85">
-        <v>4</v>
-      </c>
-      <c r="O85">
-        <v>500</v>
-      </c>
-      <c r="P85">
-        <v>65.88685644237917</v>
-      </c>
-      <c r="Q85">
-        <v>450</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>450</v>
-      </c>
-      <c r="T85">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="U85">
-        <v>450</v>
-      </c>
-      <c r="V85">
-        <v>90</v>
-      </c>
-      <c r="W85">
-        <v>500</v>
-      </c>
-      <c r="X85">
-        <v>25</v>
-      </c>
-      <c r="Y85">
-        <v>450</v>
-      </c>
-      <c r="Z85">
-        <v>1</v>
-      </c>
-      <c r="AA85">
-        <v>381.17040400331649</v>
-      </c>
-      <c r="AB85">
-        <v>10.374016054552587</v>
-      </c>
-      <c r="AC85">
-        <v>2575.85</v>
-      </c>
-      <c r="AD85">
-        <v>1</v>
-      </c>
-      <c r="AE85">
-        <v>500</v>
-      </c>
-      <c r="AF85">
-        <v>25</v>
-      </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-      <c r="AI85">
-        <v>0</v>
-      </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
-      <c r="AK85">
-        <v>0</v>
-      </c>
-      <c r="AL85">
-        <v>0</v>
-      </c>
-      <c r="AM85">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O85" t="str">
+        <v>error</v>
+      </c>
+      <c r="P85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM85" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N86">
-        <v>5</v>
-      </c>
-      <c r="O86">
-        <v>666.66666666666663</v>
-      </c>
-      <c r="P86">
-        <v>79.704250248980586</v>
-      </c>
-      <c r="Q86">
-        <v>600</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>600</v>
-      </c>
-      <c r="T86">
-        <v>0.06</v>
-      </c>
-      <c r="U86">
-        <v>600</v>
-      </c>
-      <c r="V86">
-        <v>90</v>
-      </c>
-      <c r="W86">
-        <v>666.66666666666663</v>
-      </c>
-      <c r="X86">
-        <v>26.666666666666668</v>
-      </c>
-      <c r="Y86">
-        <v>600</v>
-      </c>
-      <c r="Z86">
-        <v>1</v>
-      </c>
-      <c r="AA86">
-        <v>500</v>
-      </c>
-      <c r="AB86">
-        <v>14.679293624153058</v>
-      </c>
-      <c r="AC86">
-        <v>2600.8000000000002</v>
-      </c>
-      <c r="AD86">
-        <v>1</v>
-      </c>
-      <c r="AE86">
-        <v>666.66666666666663</v>
-      </c>
-      <c r="AF86">
-        <v>26.666666666666668</v>
-      </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-      <c r="AI86">
-        <v>0</v>
-      </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
-      <c r="AK86">
-        <v>0</v>
-      </c>
-      <c r="AL86">
-        <v>0</v>
-      </c>
-      <c r="AM86">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O86" t="str">
+        <v>error</v>
+      </c>
+      <c r="P86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM86" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N87">
-        <v>6</v>
-      </c>
-      <c r="O87">
-        <v>833.33333333333326</v>
-      </c>
-      <c r="P87">
-        <v>93.512403243002268</v>
-      </c>
-      <c r="Q87">
-        <v>750</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>750</v>
-      </c>
-      <c r="T87">
-        <v>0.06</v>
-      </c>
-      <c r="U87">
-        <v>750</v>
-      </c>
-      <c r="V87">
-        <v>90</v>
-      </c>
-      <c r="W87">
-        <v>833.33333333333326</v>
-      </c>
-      <c r="X87">
-        <v>28.333333333333332</v>
-      </c>
-      <c r="Y87">
-        <v>750</v>
-      </c>
-      <c r="Z87">
-        <v>1</v>
-      </c>
-      <c r="AA87">
-        <v>666.66666666666663</v>
-      </c>
-      <c r="AB87">
-        <v>20.74826990076728</v>
-      </c>
-      <c r="AC87">
-        <v>2625.75</v>
-      </c>
-      <c r="AD87">
-        <v>1</v>
-      </c>
-      <c r="AE87">
-        <v>833.33333333333326</v>
-      </c>
-      <c r="AF87">
-        <v>28.333333333333332</v>
-      </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
-      <c r="AI87">
-        <v>0</v>
-      </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
-      <c r="AK87">
-        <v>0</v>
-      </c>
-      <c r="AL87">
-        <v>0</v>
-      </c>
-      <c r="AM87">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O87" t="str">
+        <v>error</v>
+      </c>
+      <c r="P87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM87" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N88">
-        <v>7</v>
-      </c>
-      <c r="O88">
-        <v>1000</v>
-      </c>
-      <c r="P88">
-        <v>107.20091589590815</v>
-      </c>
-      <c r="Q88">
-        <v>900</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>900</v>
-      </c>
-      <c r="T88">
-        <v>0.06</v>
-      </c>
-      <c r="U88">
-        <v>900</v>
-      </c>
-      <c r="V88">
-        <v>90</v>
-      </c>
-      <c r="W88">
-        <v>1000</v>
-      </c>
-      <c r="X88">
-        <v>30</v>
-      </c>
-      <c r="Y88">
-        <v>900</v>
-      </c>
-      <c r="Z88">
-        <v>1</v>
-      </c>
-      <c r="AA88">
-        <v>833.33333333333326</v>
-      </c>
-      <c r="AB88">
-        <v>27.804058764016595</v>
-      </c>
-      <c r="AC88">
-        <v>2650.7</v>
-      </c>
-      <c r="AD88">
-        <v>1</v>
-      </c>
-      <c r="AE88">
-        <v>1000</v>
-      </c>
-      <c r="AF88">
-        <v>30</v>
-      </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
-      <c r="AH88">
-        <v>0</v>
-      </c>
-      <c r="AI88">
-        <v>0</v>
-      </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
-      <c r="AK88">
-        <v>0</v>
-      </c>
-      <c r="AL88">
-        <v>0</v>
-      </c>
-      <c r="AM88">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O88" t="str">
+        <v>error</v>
+      </c>
+      <c r="P88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM88" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N89">
-        <v>8</v>
-      </c>
-      <c r="O89">
-        <v>1166.6666666666665</v>
-      </c>
-      <c r="P89">
-        <v>120.28984329333792</v>
-      </c>
-      <c r="Q89">
-        <v>1050</v>
-      </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89">
-        <v>1050</v>
-      </c>
-      <c r="T89">
-        <v>0.06</v>
-      </c>
-      <c r="U89">
-        <v>1050</v>
-      </c>
-      <c r="V89">
-        <v>72.772461476460705</v>
-      </c>
-      <c r="W89">
-        <v>1166.6666666666665</v>
-      </c>
-      <c r="X89">
-        <v>31.593333333333334</v>
-      </c>
-      <c r="Y89">
-        <v>1050</v>
-      </c>
-      <c r="Z89">
-        <v>1</v>
-      </c>
-      <c r="AA89">
-        <v>1000</v>
-      </c>
-      <c r="AB89">
-        <v>36.134640489000816</v>
-      </c>
-      <c r="AC89">
-        <v>2675.65</v>
-      </c>
-      <c r="AD89">
-        <v>1</v>
-      </c>
-      <c r="AE89">
-        <v>1166.6666666666665</v>
-      </c>
-      <c r="AF89">
-        <v>31.593333333333334</v>
-      </c>
-      <c r="AG89">
-        <v>0</v>
-      </c>
-      <c r="AH89">
-        <v>0</v>
-      </c>
-      <c r="AI89">
-        <v>0</v>
-      </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
-      <c r="AK89">
-        <v>0</v>
-      </c>
-      <c r="AL89">
-        <v>0</v>
-      </c>
-      <c r="AM89">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O89" t="str">
+        <v>error</v>
+      </c>
+      <c r="P89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM89" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N90">
-        <v>9</v>
-      </c>
-      <c r="O90">
-        <v>1333.3333333333333</v>
-      </c>
-      <c r="P90">
-        <v>132.97219766910217</v>
-      </c>
-      <c r="Q90">
-        <v>1200</v>
-      </c>
-      <c r="R90">
-        <v>9</v>
-      </c>
-      <c r="S90">
-        <v>1200</v>
-      </c>
-      <c r="T90">
-        <v>0.06</v>
-      </c>
-      <c r="U90">
-        <v>1200</v>
-      </c>
-      <c r="V90">
-        <v>68.434814984757395</v>
-      </c>
-      <c r="W90">
-        <v>1333.3333333333333</v>
-      </c>
-      <c r="X90">
-        <v>33.143333333333338</v>
-      </c>
-      <c r="Y90">
-        <v>1200</v>
-      </c>
-      <c r="Z90">
-        <v>1</v>
-      </c>
-      <c r="AA90">
-        <v>1166.6666666666665</v>
-      </c>
-      <c r="AB90">
-        <v>46.203728904882624</v>
-      </c>
-      <c r="AC90">
-        <v>2700.6</v>
-      </c>
-      <c r="AD90">
-        <v>1</v>
-      </c>
-      <c r="AE90">
-        <v>1333.3333333333333</v>
-      </c>
-      <c r="AF90">
-        <v>33.143333333333338</v>
-      </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
-      <c r="AH90">
-        <v>0</v>
-      </c>
-      <c r="AI90">
-        <v>0</v>
-      </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
-      <c r="AK90">
-        <v>0</v>
-      </c>
-      <c r="AL90">
-        <v>0</v>
-      </c>
-      <c r="AM90">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O90" t="str">
+        <v>error</v>
+      </c>
+      <c r="P90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM90" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N91">
-        <v>10</v>
-      </c>
-      <c r="O91">
-        <v>1500</v>
-      </c>
-      <c r="P91">
-        <v>145.20593037241812</v>
-      </c>
-      <c r="Q91">
-        <v>1350</v>
-      </c>
-      <c r="R91">
-        <v>20.5</v>
-      </c>
-      <c r="S91">
-        <v>1350</v>
-      </c>
-      <c r="T91">
-        <v>0.06</v>
-      </c>
-      <c r="U91">
-        <v>1350</v>
-      </c>
-      <c r="V91">
-        <v>64.189299205653242</v>
-      </c>
-      <c r="W91">
-        <v>1500</v>
-      </c>
-      <c r="X91">
-        <v>34.64</v>
-      </c>
-      <c r="Y91">
-        <v>1350</v>
-      </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>1333.3333333333333</v>
-      </c>
-      <c r="AB91">
-        <v>56.958707223885391</v>
-      </c>
-      <c r="AC91">
-        <v>2725.55</v>
-      </c>
-      <c r="AD91">
-        <v>1</v>
-      </c>
-      <c r="AE91">
-        <v>1500</v>
-      </c>
-      <c r="AF91">
-        <v>34.64</v>
-      </c>
-      <c r="AG91">
-        <v>0</v>
-      </c>
-      <c r="AH91">
-        <v>0</v>
-      </c>
-      <c r="AI91">
-        <v>0</v>
-      </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
-      <c r="AK91">
-        <v>0</v>
-      </c>
-      <c r="AL91">
-        <v>0</v>
-      </c>
-      <c r="AM91">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O91" t="str">
+        <v>error</v>
+      </c>
+      <c r="P91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM91" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N92">
-        <v>11</v>
-      </c>
-      <c r="O92">
-        <v>1666.6666666666665</v>
-      </c>
-      <c r="P92">
-        <v>156.92453070702041</v>
-      </c>
-      <c r="Q92">
-        <v>1500</v>
-      </c>
-      <c r="R92">
-        <v>36</v>
-      </c>
-      <c r="S92">
-        <v>1500</v>
-      </c>
-      <c r="T92">
-        <v>0.06</v>
-      </c>
-      <c r="U92">
-        <v>1500</v>
-      </c>
-      <c r="V92">
-        <v>60.45863949985727</v>
-      </c>
-      <c r="W92">
-        <v>1666.6666666666665</v>
-      </c>
-      <c r="X92">
-        <v>40.92166666666666</v>
-      </c>
-      <c r="Y92">
-        <v>1500</v>
-      </c>
-      <c r="Z92">
-        <v>1</v>
-      </c>
-      <c r="AA92">
-        <v>1500</v>
-      </c>
-      <c r="AB92">
-        <v>67.878627803560491</v>
-      </c>
-      <c r="AC92">
-        <v>2750.5</v>
-      </c>
-      <c r="AD92">
-        <v>1</v>
-      </c>
-      <c r="AE92">
-        <v>1666.6666666666665</v>
-      </c>
-      <c r="AF92">
-        <v>40.92166666666666</v>
-      </c>
-      <c r="AG92">
-        <v>0</v>
-      </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
-      <c r="AI92">
-        <v>0</v>
-      </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
-      <c r="AK92">
-        <v>0</v>
-      </c>
-      <c r="AL92">
-        <v>0</v>
-      </c>
-      <c r="AM92">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O92" t="str">
+        <v>error</v>
+      </c>
+      <c r="P92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM92" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N93">
-        <v>12</v>
-      </c>
-      <c r="O93">
-        <v>1833.3333333333333</v>
-      </c>
-      <c r="P93">
-        <v>168.16488037578725</v>
-      </c>
-      <c r="Q93">
-        <v>1650</v>
-      </c>
-      <c r="R93">
-        <v>56.5</v>
-      </c>
-      <c r="S93">
-        <v>1650</v>
-      </c>
-      <c r="T93">
-        <v>0.06</v>
-      </c>
-      <c r="U93">
-        <v>1650</v>
-      </c>
-      <c r="V93">
-        <v>57.155203693041116</v>
-      </c>
-      <c r="W93">
-        <v>1833.3333333333333</v>
-      </c>
-      <c r="X93">
-        <v>48.53</v>
-      </c>
-      <c r="Y93">
-        <v>1650</v>
-      </c>
-      <c r="Z93">
-        <v>1</v>
-      </c>
-      <c r="AA93">
-        <v>1666.6666666666665</v>
-      </c>
-      <c r="AB93">
-        <v>78.527354322462529</v>
-      </c>
-      <c r="AC93">
-        <v>2775.45</v>
-      </c>
-      <c r="AD93">
-        <v>1</v>
-      </c>
-      <c r="AE93">
-        <v>1833.3333333333333</v>
-      </c>
-      <c r="AF93">
-        <v>48.53</v>
-      </c>
-      <c r="AG93">
-        <v>0</v>
-      </c>
-      <c r="AH93">
-        <v>0</v>
-      </c>
-      <c r="AI93">
-        <v>0</v>
-      </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
-      <c r="AK93">
-        <v>0</v>
-      </c>
-      <c r="AL93">
-        <v>0</v>
-      </c>
-      <c r="AM93">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O93" t="str">
+        <v>error</v>
+      </c>
+      <c r="P93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM93" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N94">
-        <v>13</v>
-      </c>
-      <c r="O94">
-        <v>2000</v>
-      </c>
-      <c r="P94">
-        <v>178.93040673070621</v>
-      </c>
-      <c r="Q94">
-        <v>1800</v>
-      </c>
-      <c r="R94">
-        <v>81</v>
-      </c>
-      <c r="S94">
-        <v>1800</v>
-      </c>
-      <c r="T94">
-        <v>0.06</v>
-      </c>
-      <c r="U94">
-        <v>1800</v>
-      </c>
-      <c r="V94">
-        <v>54.095931416682895</v>
-      </c>
-      <c r="W94">
-        <v>2000</v>
-      </c>
-      <c r="X94">
-        <v>55.844999999999999</v>
-      </c>
-      <c r="Y94">
-        <v>1800</v>
-      </c>
-      <c r="Z94">
-        <v>1</v>
-      </c>
-      <c r="AA94">
-        <v>1833.3333333333333</v>
-      </c>
-      <c r="AB94">
-        <v>88.715799164726803</v>
-      </c>
-      <c r="AC94">
-        <v>2800.4</v>
-      </c>
-      <c r="AD94">
-        <v>1</v>
-      </c>
-      <c r="AE94">
-        <v>2000</v>
-      </c>
-      <c r="AF94">
-        <v>55.844999999999999</v>
-      </c>
-      <c r="AG94">
-        <v>0</v>
-      </c>
-      <c r="AH94">
-        <v>0</v>
-      </c>
-      <c r="AI94">
-        <v>0</v>
-      </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
-      <c r="AK94">
-        <v>0</v>
-      </c>
-      <c r="AL94">
-        <v>0</v>
-      </c>
-      <c r="AM94">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O94" t="str">
+        <v>error</v>
+      </c>
+      <c r="P94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM94" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N95">
-        <v>14</v>
-      </c>
-      <c r="O95">
-        <v>2166.6666666666665</v>
-      </c>
-      <c r="P95">
-        <v>189.16741422074566</v>
-      </c>
-      <c r="Q95">
-        <v>1950</v>
-      </c>
-      <c r="R95">
-        <v>110.5</v>
-      </c>
-      <c r="S95">
-        <v>1950</v>
-      </c>
-      <c r="T95">
-        <v>0.06</v>
-      </c>
-      <c r="U95">
-        <v>1950</v>
-      </c>
-      <c r="V95">
-        <v>51.269700173506124</v>
-      </c>
-      <c r="W95">
-        <v>2166.6666666666665</v>
-      </c>
-      <c r="X95">
-        <v>62.829999999999991</v>
-      </c>
-      <c r="Y95">
-        <v>1950</v>
-      </c>
-      <c r="Z95">
-        <v>1</v>
-      </c>
-      <c r="AA95">
-        <v>2000</v>
-      </c>
-      <c r="AB95">
-        <v>98.519797900969451</v>
-      </c>
-      <c r="AC95">
-        <v>2825.35</v>
-      </c>
-      <c r="AD95">
-        <v>1</v>
-      </c>
-      <c r="AE95">
-        <v>2166.6666666666665</v>
-      </c>
-      <c r="AF95">
-        <v>62.829999999999991</v>
-      </c>
-      <c r="AG95">
-        <v>0</v>
-      </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
-      <c r="AI95">
-        <v>0</v>
-      </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
-      <c r="AK95">
-        <v>0</v>
-      </c>
-      <c r="AL95">
-        <v>0</v>
-      </c>
-      <c r="AM95">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O95" t="str">
+        <v>error</v>
+      </c>
+      <c r="P95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM95" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N96">
-        <v>15</v>
-      </c>
-      <c r="O96">
-        <v>2333.333333333333</v>
-      </c>
-      <c r="P96">
-        <v>198.93933062042314</v>
-      </c>
-      <c r="Q96">
-        <v>2100</v>
-      </c>
-      <c r="R96">
-        <v>144</v>
-      </c>
-      <c r="S96">
-        <v>2100</v>
-      </c>
-      <c r="T96">
-        <v>0.06</v>
-      </c>
-      <c r="U96">
-        <v>2100</v>
-      </c>
-      <c r="V96">
-        <v>48.590377890729194</v>
-      </c>
-      <c r="W96">
-        <v>2333.333333333333</v>
-      </c>
-      <c r="X96">
-        <v>69.521666666666647</v>
-      </c>
-      <c r="Y96">
-        <v>2100</v>
-      </c>
-      <c r="Z96">
-        <v>1</v>
-      </c>
-      <c r="AA96">
-        <v>2166.6666666666665</v>
-      </c>
-      <c r="AB96">
-        <v>108.16899458881448</v>
-      </c>
-      <c r="AC96">
-        <v>2850.3</v>
-      </c>
-      <c r="AD96">
-        <v>1</v>
-      </c>
-      <c r="AE96">
-        <v>2333.333333333333</v>
-      </c>
-      <c r="AF96">
-        <v>69.521666666666647</v>
-      </c>
-      <c r="AG96">
-        <v>0</v>
-      </c>
-      <c r="AH96">
-        <v>0</v>
-      </c>
-      <c r="AI96">
-        <v>0</v>
-      </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
-      <c r="AK96">
-        <v>0</v>
-      </c>
-      <c r="AL96">
-        <v>0</v>
-      </c>
-      <c r="AM96">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O96" t="str">
+        <v>error</v>
+      </c>
+      <c r="P96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM96" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N97">
-        <v>16</v>
-      </c>
-      <c r="O97">
-        <v>2416.6666666666665</v>
-      </c>
-      <c r="P97">
-        <v>203.594645150178</v>
-      </c>
-      <c r="Q97">
-        <v>2250</v>
-      </c>
-      <c r="R97">
-        <v>182.5</v>
-      </c>
-      <c r="S97">
-        <v>2250</v>
-      </c>
-      <c r="T97">
-        <v>0.06</v>
-      </c>
-      <c r="U97">
-        <v>2250</v>
-      </c>
-      <c r="V97">
-        <v>46.060654691386475</v>
-      </c>
-      <c r="W97">
-        <v>2416.6666666666665</v>
-      </c>
-      <c r="X97">
-        <v>72.720833333333331</v>
-      </c>
-      <c r="Y97">
-        <v>2250</v>
-      </c>
-      <c r="Z97">
-        <v>1</v>
-      </c>
-      <c r="AA97">
-        <v>2333.333333333333</v>
-      </c>
-      <c r="AB97">
-        <v>117.52616447512801</v>
-      </c>
-      <c r="AC97">
-        <v>2875.25</v>
-      </c>
-      <c r="AD97">
-        <v>1</v>
-      </c>
-      <c r="AE97">
-        <v>2416.6666666666665</v>
-      </c>
-      <c r="AF97">
-        <v>72.720833333333331</v>
-      </c>
-      <c r="AG97">
-        <v>0</v>
-      </c>
-      <c r="AH97">
-        <v>0</v>
-      </c>
-      <c r="AI97">
-        <v>0</v>
-      </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
-      <c r="AK97">
-        <v>0</v>
-      </c>
-      <c r="AL97">
-        <v>0</v>
-      </c>
-      <c r="AM97">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O97" t="str">
+        <v>error</v>
+      </c>
+      <c r="P97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM97" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N98">
-        <v>17</v>
-      </c>
-      <c r="O98">
-        <v>2500</v>
-      </c>
-      <c r="P98">
-        <v>208.24995967993289</v>
-      </c>
-      <c r="Q98">
-        <v>2400</v>
-      </c>
-      <c r="R98">
-        <v>225</v>
-      </c>
-      <c r="S98">
-        <v>2400</v>
-      </c>
-      <c r="T98">
-        <v>0.06</v>
-      </c>
-      <c r="U98">
-        <v>2400</v>
-      </c>
-      <c r="V98">
-        <v>43.630108867854346</v>
-      </c>
-      <c r="W98">
-        <v>2500</v>
-      </c>
-      <c r="X98">
-        <v>75.92</v>
-      </c>
-      <c r="Y98">
-        <v>2400</v>
-      </c>
-      <c r="Z98">
-        <v>1</v>
-      </c>
-      <c r="AA98">
-        <v>2500</v>
-      </c>
-      <c r="AB98">
-        <v>126.45070134450869</v>
-      </c>
-      <c r="AC98">
-        <v>2900.2</v>
-      </c>
-      <c r="AD98">
-        <v>1</v>
-      </c>
-      <c r="AE98">
-        <v>2500</v>
-      </c>
-      <c r="AF98">
-        <v>75.92</v>
-      </c>
-      <c r="AG98">
-        <v>0</v>
-      </c>
-      <c r="AH98">
-        <v>0</v>
-      </c>
-      <c r="AI98">
-        <v>0</v>
-      </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
-      <c r="AK98">
-        <v>0</v>
-      </c>
-      <c r="AL98">
-        <v>0</v>
-      </c>
-      <c r="AM98">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O98" t="str">
+        <v>error</v>
+      </c>
+      <c r="P98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM98" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N99">
-        <v>18</v>
-      </c>
-      <c r="O99">
-        <v>2501</v>
-      </c>
-      <c r="P99">
-        <v>126.50275104999338</v>
-      </c>
-      <c r="Q99">
-        <v>2550</v>
-      </c>
-      <c r="R99">
-        <v>272.50979999999993</v>
-      </c>
-      <c r="S99">
-        <v>2550</v>
-      </c>
-      <c r="T99">
-        <v>0.125</v>
-      </c>
-      <c r="U99">
-        <v>2550</v>
-      </c>
-      <c r="V99">
-        <v>41.304333337999893</v>
-      </c>
-      <c r="W99">
-        <v>2501</v>
-      </c>
-      <c r="X99">
-        <v>75.956850000000003</v>
-      </c>
-      <c r="Y99">
-        <v>2550</v>
-      </c>
-      <c r="Z99">
-        <v>1</v>
-      </c>
-      <c r="AA99">
-        <v>2501</v>
-      </c>
-      <c r="AB99">
-        <v>126.50275104999338</v>
-      </c>
-      <c r="AC99">
-        <v>2925.15</v>
-      </c>
-      <c r="AD99">
-        <v>1</v>
-      </c>
-      <c r="AE99">
-        <v>2501</v>
-      </c>
-      <c r="AF99">
-        <v>75.956850000000003</v>
-      </c>
-      <c r="AG99">
-        <v>0</v>
-      </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-      <c r="AI99">
-        <v>0</v>
-      </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
-      <c r="AK99">
-        <v>0</v>
-      </c>
-      <c r="AL99">
-        <v>0</v>
-      </c>
-      <c r="AM99">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O99" t="str">
+        <v>error</v>
+      </c>
+      <c r="P99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM99" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N100">
-        <v>19</v>
-      </c>
-      <c r="O100">
-        <v>2666.6666666666665</v>
-      </c>
-      <c r="P100">
-        <v>134.86444787995396</v>
-      </c>
-      <c r="Q100">
-        <v>2700</v>
-      </c>
-      <c r="R100">
-        <v>324.01979999999992</v>
-      </c>
-      <c r="S100">
-        <v>2700</v>
-      </c>
-      <c r="T100">
-        <v>0.125</v>
-      </c>
-      <c r="U100">
-        <v>2700</v>
-      </c>
-      <c r="V100">
-        <v>39.05012253615353</v>
-      </c>
-      <c r="W100">
-        <v>2666.6666666666665</v>
-      </c>
-      <c r="X100">
-        <v>81.987611000000001</v>
-      </c>
-      <c r="Y100">
-        <v>2700</v>
-      </c>
-      <c r="Z100">
-        <v>1</v>
-      </c>
-      <c r="AA100">
-        <v>2666.6666666666665</v>
-      </c>
-      <c r="AB100">
-        <v>134.86444787995396</v>
-      </c>
-      <c r="AC100">
-        <v>2950.1</v>
-      </c>
-      <c r="AD100">
-        <v>1</v>
-      </c>
-      <c r="AE100">
-        <v>2666.6666666666665</v>
-      </c>
-      <c r="AF100">
-        <v>81.987611000000001</v>
-      </c>
-      <c r="AG100">
-        <v>0</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100">
-        <v>0</v>
-      </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O100" t="str">
+        <v>error</v>
+      </c>
+      <c r="P100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM100" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N101">
-        <v>20</v>
-      </c>
-      <c r="O101">
-        <v>2833.333333333333</v>
-      </c>
-      <c r="P101">
-        <v>140.9501524414155</v>
-      </c>
-      <c r="Q101">
-        <v>2850</v>
-      </c>
-      <c r="R101">
-        <v>395.75000000000017</v>
-      </c>
-      <c r="S101">
-        <v>2850</v>
-      </c>
-      <c r="T101">
-        <v>0.125</v>
-      </c>
-      <c r="U101">
-        <v>2850</v>
-      </c>
-      <c r="V101">
-        <v>17.758163906557428</v>
-      </c>
-      <c r="W101">
-        <v>2833.333333333333</v>
-      </c>
-      <c r="X101">
-        <v>87.204166666666652</v>
-      </c>
-      <c r="Y101">
-        <v>2850</v>
-      </c>
-      <c r="Z101">
-        <v>1</v>
-      </c>
-      <c r="AA101">
-        <v>2833.333333333333</v>
-      </c>
-      <c r="AB101">
-        <v>140.9501524414155</v>
-      </c>
-      <c r="AC101">
-        <v>2975.05</v>
-      </c>
-      <c r="AD101">
-        <v>1</v>
-      </c>
-      <c r="AE101">
-        <v>2833.333333333333</v>
-      </c>
-      <c r="AF101">
-        <v>87.204166666666652</v>
-      </c>
-      <c r="AG101">
-        <v>0</v>
-      </c>
-      <c r="AH101">
-        <v>0</v>
-      </c>
-      <c r="AI101">
-        <v>0</v>
-      </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
-      <c r="AK101">
-        <v>0</v>
-      </c>
-      <c r="AL101">
-        <v>0</v>
-      </c>
-      <c r="AM101">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O101" t="str">
+        <v>error</v>
+      </c>
+      <c r="P101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM101" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N102">
-        <v>21</v>
-      </c>
-      <c r="O102">
-        <v>3000</v>
-      </c>
-      <c r="P102">
-        <v>144.86713011851421</v>
-      </c>
-      <c r="Q102">
-        <v>3000</v>
-      </c>
-      <c r="R102">
-        <v>500</v>
-      </c>
-      <c r="S102">
-        <v>3000</v>
-      </c>
-      <c r="T102">
-        <v>0.125</v>
-      </c>
-      <c r="U102">
-        <v>3000</v>
-      </c>
-      <c r="V102">
-        <v>17.758163906557428</v>
-      </c>
-      <c r="W102">
-        <v>3000</v>
-      </c>
-      <c r="X102">
-        <v>90</v>
-      </c>
-      <c r="Y102">
-        <v>3000</v>
-      </c>
-      <c r="Z102">
-        <v>1</v>
-      </c>
-      <c r="AA102">
-        <v>3000</v>
-      </c>
-      <c r="AB102">
-        <v>144.86713011851421</v>
-      </c>
-      <c r="AC102">
-        <v>3000</v>
-      </c>
-      <c r="AD102">
-        <v>1</v>
-      </c>
-      <c r="AE102">
-        <v>3000</v>
-      </c>
-      <c r="AF102">
-        <v>90</v>
-      </c>
-      <c r="AG102">
-        <v>0</v>
-      </c>
-      <c r="AH102">
-        <v>0</v>
-      </c>
-      <c r="AI102">
-        <v>0</v>
-      </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
-      <c r="AK102">
-        <v>0</v>
-      </c>
-      <c r="AL102">
-        <v>0</v>
-      </c>
-      <c r="AM102">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="O102" t="str">
+        <v>error</v>
+      </c>
+      <c r="P102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM102" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/exercises/excercises/ex130.MF_well_new.xlsx
+++ b/exercises/excercises/ex130.MF_well_new.xlsx
@@ -2,48 +2,49 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <workbookPr codeName="Workbook________" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F0F62C-4E9E-4C77-B191-93901373E060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A752DC-388F-4BE7-A2A6-66AB19832806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="well1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="AL_str_">Лист1!$C$31</definedName>
-    <definedName name="ALsel">Лист1!$G$33</definedName>
-    <definedName name="Bob_" localSheetId="0">Лист1!$C$14</definedName>
-    <definedName name="ESP_">Лист1!$C$29</definedName>
-    <definedName name="Fr">Лист1!$J$36</definedName>
-    <definedName name="fw_">Лист1!$C$18</definedName>
-    <definedName name="gamma_gas_" localSheetId="0">Лист1!$C$9</definedName>
-    <definedName name="gamma_oil_" localSheetId="0">Лист1!$C$7</definedName>
-    <definedName name="gamma_wat_" localSheetId="0">Лист1!$C$8</definedName>
-    <definedName name="GLV_">Лист1!$C$30</definedName>
-    <definedName name="hcor">Лист1!$G$35</definedName>
-    <definedName name="Hnom">Лист1!$J$35</definedName>
-    <definedName name="muob_" localSheetId="0">Лист1!$C$15</definedName>
-    <definedName name="Pb_" localSheetId="0">Лист1!$C$12</definedName>
-    <definedName name="Pcalc_">Лист1!$C$23</definedName>
-    <definedName name="plin_calc_">Лист1!$G$78</definedName>
-    <definedName name="PVTstr_">Лист1!$C$28</definedName>
-    <definedName name="qgas_inj_">Лист1!$G$18</definedName>
-    <definedName name="Qinj_">Лист1!$G$17</definedName>
-    <definedName name="qliq_">Лист1!$C$17</definedName>
-    <definedName name="Qnom">Лист1!$J$34</definedName>
-    <definedName name="Rp_" localSheetId="0">Лист1!$C$11</definedName>
-    <definedName name="Rsb_" localSheetId="0">Лист1!$C$10</definedName>
-    <definedName name="tempm">Лист1!$G$34</definedName>
-    <definedName name="Tres_" localSheetId="0">Лист1!$C$13</definedName>
+    <definedName name="AL_str_">well1!$C$31</definedName>
+    <definedName name="ALsel">well1!$G$33</definedName>
+    <definedName name="Bob_" localSheetId="0">well1!$C$14</definedName>
+    <definedName name="d_gl_">well1!$G$23</definedName>
+    <definedName name="ESP_">well1!$C$29</definedName>
+    <definedName name="Fr">well1!$J$36</definedName>
+    <definedName name="fw_">well1!$C$18</definedName>
+    <definedName name="gamma_gas_" localSheetId="0">well1!$C$9</definedName>
+    <definedName name="gamma_oil_" localSheetId="0">well1!$C$7</definedName>
+    <definedName name="gamma_wat_" localSheetId="0">well1!$C$8</definedName>
+    <definedName name="GLV_">well1!$C$30</definedName>
+    <definedName name="hcor">well1!$G$35</definedName>
+    <definedName name="Hnom">well1!$J$35</definedName>
+    <definedName name="muob_" localSheetId="0">well1!$C$15</definedName>
+    <definedName name="Pb_" localSheetId="0">well1!$C$12</definedName>
+    <definedName name="Pcalc_">well1!$C$23</definedName>
+    <definedName name="plin_calc_">well1!$G$78</definedName>
+    <definedName name="PVTstr_">well1!$C$28</definedName>
+    <definedName name="qgas_inj_">well1!$G$18</definedName>
+    <definedName name="Qinj_">well1!$G$17</definedName>
+    <definedName name="qliq_">well1!$C$17</definedName>
+    <definedName name="Qnom">well1!$J$34</definedName>
+    <definedName name="Rp_" localSheetId="0">well1!$C$11</definedName>
+    <definedName name="Rsb_" localSheetId="0">well1!$C$10</definedName>
+    <definedName name="tempm">well1!$G$34</definedName>
+    <definedName name="Tres_" localSheetId="0">well1!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Упражнения по работе с макросами Unifloc VBA</t>
   </si>
@@ -719,13 +720,16 @@
   <si>
     <t>Qinj</t>
   </si>
+  <si>
+    <t>dgl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -966,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1022,155 +1026,155 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$P$52</c:f>
+              <c:f>well1!$P$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>q_gas_inj_sm3day</c:v>
+                  <c:v>ptub</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$P$53:$P$73</c:f>
+              <c:f>well1!$P$55:$P$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>10.674381172177998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>13.020313688307224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15.510456169259593</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18.253406994127708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>21.467436053240299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>24.830223236085416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>27.251385734908684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>28.670805434635128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>33.158946998733917</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>37.992612715695806</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>43.083795963353211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>48.287453302089368</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>53.503560390921372</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>55.236768886752095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>61.490470017343213</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>70.684472717803075</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>79.501376677901632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>80.945886009779329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>88.668594619404828</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>95.726144072251415</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$O$53:$O$73</c:f>
+              <c:f>well1!$O$55:$O$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>176.47058823529412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>352.94117647058823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>529.41176470588232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>705.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>882.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1058.8235294117646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1235.2941176470588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1411.7647058823529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1588.2352941176471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1764.7058823529412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1941.1764705882354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2117.6470588235293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2294.1176470588234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2470.5882352941176</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2647.0588235294117</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2823.5294117647059</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,144 +1215,144 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AB$53:$AB$73</c:f>
+              <c:f>well1!$AB$55:$AB$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>119.99999999980091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>121.61346228538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>123.23125328351587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>124.85315409095935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>126.47895581607899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>128.10845947778733</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>129.74147587197976</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>131.37782540830813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>133.01733791998811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>134.6499154047581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>135.46089549041164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>136.2470332527046</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>137.80704388795971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>139.33827363343198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>140.83659460008181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>142.3018285397938</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>143.7241242008692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>145.06250832150499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>146.31489401633368</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>147.49507821348368</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>148.6135598900112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AA$53:$AA$73</c:f>
+              <c:f>well1!$AA$55:$AA$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>105.26315789473684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>210.52631578947367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>315.78947368421052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>421.05263157894734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>526.31578947368416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>631.57894736842104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>736.8421052631578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>842.10526315789468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>947.36842105263156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1052.6315789473683</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1157.8947368421052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1263.1578947368421</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1368.421052631579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1473.6842105263156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1578.9473684210525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1684.2105263157894</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1789.4736842105262</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1894.7368421052631</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,7 +1430,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050658607"/>
@@ -1488,7 +1492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13642095"/>
@@ -1508,7 +1512,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1578,144 +1582,144 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$X$53:$X$73</c:f>
+              <c:f>well1!$X$55:$X$75</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21.764705882352942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>23.529411764705884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25.294117647058822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>27.058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>28.823529411764707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>30.564705882352939</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>32.238235294117651</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>33.854705882352938</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>37.432647058823527</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>45.433823529411768</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>53.289117647058823</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>55.844999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>60.807941176470578</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>67.983823529411765</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>74.803823529411758</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>75.92</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>81.287352941176465</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>87.039705882352948</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$W$53:$W$73</c:f>
+              <c:f>well1!$W$55:$W$75</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>176.47058823529412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>352.94117647058823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>529.41176470588232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>705.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>882.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1058.8235294117646</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1235.2941176470588</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1411.7647058823529</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1588.2352941176471</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1764.7058823529412</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1941.1764705882354</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2117.6470588235293</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2294.1176470588234</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2470.5882352941176</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2647.0588235294117</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2823.5294117647059</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,144 +1760,144 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AF$53:$AF$73</c:f>
+              <c:f>well1!$AF$55:$AF$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21.764705882352942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>23.529411764705884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25.294117647058822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>27.058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>28.823529411764707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>30.564705882352939</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>32.238235294117651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>33.854705882352938</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>37.432647058823527</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>45.433823529411768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>53.289117647058823</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>55.844999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>60.807941176470578</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>67.983823529411765</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>74.803823529411758</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>75.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>81.287352941176465</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>87.039705882352948</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AE$53:$AE$73</c:f>
+              <c:f>well1!$AE$55:$AE$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>176.47058823529412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>352.94117647058823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>529.41176470588232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>705.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>882.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1058.8235294117646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1235.2941176470588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1411.7647058823529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1588.2352941176471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1764.7058823529412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1941.1764705882354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2117.6470588235293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2294.1176470588234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2470.5882352941176</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2647.0588235294117</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2823.5294117647059</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,7 +1975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050658607"/>
@@ -2033,7 +2037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13642095"/>
@@ -2081,7 +2085,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2132,7 +2136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2147,11 +2151,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$Z$52</c:f>
+              <c:f>well1!$Z$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Hl_tub</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2182,144 +2186,144 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$Z$53:$Z$73</c:f>
+              <c:f>well1!$Z$55:$Z$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>0.10483485463041342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.11599601314554261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.12700049465224481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.13546171346477942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.14472591882086824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1566156688248212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.16833970770738149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.23610457018391723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.28637534517889474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.31727294870234196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.34648982492483221</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.36965547647348079</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.38902861297657632</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.40515691493850203</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.84668844838029877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.86612186746427999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.87800797370431849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.94116983779146679</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.99887684290442402</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.99889955996324753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$Y$53:$Y$73</c:f>
+              <c:f>well1!$Y$55:$Y$75</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +2401,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148342928"/>
@@ -2459,7 +2463,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="393176832"/>
@@ -2507,7 +2511,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2558,7 +2562,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2573,11 +2577,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$Q$52</c:f>
+              <c:f>well1!$V$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p_gas_inj_atma</c:v>
+                  <c:v>c_Theta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2608,144 +2612,144 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$V$53:$V$73</c:f>
+              <c:f>well1!$V$55:$V$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>72.772461476460705</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>68.434814984757395</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>64.189299205653242</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>60.45863949985727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>57.155203693041116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>54.095931416682895</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>51.269700173506124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>48.590377890729194</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>46.060654691386475</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>43.630108867854346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>41.304333337999893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>39.05012253615353</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>17.758163906557428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>17.758163906557428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$U$53:$U$73</c:f>
+              <c:f>well1!$U$55:$U$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,7 +2827,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148342928"/>
@@ -2885,7 +2889,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="393176832"/>
@@ -2933,7 +2937,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2984,422 +2988,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$D$44:$D$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$44:$B$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-74AF-492C-88C7-4938260802F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="392315008"/>
-        <c:axId val="147374048"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="392315008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="147374048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="147374048"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392315008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3416,85 +3005,84 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
+            <c:strRef>
+              <c:f>well1!$P$82:$P$102</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ptub</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25,02124155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28,5576134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32,33623369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36,38214363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40,73872997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45,34222569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48,68624685</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50,76283795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57,22961437</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64,05201598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71,10823198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78,18437244</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85,15377228</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87,44795418</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94,19445765</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104,0543111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113,6700352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115,2562783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>122,8762512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$P$82:$P$102</c:f>
+              <c:f>well1!$O$82:$O$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$O$82:$O$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3503,58 +3091,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>176.47058823529412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>352.94117647058823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>529.41176470588232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>705.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>882.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1058.8235294117646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1235.2941176470588</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1411.7647058823529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1588.2352941176471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1764.7058823529412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1941.1764705882354</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2117.6470588235293</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2294.1176470588234</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2470.5882352941176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2647.0588235294117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3582,145 +3170,144 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
+            <c:strRef>
+              <c:f>well1!$AB$82:$AB$102</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pcas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111,8887268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113,328324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114,7725879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116,2213874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117,6745981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119,1321012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120,5937838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122,0595388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123,5292643</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>124,9939474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125,7218413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>126,4280104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127,8299428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>129,2071722</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130,5559477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131,8760552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133,1600618</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>134,3770931</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135,5248492</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AB$82:$AB$102</c:f>
+              <c:f>well1!$AA$82:$AA$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>105.26315789473684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>210.52631578947367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>315.78947368421052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>421.05263157894734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>526.31578947368416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>631.57894736842104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>736.8421052631578</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>842.10526315789468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>947.36842105263156</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>1052.6315789473683</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>1157.8947368421052</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>1263.1578947368421</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>1368.421052631579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>1473.6842105263156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>1578.9473684210525</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>1684.2105263157894</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$AA$82:$AA$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>1789.4736842105262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3798,7 +3385,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="638085216"/>
@@ -3860,7 +3447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="739504144"/>
@@ -3880,7 +3467,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3891,7 +3478,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3931,7 +3518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3957,145 +3544,144 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
+            <c:strRef>
+              <c:f>well1!$X$82:$X$102</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ttub</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21,76470588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23,52941176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25,29411765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27,05882353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28,82352941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30,56470588</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32,23823529</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33,85470588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37,43264706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45,43382353</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53,28911765</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55,845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60,80794118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67,98382353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74,80382353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75,92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81,28735294</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$X$82:$X$102</c:f>
+              <c:f>well1!$W$82:$W$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>176.47058823529412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>352.94117647058823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>529.41176470588232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>705.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>882.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>1058.8235294117646</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>1235.2941176470588</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>1411.7647058823529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>1588.2352941176471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>1764.7058823529412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>1941.1764705882354</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>2117.6470588235293</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>2294.1176470588234</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>2470.5882352941176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$W$82:$W$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>2647.0588235294117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4173,7 +3759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="638085216"/>
@@ -4235,7 +3821,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="739504144"/>
@@ -4283,7 +3869,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4294,7 +3880,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4334,7 +3920,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4349,7 +3935,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$AT$50</c:f>
+              <c:f>well1!$AT$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4382,7 +3968,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AT$51:$AT$70</c:f>
+              <c:f>well1!$AT$55:$AT$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4393,7 +3979,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4451,7 +4037,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AR$51:$AR$70</c:f>
+              <c:f>well1!$AR$55:$AR$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4462,7 +4048,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4591,7 +4177,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="451514976"/>
@@ -4653,7 +4239,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="292625344"/>
@@ -4695,7 +4281,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4732,7 +4318,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4943,46 +4529,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7048,522 +6594,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8231,42 +7261,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>45027</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>554181</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>51953</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0645B219-A8BB-458E-842C-A0E43A65E0C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>431423</xdr:colOff>
       <xdr:row>102</xdr:row>
@@ -8295,7 +7289,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8333,7 +7327,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8369,7 +7363,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8699,33 +7693,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A7C6B1-D08D-4B8C-90EB-0A5185B9FB63}">
-  <sheetPr codeName="Лист1"/>
+  <sheetPr codeName="Worksheet_well1"/>
   <dimension ref="A1:AZ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" customWidth="1"/>
+    <col min="27" max="27" width="9.53125" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="13.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13.1328125" customWidth="1"/>
     <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8734,20 +7728,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.11</v>
+        <v>7.12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -8763,7 +7757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -8779,7 +7773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -8795,7 +7789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -8813,7 +7807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -8831,7 +7825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -8849,7 +7843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -8867,7 +7861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -8878,7 +7872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
@@ -8889,12 +7883,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="15.4" x14ac:dyDescent="0.5">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
@@ -8911,7 +7905,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="15" x14ac:dyDescent="0.5">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -8922,19 +7916,19 @@
         <v>25</v>
       </c>
       <c r="G18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
@@ -8945,7 +7939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
@@ -8956,7 +7950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
@@ -8967,29 +7961,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="3">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
@@ -9000,7 +8000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
@@ -9011,13 +8011,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="21" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:90.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:90,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -9042,13 +8042,13 @@
       <c r="X28" s="22"/>
       <c r="Y28" s="22"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B29" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="23" t="str">
         <f>[1]!ESP_encode_string(J37,Hnom,Fr,,,,,0.5)</f>
-        <v>ESP_ID:1005.00000;HeadNom_m:1000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;t_intake_C:85.00000;t_dis_C:85.00000;KsepGS_fr:0.50000;Ksep_manual_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_h_mes_m:0.00000;ESP_gas_degradation_type:0;c_calibr_head:1.00000;c_calibr_rate:1.00000;c_calibr_power:1.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
+        <v>ESP_ID:1005,00000;HeadNom_m:1000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,50000;Ksep_manual_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_h_mes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:1,00000;c_calibr_rate:1,00000;c_calibr_power:1,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -9089,13 +8089,13 @@
       <c r="AN29" s="23"/>
       <c r="AO29" s="23"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="24" t="str">
-        <f>[1]!GL_encode_string(qgas_inj_,,,M35:M38,N35:N38,O35:O38)</f>
-        <v>GLV:1;q_gas_inj_sm3day:1000.00000;p_gas_inj_atma:0.00000;d_gas_inj_mm:0.00000;GLV:1;H_glv_m1:2450.000;d_glv_mm1:0.000;p_glv_atma1:25.000;</v>
+        <f>[1]!GL_encode_string(qgas_inj_,,d_gl_,M35:M38,N35:N38,O35:O38)</f>
+        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:0,00000;d_gas_inj_mm:5,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -9115,13 +8115,13 @@
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="25" t="str">
         <f>IF(ALsel,ESP_,GLV_)</f>
-        <v>GLV:1;q_gas_inj_sm3day:1000.00000;p_gas_inj_atma:0.00000;d_gas_inj_mm:0.00000;GLV:1;H_glv_m1:2450.000;d_glv_mm1:0.000;p_glv_atma1:25.000;</v>
+        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:0,00000;d_gas_inj_mm:5,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -9162,7 +8162,7 @@
       <c r="AN31" s="25"/>
       <c r="AO31" s="25"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B33" s="13" t="s">
         <v>39</v>
       </c>
@@ -9181,7 +8181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="15" t="s">
         <v>40</v>
       </c>
@@ -9213,7 +8213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="15" t="s">
         <v>41</v>
       </c>
@@ -9236,16 +8236,16 @@
         <v>1000</v>
       </c>
       <c r="M35">
-        <v>2450</v>
+        <v>1000</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="15" t="s">
         <v>43</v>
       </c>
@@ -9261,8 +8261,17 @@
       <c r="J36">
         <v>50</v>
       </c>
+      <c r="M36">
+        <v>2000</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>55</v>
+      </c>
     </row>
-    <row r="37" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="15" t="s">
         <v>44</v>
       </c>
@@ -9281,7 +8290,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="15" t="s">
         <v>45</v>
       </c>
@@ -9293,15 +8302,15 @@
       </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.45">
       <c r="G39" s="10"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B41" s="14" t="s">
         <v>46</v>
       </c>
@@ -9318,7 +8327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="17" t="s">
         <v>50</v>
       </c>
@@ -9349,7 +8358,7 @@
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
         <v>28</v>
       </c>
@@ -9380,7 +8389,7 @@
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B44" s="16">
         <v>0</v>
       </c>
@@ -9415,7 +8424,7 @@
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B45" s="16">
         <v>1000</v>
       </c>
@@ -9450,7 +8459,7 @@
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B46" s="16">
         <v>1100</v>
       </c>
@@ -9485,7 +8494,7 @@
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B47" s="16">
         <v>1200</v>
       </c>
@@ -9508,7 +8517,7 @@
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B48" s="16">
         <v>1300</v>
       </c>
@@ -9531,7 +8540,7 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
     </row>
-    <row r="49" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B49" s="16">
         <v>1400</v>
       </c>
@@ -9551,17 +8560,17 @@
       <c r="K49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="27">
-        <f t="array" ref="N49:AZ73">[1]!well_plin_pwf_atma(qliq_,fw_,C24,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm,C26,,,,Qinj_)</f>
-        <v>1</v>
+        <f t="array" ref="N49:AZ75">[1]!well_plin_pwf_atma(qliq_,fw_,C24,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm,C26,,,,Qinj_)</f>
+        <v>9.5694159336517597</v>
       </c>
       <c r="O49" s="27">
-        <v>1</v>
+        <v>9.5694159336517597</v>
       </c>
       <c r="P49" s="27">
-        <v>1.253401653427729</v>
+        <v>10.674381172177998</v>
       </c>
       <c r="Q49" s="27">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="R49" s="27">
         <v>0</v>
@@ -9570,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="U49">
         <v>45</v>
@@ -9579,7 +8588,7 @@
         <v>12</v>
       </c>
       <c r="W49" s="20">
-        <v>5168</v>
+        <v>26033.586295782883</v>
       </c>
       <c r="X49" s="20">
         <v>20</v>
@@ -9669,7 +8678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B50" s="16">
         <v>1500</v>
       </c>
@@ -9806,7 +8815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B51" s="16">
         <v>1600</v>
       </c>
@@ -9829,40 +8838,40 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51">
-        <v>1000</v>
+        <v>21865.586295782883</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>135.46089549041164</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>27.251385734908684</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>6489.1123734776866</v>
       </c>
       <c r="W51" s="26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X51" s="26">
-        <v>0</v>
+        <v>148.6135598900112</v>
       </c>
       <c r="Y51" s="26">
-        <v>0</v>
+        <v>55.236768886752095</v>
       </c>
       <c r="Z51" s="20">
-        <v>0</v>
+        <v>15376.473922305197</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -9943,7 +8952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:52" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:52" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B52" s="16">
         <v>1700</v>
       </c>
@@ -9977,29 +8986,29 @@
       <c r="R52" s="10" t="str">
         <v>d_gas_inj_mm</v>
       </c>
-      <c r="S52" s="10">
-        <v>0</v>
-      </c>
-      <c r="T52" s="10">
-        <v>0</v>
-      </c>
-      <c r="U52" s="10">
-        <v>0</v>
-      </c>
-      <c r="V52" s="10">
-        <v>0</v>
-      </c>
-      <c r="W52" s="28">
-        <v>0</v>
-      </c>
-      <c r="X52" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="28">
-        <v>0</v>
+      <c r="S52" s="10" t="str">
+        <v>glv1:d_mm</v>
+      </c>
+      <c r="T52" s="10" t="str">
+        <v>glv1:p_in_atma</v>
+      </c>
+      <c r="U52" s="10" t="str">
+        <v>glv1:p_out_atma</v>
+      </c>
+      <c r="V52" s="10" t="str">
+        <v>glv1:q_gas_scm3day</v>
+      </c>
+      <c r="W52" s="28" t="str">
+        <v>glv2:d_mm</v>
+      </c>
+      <c r="X52" s="28" t="str">
+        <v>glv2:p_in_atma</v>
+      </c>
+      <c r="Y52" s="28" t="str">
+        <v>glv2:p_out_atma</v>
+      </c>
+      <c r="Z52" s="28" t="str">
+        <v>glv2:q_gas_scm3day</v>
       </c>
       <c r="AA52" s="10">
         <v>0</v>
@@ -10080,7 +9089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B53" s="16">
         <v>1800</v>
       </c>
@@ -10217,7 +9226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B54" s="16">
         <v>1900</v>
       </c>
@@ -10236,62 +9245,62 @@
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="M54" s="18"/>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54" s="20">
-        <v>0</v>
-      </c>
-      <c r="X54" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
+      <c r="N54" t="str">
+        <v>num</v>
+      </c>
+      <c r="O54" t="str">
+        <v>hmes ptub</v>
+      </c>
+      <c r="P54" t="str">
+        <v>ptub</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="R54" t="str">
+        <v>h_vert_m</v>
+      </c>
+      <c r="S54" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="T54" t="str">
+        <v>c_Diam</v>
+      </c>
+      <c r="U54" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="V54" t="str">
+        <v>c_Theta</v>
+      </c>
+      <c r="W54" s="20" t="str">
+        <v>hmes ttub</v>
+      </c>
+      <c r="X54" s="20" t="str">
+        <v>ttub</v>
+      </c>
+      <c r="Y54" s="20" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="Z54" s="26" t="str">
+        <v>Hl_tub</v>
+      </c>
+      <c r="AA54" t="str">
+        <v>hmes pcas</v>
+      </c>
+      <c r="AB54" t="str">
+        <v>pcas</v>
+      </c>
+      <c r="AC54" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="AD54" t="str">
+        <v>Hl_cas</v>
+      </c>
+      <c r="AE54" t="str">
+        <v>hmes tamb</v>
+      </c>
+      <c r="AF54" t="str">
+        <v>tamb</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -10354,7 +9363,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B55" s="16">
         <v>2000</v>
       </c>
@@ -10374,13 +9383,13 @@
       <c r="K55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>10.674381172177998</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -10392,31 +9401,31 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W55" s="20">
         <v>0</v>
       </c>
       <c r="X55" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y55" s="20">
         <v>0</v>
       </c>
       <c r="Z55" s="26">
-        <v>0</v>
+        <v>0.10483485463041342</v>
       </c>
       <c r="AA55">
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>119.99999999980091</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -10428,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -10491,7 +9500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B56" s="16">
         <v>2100</v>
       </c>
@@ -10511,61 +9520,61 @@
       <c r="K56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>176.47058823529412</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>13.020313688307224</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W56" s="20">
-        <v>0</v>
+        <v>176.47058823529412</v>
       </c>
       <c r="X56" s="20">
-        <v>0</v>
+        <v>21.764705882352942</v>
       </c>
       <c r="Y56" s="20">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Z56" s="26">
-        <v>0</v>
+        <v>0.11599601314554261</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>105.26315789473684</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>121.61346228538</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>176.47058823529412</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>21.764705882352942</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -10628,7 +9637,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B57" s="16">
         <v>2200</v>
       </c>
@@ -10648,61 +9657,61 @@
       <c r="K57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>352.94117647058823</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>15.510456169259593</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W57" s="20">
-        <v>0</v>
+        <v>352.94117647058823</v>
       </c>
       <c r="X57" s="20">
-        <v>0</v>
+        <v>23.529411764705884</v>
       </c>
       <c r="Y57" s="20">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="26">
-        <v>0</v>
+        <v>0.12700049465224481</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>210.52631578947367</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>123.23125328351587</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD57">
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>352.94117647058823</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>23.529411764705884</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -10765,7 +9774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B58" s="16">
         <v>2300</v>
       </c>
@@ -10785,61 +9794,61 @@
       <c r="K58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>529.41176470588232</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>18.253406994127708</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W58" s="20">
-        <v>0</v>
+        <v>529.41176470588232</v>
       </c>
       <c r="X58" s="20">
-        <v>0</v>
+        <v>25.294117647058822</v>
       </c>
       <c r="Y58" s="20">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="Z58" s="26">
-        <v>0</v>
+        <v>0.13546171346477942</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>315.78947368421052</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>124.85315409095935</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>529.41176470588232</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>25.294117647058822</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -10902,7 +9911,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B59" s="16">
         <v>2400</v>
       </c>
@@ -10922,61 +9931,61 @@
       <c r="K59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>705.88235294117646</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>21.467436053240299</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W59" s="20">
-        <v>0</v>
+        <v>705.88235294117646</v>
       </c>
       <c r="X59" s="20">
-        <v>0</v>
+        <v>27.058823529411764</v>
       </c>
       <c r="Y59" s="20">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Z59" s="26">
-        <v>0</v>
+        <v>0.14472591882086824</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>421.05263157894734</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>126.47895581607899</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>705.88235294117646</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>27.058823529411764</v>
       </c>
       <c r="AG59">
         <v>0</v>
@@ -11039,7 +10048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B60" s="16">
         <v>2500</v>
       </c>
@@ -11059,61 +10068,61 @@
       <c r="K60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>882.35294117647061</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>24.830223236085416</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W60" s="20">
-        <v>0</v>
+        <v>882.35294117647061</v>
       </c>
       <c r="X60" s="20">
-        <v>0</v>
+        <v>28.823529411764707</v>
       </c>
       <c r="Y60" s="20">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="Z60" s="26">
-        <v>0</v>
+        <v>0.1566156688248212</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>526.31578947368416</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>128.10845947778733</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>882.35294117647061</v>
       </c>
       <c r="AF60">
-        <v>0</v>
+        <v>28.823529411764707</v>
       </c>
       <c r="AG60">
         <v>0</v>
@@ -11176,7 +10185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B61" s="16">
         <v>2600</v>
       </c>
@@ -11196,61 +10205,61 @@
       <c r="K61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>27.251385734908684</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W61" s="20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X61" s="20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y61" s="20">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="Z61" s="26">
-        <v>0</v>
+        <v>0.16833970770738149</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>631.57894736842104</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>129.74147587197976</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -11313,7 +10322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B62" s="16">
         <v>2700</v>
       </c>
@@ -11333,61 +10342,61 @@
       <c r="K62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1058.8235294117646</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>28.670805434635128</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>72.772461476460705</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>1058.8235294117646</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>30.564705882352939</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="Z62" s="26">
-        <v>0</v>
+        <v>0.23610457018391723</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>736.8421052631578</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>131.37782540830813</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1058.8235294117646</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>30.564705882352939</v>
       </c>
       <c r="AG62">
         <v>0</v>
@@ -11450,7 +10459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B63" s="16">
         <v>2800</v>
       </c>
@@ -11470,61 +10479,61 @@
       <c r="K63" s="18"/>
       <c r="M63" s="18"/>
       <c r="N63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1235.2941176470588</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>33.158946998733917</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>68.434814984757395</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1235.2941176470588</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>32.238235294117651</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Z63" s="26">
-        <v>0</v>
+        <v>0.28637534517889474</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>842.10526315789468</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>133.01733791998811</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1235.2941176470588</v>
       </c>
       <c r="AF63">
-        <v>0</v>
+        <v>32.238235294117651</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -11587,7 +10596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B64" s="16">
         <v>3000</v>
       </c>
@@ -11601,61 +10610,61 @@
       <c r="G64" s="10"/>
       <c r="M64" s="18"/>
       <c r="N64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>37.992612715695806</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>64.189299205653242</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>33.854705882352938</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="Z64" s="26">
-        <v>0</v>
+        <v>0.31727294870234196</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>947.36842105263156</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>134.6499154047581</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>33.854705882352938</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -11718,67 +10727,67 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="G65" s="10"/>
       <c r="M65" s="18"/>
       <c r="N65">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1588.2352941176471</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>43.083795963353211</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>60.45863949985727</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>1588.2352941176471</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>37.432647058823527</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="Z65" s="26">
-        <v>0</v>
+        <v>0.34648982492483221</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>135.46089549041164</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1588.2352941176471</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>37.432647058823527</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -11841,67 +10850,67 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="G66" s="10"/>
       <c r="M66" s="18"/>
       <c r="N66">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1764.7058823529412</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>48.287453302089368</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>57.155203693041116</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>1764.7058823529412</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>45.433823529411768</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="Z66" s="26">
-        <v>0</v>
+        <v>0.36965547647348079</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>1052.6315789473683</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>136.2470332527046</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1764.7058823529412</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>45.433823529411768</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -11964,64 +10973,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:52" x14ac:dyDescent="0.45">
       <c r="M67" s="18"/>
       <c r="N67">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1941.1764705882354</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>53.503560390921372</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>54.095931416682895</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>1941.1764705882354</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>53.289117647058823</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="Z67" s="26">
-        <v>0</v>
+        <v>0.38902861297657632</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>1157.8947368421052</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>137.80704388795971</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>1941.1764705882354</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>53.289117647058823</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -12084,64 +11093,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:52" x14ac:dyDescent="0.45">
       <c r="M68" s="18"/>
       <c r="N68">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>55.236768886752095</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>110.5</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>51.269700173506124</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="Z68" s="26">
-        <v>0</v>
+        <v>0.40515691493850203</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>139.33827363343198</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AF68">
-        <v>0</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="AG68">
         <v>0</v>
@@ -12204,64 +11213,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:52" x14ac:dyDescent="0.45">
       <c r="M69" s="18"/>
       <c r="N69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>2117.6470588235293</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>61.490470017343213</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>48.590377890729194</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>2117.6470588235293</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>60.807941176470578</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="Z69" s="26">
-        <v>0</v>
+        <v>0.84668844838029877</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>1368.421052631579</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>140.83659460008181</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>2117.6470588235293</v>
       </c>
       <c r="AF69">
-        <v>0</v>
+        <v>60.807941176470578</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -12324,64 +11333,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:52" x14ac:dyDescent="0.45">
       <c r="M70" s="18"/>
       <c r="N70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>2294.1176470588234</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>70.684472717803075</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>182.5</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>46.060654691386475</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>2294.1176470588234</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>67.983823529411765</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="Z70" s="26">
-        <v>0</v>
+        <v>0.86612186746427999</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>1473.6842105263156</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>142.3018285397938</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>2294.1176470588234</v>
       </c>
       <c r="AF70">
-        <v>0</v>
+        <v>67.983823529411765</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -12444,64 +11453,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:52" x14ac:dyDescent="0.45">
       <c r="M71" s="18"/>
       <c r="N71">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>2470.5882352941176</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>79.501376677901632</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U71">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>43.630108867854346</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>2470.5882352941176</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>74.803823529411758</v>
       </c>
       <c r="Y71">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="Z71" s="26">
-        <v>0</v>
+        <v>0.87800797370431849</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1578.9473684210525</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>143.7241242008692</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>2470.5882352941176</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>74.803823529411758</v>
       </c>
       <c r="AG71">
         <v>0</v>
@@ -12564,64 +11573,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:52" x14ac:dyDescent="0.45">
       <c r="M72" s="18"/>
       <c r="N72">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>80.945886009779329</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>272.5</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>41.304333337999893</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>75.92</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="Z72" s="26">
-        <v>0</v>
+        <v>0.94116983779146679</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1684.2105263157894</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>145.06250832150499</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="AD72">
         <v>0</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>75.92</v>
       </c>
       <c r="AG72">
         <v>0</v>
@@ -12684,64 +11693,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:52" x14ac:dyDescent="0.45">
       <c r="M73" s="18"/>
       <c r="N73">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>2647.0588235294117</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>88.668594619404828</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>39.05012253615353</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>2647.0588235294117</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>81.287352941176465</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="Z73" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>1789.4736842105262</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>146.31489401633368</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="AD73">
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>2647.0588235294117</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>81.287352941176465</v>
       </c>
       <c r="AG73">
         <v>0</v>
@@ -12804,7 +11813,245 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>20</v>
+      </c>
+      <c r="O74">
+        <v>2823.5294117647059</v>
+      </c>
+      <c r="P74">
+        <v>95.726144072251415</v>
+      </c>
+      <c r="Q74">
+        <v>2850</v>
+      </c>
+      <c r="R74">
+        <v>395.75</v>
+      </c>
+      <c r="S74">
+        <v>2850</v>
+      </c>
+      <c r="T74">
+        <v>0.125</v>
+      </c>
+      <c r="U74">
+        <v>2850</v>
+      </c>
+      <c r="V74">
+        <v>17.758163906557428</v>
+      </c>
+      <c r="W74">
+        <v>2823.5294117647059</v>
+      </c>
+      <c r="X74">
+        <v>87.039705882352948</v>
+      </c>
+      <c r="Y74">
+        <v>2850</v>
+      </c>
+      <c r="Z74">
+        <v>0.99887684290442402</v>
+      </c>
+      <c r="AA74">
+        <v>1894.7368421052631</v>
+      </c>
+      <c r="AB74">
+        <v>147.49507821348368</v>
+      </c>
+      <c r="AC74">
+        <v>1900</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>2823.5294117647059</v>
+      </c>
+      <c r="AF74">
+        <v>87.039705882352948</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ74" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>21</v>
+      </c>
+      <c r="O75">
+        <v>3000</v>
+      </c>
+      <c r="P75">
+        <v>100</v>
+      </c>
+      <c r="Q75">
+        <v>3000</v>
+      </c>
+      <c r="R75">
+        <v>500</v>
+      </c>
+      <c r="S75">
+        <v>3000</v>
+      </c>
+      <c r="T75">
+        <v>0.125</v>
+      </c>
+      <c r="U75">
+        <v>3000</v>
+      </c>
+      <c r="V75">
+        <v>17.758163906557428</v>
+      </c>
+      <c r="W75">
+        <v>3000</v>
+      </c>
+      <c r="X75">
+        <v>90</v>
+      </c>
+      <c r="Y75">
+        <v>3000</v>
+      </c>
+      <c r="Z75">
+        <v>0.99889955996324753</v>
+      </c>
+      <c r="AA75">
+        <v>2000</v>
+      </c>
+      <c r="AB75">
+        <v>148.6135598900112</v>
+      </c>
+      <c r="AC75">
+        <v>2000</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>3000</v>
+      </c>
+      <c r="AF75">
+        <v>90</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AY75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ75" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="2:52" x14ac:dyDescent="0.45">
       <c r="F78" t="s">
         <v>57</v>
       </c>
@@ -12813,2002 +12060,2002 @@
       </c>
       <c r="N78">
         <f t="array" ref="N78:AM102">[1]!well_pwf_plin_atma(qliq_,fw_,plin_calc_,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm)</f>
-        <v>-1</v>
-      </c>
-      <c r="O78" t="str">
-        <v>error</v>
-      </c>
-      <c r="P78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM78" t="e">
-        <v>#N/A</v>
+        <v>25.021241547779201</v>
+      </c>
+      <c r="O78">
+        <v>25.021241547779201</v>
+      </c>
+      <c r="P78">
+        <v>25.021241547779201</v>
+      </c>
+      <c r="Q78">
+        <v>120</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>134.11105984662103</v>
+      </c>
+      <c r="U78">
+        <v>45</v>
+      </c>
+      <c r="V78">
+        <v>12</v>
+      </c>
+      <c r="W78">
+        <v>23155.296313422827</v>
+      </c>
+      <c r="X78">
+        <v>20</v>
+      </c>
+      <c r="Y78">
+        <v>20</v>
+      </c>
+      <c r="Z78">
+        <v>20</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>12</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="N79">
-        <v>-1</v>
+    <row r="79" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="N79" t="str">
+        <v>p_line_atma</v>
       </c>
       <c r="O79" t="str">
-        <v>error</v>
-      </c>
-      <c r="P79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM79" t="e">
-        <v>#N/A</v>
+        <v>p_line_atma</v>
+      </c>
+      <c r="P79" t="str">
+        <v>p_buf_atma</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>p_cas_atma</v>
+      </c>
+      <c r="R79" t="str">
+        <v>p_dis_atma</v>
+      </c>
+      <c r="S79" t="str">
+        <v>p_int_atma</v>
+      </c>
+      <c r="T79" t="str">
+        <v>p_wf_atma</v>
+      </c>
+      <c r="U79" t="str">
+        <v>qliq_sm3day</v>
+      </c>
+      <c r="V79" t="str">
+        <v>fw_perc</v>
+      </c>
+      <c r="W79" t="str">
+        <v>qgas_sm3day</v>
+      </c>
+      <c r="X79" t="str">
+        <v>t_line_C</v>
+      </c>
+      <c r="Y79" t="str">
+        <v>t_buf_C</v>
+      </c>
+      <c r="Z79" t="str">
+        <v>t_cas_C</v>
+      </c>
+      <c r="AA79" t="str">
+        <v>t_dis_C</v>
+      </c>
+      <c r="AB79" t="str">
+        <v>t_int_C</v>
+      </c>
+      <c r="AC79" t="str">
+        <v>t_wf_C</v>
+      </c>
+      <c r="AD79" t="str">
+        <v>dchoke_mm</v>
+      </c>
+      <c r="AE79" t="str">
+        <v>c_calibr_choke</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:52" x14ac:dyDescent="0.45">
       <c r="N80">
-        <v>-1</v>
-      </c>
-      <c r="O80" t="str">
-        <v>error</v>
-      </c>
-      <c r="P80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM80" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="P80">
+        <v>19987.296313422827</v>
+      </c>
+      <c r="Q80">
+        <v>120</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>125.72184128843936</v>
+      </c>
+      <c r="U80">
+        <v>48.686246849887695</v>
+      </c>
+      <c r="V80">
+        <v>6022.573178537391</v>
+      </c>
+      <c r="W80">
+        <v>3</v>
+      </c>
+      <c r="X80">
+        <v>137.64843768597751</v>
+      </c>
+      <c r="Y80">
+        <v>87.447954179107086</v>
+      </c>
+      <c r="Z80">
+        <v>13964.723134885435</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="str">
-        <v>error</v>
-      </c>
-      <c r="P81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM81" t="e">
-        <v>#N/A</v>
+        <v>GLV.count</v>
+      </c>
+      <c r="P81" t="str">
+        <v>q_gas_inj_sm3day</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>p_gas_inj_atma</v>
+      </c>
+      <c r="R81" t="str">
+        <v>d_gas_inj_mm</v>
+      </c>
+      <c r="S81" t="str">
+        <v>glv1:d_mm</v>
+      </c>
+      <c r="T81" t="str">
+        <v>glv1:p_in_atma</v>
+      </c>
+      <c r="U81" t="str">
+        <v>glv1:p_out_atma</v>
+      </c>
+      <c r="V81" t="str">
+        <v>glv1:q_gas_scm3day</v>
+      </c>
+      <c r="W81" t="str">
+        <v>glv2:d_mm</v>
+      </c>
+      <c r="X81" t="str">
+        <v>glv2:p_in_atma</v>
+      </c>
+      <c r="Y81" t="str">
+        <v>glv2:p_out_atma</v>
+      </c>
+      <c r="Z81" t="str">
+        <v>glv2:q_gas_scm3day</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N82">
-        <v>-1</v>
-      </c>
-      <c r="O82" t="str">
-        <v>error</v>
-      </c>
-      <c r="P82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM82" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>2</v>
+      </c>
+      <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>6</v>
+      </c>
+      <c r="U82">
+        <v>7</v>
+      </c>
+      <c r="V82">
+        <v>8</v>
+      </c>
+      <c r="W82">
+        <v>9</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Y82">
+        <v>11</v>
+      </c>
+      <c r="Z82">
+        <v>12</v>
+      </c>
+      <c r="AA82">
+        <v>13</v>
+      </c>
+      <c r="AB82">
+        <v>14</v>
+      </c>
+      <c r="AC82">
+        <v>15</v>
+      </c>
+      <c r="AD82">
+        <v>16</v>
+      </c>
+      <c r="AE82">
+        <v>17</v>
+      </c>
+      <c r="AF82">
+        <v>18</v>
+      </c>
+      <c r="AG82">
+        <v>19</v>
+      </c>
+      <c r="AH82">
+        <v>20</v>
+      </c>
+      <c r="AI82">
+        <v>21</v>
+      </c>
+      <c r="AJ82">
+        <v>22</v>
+      </c>
+      <c r="AK82">
+        <v>23</v>
+      </c>
+      <c r="AL82">
+        <v>24</v>
+      </c>
+      <c r="AM82">
+        <v>25</v>
       </c>
     </row>
-    <row r="83" spans="14:39" x14ac:dyDescent="0.25">
-      <c r="N83">
-        <v>-1</v>
+    <row r="83" spans="14:39" x14ac:dyDescent="0.45">
+      <c r="N83" t="str">
+        <v>num</v>
       </c>
       <c r="O83" t="str">
-        <v>error</v>
-      </c>
-      <c r="P83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM83" t="e">
-        <v>#N/A</v>
+        <v>hmes ptub</v>
+      </c>
+      <c r="P83" t="str">
+        <v>ptub</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="R83" t="str">
+        <v>h_vert_m</v>
+      </c>
+      <c r="S83" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="T83" t="str">
+        <v>c_Diam</v>
+      </c>
+      <c r="U83" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="V83" t="str">
+        <v>c_Theta</v>
+      </c>
+      <c r="W83" t="str">
+        <v>hmes ttub</v>
+      </c>
+      <c r="X83" t="str">
+        <v>ttub</v>
+      </c>
+      <c r="Y83" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="Z83" t="str">
+        <v>Hl_tub</v>
+      </c>
+      <c r="AA83" t="str">
+        <v>hmes pcas</v>
+      </c>
+      <c r="AB83" t="str">
+        <v>pcas</v>
+      </c>
+      <c r="AC83" t="str">
+        <v>hmes_m</v>
+      </c>
+      <c r="AD83" t="str">
+        <v>Hl_cas</v>
+      </c>
+      <c r="AE83" t="str">
+        <v>hmes tamb</v>
+      </c>
+      <c r="AF83" t="str">
+        <v>tamb</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N84">
-        <v>-1</v>
-      </c>
-      <c r="O84" t="str">
-        <v>error</v>
-      </c>
-      <c r="P84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM84" t="e">
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>25.021241547779201</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>90</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>20</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0.1896381131687748</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>111.8887267746679</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>20</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N85">
-        <v>-1</v>
-      </c>
-      <c r="O85" t="str">
-        <v>error</v>
-      </c>
-      <c r="P85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM85" t="e">
-        <v>#N/A</v>
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>176.47058823529412</v>
+      </c>
+      <c r="P85">
+        <v>28.557613398426088</v>
+      </c>
+      <c r="Q85">
+        <v>150</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>150</v>
+      </c>
+      <c r="T85">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="U85">
+        <v>150</v>
+      </c>
+      <c r="V85">
+        <v>90</v>
+      </c>
+      <c r="W85">
+        <v>176.47058823529412</v>
+      </c>
+      <c r="X85">
+        <v>21.764705882352942</v>
+      </c>
+      <c r="Y85">
+        <v>150</v>
+      </c>
+      <c r="Z85">
+        <v>0.2026781869094777</v>
+      </c>
+      <c r="AA85">
+        <v>105.26315789473684</v>
+      </c>
+      <c r="AB85">
+        <v>113.32832403847758</v>
+      </c>
+      <c r="AC85">
+        <v>100</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>176.47058823529412</v>
+      </c>
+      <c r="AF85">
+        <v>21.764705882352942</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N86">
-        <v>-1</v>
-      </c>
-      <c r="O86" t="str">
-        <v>error</v>
-      </c>
-      <c r="P86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM86" t="e">
-        <v>#N/A</v>
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>352.94117647058823</v>
+      </c>
+      <c r="P86">
+        <v>32.336233685947086</v>
+      </c>
+      <c r="Q86">
+        <v>300</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>300</v>
+      </c>
+      <c r="T86">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="U86">
+        <v>300</v>
+      </c>
+      <c r="V86">
+        <v>90</v>
+      </c>
+      <c r="W86">
+        <v>352.94117647058823</v>
+      </c>
+      <c r="X86">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="Y86">
+        <v>300</v>
+      </c>
+      <c r="Z86">
+        <v>0.21583155340214191</v>
+      </c>
+      <c r="AA86">
+        <v>210.52631578947367</v>
+      </c>
+      <c r="AB86">
+        <v>114.7725878515745</v>
+      </c>
+      <c r="AC86">
+        <v>200</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>352.94117647058823</v>
+      </c>
+      <c r="AF86">
+        <v>23.529411764705884</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N87">
-        <v>-1</v>
-      </c>
-      <c r="O87" t="str">
-        <v>error</v>
-      </c>
-      <c r="P87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM87" t="e">
-        <v>#N/A</v>
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <v>529.41176470588232</v>
+      </c>
+      <c r="P87">
+        <v>36.382143626124204</v>
+      </c>
+      <c r="Q87">
+        <v>450</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>450</v>
+      </c>
+      <c r="T87">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="U87">
+        <v>450</v>
+      </c>
+      <c r="V87">
+        <v>90</v>
+      </c>
+      <c r="W87">
+        <v>529.41176470588232</v>
+      </c>
+      <c r="X87">
+        <v>25.294117647058822</v>
+      </c>
+      <c r="Y87">
+        <v>450</v>
+      </c>
+      <c r="Z87">
+        <v>0.22510678881067375</v>
+      </c>
+      <c r="AA87">
+        <v>315.78947368421052</v>
+      </c>
+      <c r="AB87">
+        <v>116.22138743350642</v>
+      </c>
+      <c r="AC87">
+        <v>300</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>529.41176470588232</v>
+      </c>
+      <c r="AF87">
+        <v>25.294117647058822</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N88">
-        <v>-1</v>
-      </c>
-      <c r="O88" t="str">
-        <v>error</v>
-      </c>
-      <c r="P88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM88" t="e">
-        <v>#N/A</v>
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>705.88235294117646</v>
+      </c>
+      <c r="P88">
+        <v>40.738729971421307</v>
+      </c>
+      <c r="Q88">
+        <v>600</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>600</v>
+      </c>
+      <c r="T88">
+        <v>0.06</v>
+      </c>
+      <c r="U88">
+        <v>600</v>
+      </c>
+      <c r="V88">
+        <v>90</v>
+      </c>
+      <c r="W88">
+        <v>705.88235294117646</v>
+      </c>
+      <c r="X88">
+        <v>27.058823529411764</v>
+      </c>
+      <c r="Y88">
+        <v>600</v>
+      </c>
+      <c r="Z88">
+        <v>0.23438292034613259</v>
+      </c>
+      <c r="AA88">
+        <v>421.05263157894734</v>
+      </c>
+      <c r="AB88">
+        <v>117.67459811619798</v>
+      </c>
+      <c r="AC88">
+        <v>400</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>705.88235294117646</v>
+      </c>
+      <c r="AF88">
+        <v>27.058823529411764</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N89">
-        <v>-1</v>
-      </c>
-      <c r="O89" t="str">
-        <v>error</v>
-      </c>
-      <c r="P89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM89" t="e">
-        <v>#N/A</v>
+        <v>6</v>
+      </c>
+      <c r="O89">
+        <v>882.35294117647061</v>
+      </c>
+      <c r="P89">
+        <v>45.342225687215731</v>
+      </c>
+      <c r="Q89">
+        <v>750</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>750</v>
+      </c>
+      <c r="T89">
+        <v>0.06</v>
+      </c>
+      <c r="U89">
+        <v>750</v>
+      </c>
+      <c r="V89">
+        <v>90</v>
+      </c>
+      <c r="W89">
+        <v>882.35294117647061</v>
+      </c>
+      <c r="X89">
+        <v>28.823529411764707</v>
+      </c>
+      <c r="Y89">
+        <v>750</v>
+      </c>
+      <c r="Z89">
+        <v>0.24765220204626431</v>
+      </c>
+      <c r="AA89">
+        <v>526.31578947368416</v>
+      </c>
+      <c r="AB89">
+        <v>119.1321012070093</v>
+      </c>
+      <c r="AC89">
+        <v>500</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>882.35294117647061</v>
+      </c>
+      <c r="AF89">
+        <v>28.823529411764707</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N90">
-        <v>-1</v>
-      </c>
-      <c r="O90" t="str">
-        <v>error</v>
-      </c>
-      <c r="P90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM90" t="e">
-        <v>#N/A</v>
+        <v>7</v>
+      </c>
+      <c r="O90">
+        <v>1000</v>
+      </c>
+      <c r="P90">
+        <v>48.686246849887695</v>
+      </c>
+      <c r="Q90">
+        <v>900</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>900</v>
+      </c>
+      <c r="T90">
+        <v>0.06</v>
+      </c>
+      <c r="U90">
+        <v>900</v>
+      </c>
+      <c r="V90">
+        <v>90</v>
+      </c>
+      <c r="W90">
+        <v>1000</v>
+      </c>
+      <c r="X90">
+        <v>30</v>
+      </c>
+      <c r="Y90">
+        <v>900</v>
+      </c>
+      <c r="Z90">
+        <v>0.26092256697785593</v>
+      </c>
+      <c r="AA90">
+        <v>631.57894736842104</v>
+      </c>
+      <c r="AB90">
+        <v>120.59378383483501</v>
+      </c>
+      <c r="AC90">
+        <v>600</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>1000</v>
+      </c>
+      <c r="AF90">
+        <v>30</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N91">
-        <v>-1</v>
-      </c>
-      <c r="O91" t="str">
-        <v>error</v>
-      </c>
-      <c r="P91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM91" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="O91">
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="P91">
+        <v>50.762837949554338</v>
+      </c>
+      <c r="Q91">
+        <v>1050</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1050</v>
+      </c>
+      <c r="T91">
+        <v>0.06</v>
+      </c>
+      <c r="U91">
+        <v>1050</v>
+      </c>
+      <c r="V91">
+        <v>72.772461476460705</v>
+      </c>
+      <c r="W91">
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="X91">
+        <v>30.564705882352939</v>
+      </c>
+      <c r="Y91">
+        <v>1050</v>
+      </c>
+      <c r="Z91">
+        <v>0.3629113883754268</v>
+      </c>
+      <c r="AA91">
+        <v>736.8421052631578</v>
+      </c>
+      <c r="AB91">
+        <v>122.05953878111112</v>
+      </c>
+      <c r="AC91">
+        <v>700</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="AF91">
+        <v>30.564705882352939</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N92">
-        <v>-1</v>
-      </c>
-      <c r="O92" t="str">
-        <v>error</v>
-      </c>
-      <c r="P92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM92" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="O92">
+        <v>1235.2941176470588</v>
+      </c>
+      <c r="P92">
+        <v>57.229614367629495</v>
+      </c>
+      <c r="Q92">
+        <v>1200</v>
+      </c>
+      <c r="R92">
+        <v>9</v>
+      </c>
+      <c r="S92">
+        <v>1200</v>
+      </c>
+      <c r="T92">
+        <v>0.06</v>
+      </c>
+      <c r="U92">
+        <v>1200</v>
+      </c>
+      <c r="V92">
+        <v>68.434814984757395</v>
+      </c>
+      <c r="W92">
+        <v>1235.2941176470588</v>
+      </c>
+      <c r="X92">
+        <v>32.238235294117651</v>
+      </c>
+      <c r="Y92">
+        <v>1200</v>
+      </c>
+      <c r="Z92">
+        <v>0.43235396499011924</v>
+      </c>
+      <c r="AA92">
+        <v>842.10526315789468</v>
+      </c>
+      <c r="AB92">
+        <v>123.52926429753686</v>
+      </c>
+      <c r="AC92">
+        <v>800</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>1235.2941176470588</v>
+      </c>
+      <c r="AF92">
+        <v>32.238235294117651</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N93">
-        <v>-1</v>
-      </c>
-      <c r="O93" t="str">
-        <v>error</v>
-      </c>
-      <c r="P93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM93" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>1411.7647058823529</v>
+      </c>
+      <c r="P93">
+        <v>64.052015983618418</v>
+      </c>
+      <c r="Q93">
+        <v>1350</v>
+      </c>
+      <c r="R93">
+        <v>20.5</v>
+      </c>
+      <c r="S93">
+        <v>1350</v>
+      </c>
+      <c r="T93">
+        <v>0.06</v>
+      </c>
+      <c r="U93">
+        <v>1350</v>
+      </c>
+      <c r="V93">
+        <v>64.189299205653242</v>
+      </c>
+      <c r="W93">
+        <v>1411.7647058823529</v>
+      </c>
+      <c r="X93">
+        <v>33.854705882352938</v>
+      </c>
+      <c r="Y93">
+        <v>1350</v>
+      </c>
+      <c r="Z93">
+        <v>0.47043371595894051</v>
+      </c>
+      <c r="AA93">
+        <v>947.36842105263156</v>
+      </c>
+      <c r="AB93">
+        <v>124.99394741762089</v>
+      </c>
+      <c r="AC93">
+        <v>900</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>1411.7647058823529</v>
+      </c>
+      <c r="AF93">
+        <v>33.854705882352938</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N94">
-        <v>-1</v>
-      </c>
-      <c r="O94" t="str">
-        <v>error</v>
-      </c>
-      <c r="P94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM94" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>1588.2352941176471</v>
+      </c>
+      <c r="P94">
+        <v>71.108231978103845</v>
+      </c>
+      <c r="Q94">
+        <v>1500</v>
+      </c>
+      <c r="R94">
+        <v>36</v>
+      </c>
+      <c r="S94">
+        <v>1500</v>
+      </c>
+      <c r="T94">
+        <v>0.06</v>
+      </c>
+      <c r="U94">
+        <v>1500</v>
+      </c>
+      <c r="V94">
+        <v>60.45863949985727</v>
+      </c>
+      <c r="W94">
+        <v>1588.2352941176471</v>
+      </c>
+      <c r="X94">
+        <v>37.432647058823527</v>
+      </c>
+      <c r="Y94">
+        <v>1500</v>
+      </c>
+      <c r="Z94">
+        <v>0.50482013510258839</v>
+      </c>
+      <c r="AA94">
+        <v>1000</v>
+      </c>
+      <c r="AB94">
+        <v>125.72184128843936</v>
+      </c>
+      <c r="AC94">
+        <v>1000</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>1588.2352941176471</v>
+      </c>
+      <c r="AF94">
+        <v>37.432647058823527</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N95">
-        <v>-1</v>
-      </c>
-      <c r="O95" t="str">
-        <v>error</v>
-      </c>
-      <c r="P95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM95" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="O95">
+        <v>1764.7058823529412</v>
+      </c>
+      <c r="P95">
+        <v>78.184372437645905</v>
+      </c>
+      <c r="Q95">
+        <v>1650</v>
+      </c>
+      <c r="R95">
+        <v>56.5</v>
+      </c>
+      <c r="S95">
+        <v>1650</v>
+      </c>
+      <c r="T95">
+        <v>0.06</v>
+      </c>
+      <c r="U95">
+        <v>1650</v>
+      </c>
+      <c r="V95">
+        <v>57.155203693041116</v>
+      </c>
+      <c r="W95">
+        <v>1764.7058823529412</v>
+      </c>
+      <c r="X95">
+        <v>45.433823529411768</v>
+      </c>
+      <c r="Y95">
+        <v>1650</v>
+      </c>
+      <c r="Z95">
+        <v>0.52926362882775602</v>
+      </c>
+      <c r="AA95">
+        <v>1052.6315789473683</v>
+      </c>
+      <c r="AB95">
+        <v>126.42801044768923</v>
+      </c>
+      <c r="AC95">
+        <v>1100</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>1764.7058823529412</v>
+      </c>
+      <c r="AF95">
+        <v>45.433823529411768</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N96">
-        <v>-1</v>
-      </c>
-      <c r="O96" t="str">
-        <v>error</v>
-      </c>
-      <c r="P96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM96" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="O96">
+        <v>1941.1764705882354</v>
+      </c>
+      <c r="P96">
+        <v>85.153772276348533</v>
+      </c>
+      <c r="Q96">
+        <v>1800</v>
+      </c>
+      <c r="R96">
+        <v>81</v>
+      </c>
+      <c r="S96">
+        <v>1800</v>
+      </c>
+      <c r="T96">
+        <v>0.06</v>
+      </c>
+      <c r="U96">
+        <v>1800</v>
+      </c>
+      <c r="V96">
+        <v>54.095931416682895</v>
+      </c>
+      <c r="W96">
+        <v>1941.1764705882354</v>
+      </c>
+      <c r="X96">
+        <v>53.289117647058823</v>
+      </c>
+      <c r="Y96">
+        <v>1800</v>
+      </c>
+      <c r="Z96">
+        <v>0.54797249274747029</v>
+      </c>
+      <c r="AA96">
+        <v>1157.8947368421052</v>
+      </c>
+      <c r="AB96">
+        <v>127.82994275845719</v>
+      </c>
+      <c r="AC96">
+        <v>1200</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>1941.1764705882354</v>
+      </c>
+      <c r="AF96">
+        <v>53.289117647058823</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N97">
-        <v>-1</v>
-      </c>
-      <c r="O97" t="str">
-        <v>error</v>
-      </c>
-      <c r="P97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM97" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="O97">
+        <v>2000</v>
+      </c>
+      <c r="P97">
+        <v>87.447954179107086</v>
+      </c>
+      <c r="Q97">
+        <v>1950</v>
+      </c>
+      <c r="R97">
+        <v>110.5</v>
+      </c>
+      <c r="S97">
+        <v>1950</v>
+      </c>
+      <c r="T97">
+        <v>0.06</v>
+      </c>
+      <c r="U97">
+        <v>1950</v>
+      </c>
+      <c r="V97">
+        <v>51.269700173506124</v>
+      </c>
+      <c r="W97">
+        <v>2000</v>
+      </c>
+      <c r="X97">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="Y97">
+        <v>1950</v>
+      </c>
+      <c r="Z97">
+        <v>0.56219560190957596</v>
+      </c>
+      <c r="AA97">
+        <v>1263.1578947368421</v>
+      </c>
+      <c r="AB97">
+        <v>129.20717215179994</v>
+      </c>
+      <c r="AC97">
+        <v>1300</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>2000</v>
+      </c>
+      <c r="AF97">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N98">
-        <v>-1</v>
-      </c>
-      <c r="O98" t="str">
-        <v>error</v>
-      </c>
-      <c r="P98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM98" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="O98">
+        <v>2117.6470588235293</v>
+      </c>
+      <c r="P98">
+        <v>94.194457646307399</v>
+      </c>
+      <c r="Q98">
+        <v>2100</v>
+      </c>
+      <c r="R98">
+        <v>144</v>
+      </c>
+      <c r="S98">
+        <v>2100</v>
+      </c>
+      <c r="T98">
+        <v>0.06</v>
+      </c>
+      <c r="U98">
+        <v>2100</v>
+      </c>
+      <c r="V98">
+        <v>48.590377890729194</v>
+      </c>
+      <c r="W98">
+        <v>2117.6470588235293</v>
+      </c>
+      <c r="X98">
+        <v>60.807941176470578</v>
+      </c>
+      <c r="Y98">
+        <v>2100</v>
+      </c>
+      <c r="Z98">
+        <v>0.92317979156990493</v>
+      </c>
+      <c r="AA98">
+        <v>1368.421052631579</v>
+      </c>
+      <c r="AB98">
+        <v>130.55594766040869</v>
+      </c>
+      <c r="AC98">
+        <v>1400</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>2117.6470588235293</v>
+      </c>
+      <c r="AF98">
+        <v>60.807941176470578</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N99">
-        <v>-1</v>
-      </c>
-      <c r="O99" t="str">
-        <v>error</v>
-      </c>
-      <c r="P99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM99" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="O99">
+        <v>2294.1176470588234</v>
+      </c>
+      <c r="P99">
+        <v>104.0543111390126</v>
+      </c>
+      <c r="Q99">
+        <v>2250</v>
+      </c>
+      <c r="R99">
+        <v>182.5</v>
+      </c>
+      <c r="S99">
+        <v>2250</v>
+      </c>
+      <c r="T99">
+        <v>0.06</v>
+      </c>
+      <c r="U99">
+        <v>2250</v>
+      </c>
+      <c r="V99">
+        <v>46.060654691386475</v>
+      </c>
+      <c r="W99">
+        <v>2294.1176470588234</v>
+      </c>
+      <c r="X99">
+        <v>67.983823529411765</v>
+      </c>
+      <c r="Y99">
+        <v>2250</v>
+      </c>
+      <c r="Z99">
+        <v>0.95496721644428306</v>
+      </c>
+      <c r="AA99">
+        <v>1473.6842105263156</v>
+      </c>
+      <c r="AB99">
+        <v>131.87605524978204</v>
+      </c>
+      <c r="AC99">
+        <v>1500</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>2294.1176470588234</v>
+      </c>
+      <c r="AF99">
+        <v>67.983823529411765</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N100">
-        <v>-1</v>
-      </c>
-      <c r="O100" t="str">
-        <v>error</v>
-      </c>
-      <c r="P100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM100" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="O100">
+        <v>2470.5882352941176</v>
+      </c>
+      <c r="P100">
+        <v>113.67003516776805</v>
+      </c>
+      <c r="Q100">
+        <v>2400</v>
+      </c>
+      <c r="R100">
+        <v>225</v>
+      </c>
+      <c r="S100">
+        <v>2400</v>
+      </c>
+      <c r="T100">
+        <v>0.06</v>
+      </c>
+      <c r="U100">
+        <v>2400</v>
+      </c>
+      <c r="V100">
+        <v>43.630108867854346</v>
+      </c>
+      <c r="W100">
+        <v>2470.5882352941176</v>
+      </c>
+      <c r="X100">
+        <v>74.803823529411758</v>
+      </c>
+      <c r="Y100">
+        <v>2400</v>
+      </c>
+      <c r="Z100">
+        <v>0.98583855858023561</v>
+      </c>
+      <c r="AA100">
+        <v>1578.9473684210525</v>
+      </c>
+      <c r="AB100">
+        <v>133.16006179830242</v>
+      </c>
+      <c r="AC100">
+        <v>1600</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>2470.5882352941176</v>
+      </c>
+      <c r="AF100">
+        <v>74.803823529411758</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N101">
-        <v>-1</v>
-      </c>
-      <c r="O101" t="str">
-        <v>error</v>
-      </c>
-      <c r="P101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM101" t="e">
-        <v>#N/A</v>
+        <v>18</v>
+      </c>
+      <c r="O101">
+        <v>2500</v>
+      </c>
+      <c r="P101">
+        <v>115.25627828085527</v>
+      </c>
+      <c r="Q101">
+        <v>2550</v>
+      </c>
+      <c r="R101">
+        <v>272.5</v>
+      </c>
+      <c r="S101">
+        <v>2550</v>
+      </c>
+      <c r="T101">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="U101">
+        <v>2550</v>
+      </c>
+      <c r="V101">
+        <v>41.304333337999893</v>
+      </c>
+      <c r="W101">
+        <v>2500</v>
+      </c>
+      <c r="X101">
+        <v>75.92</v>
+      </c>
+      <c r="Y101">
+        <v>2550</v>
+      </c>
+      <c r="Z101">
+        <v>1</v>
+      </c>
+      <c r="AA101">
+        <v>1684.2105263157894</v>
+      </c>
+      <c r="AB101">
+        <v>134.37709312735603</v>
+      </c>
+      <c r="AC101">
+        <v>1700</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>2500</v>
+      </c>
+      <c r="AF101">
+        <v>75.92</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="14:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:39" x14ac:dyDescent="0.45">
       <c r="N102">
-        <v>-1</v>
-      </c>
-      <c r="O102" t="str">
-        <v>error</v>
-      </c>
-      <c r="P102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AG102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM102" t="e">
-        <v>#N/A</v>
+        <v>19</v>
+      </c>
+      <c r="O102">
+        <v>2647.0588235294117</v>
+      </c>
+      <c r="P102">
+        <v>122.87625119863851</v>
+      </c>
+      <c r="Q102">
+        <v>2700</v>
+      </c>
+      <c r="R102">
+        <v>324</v>
+      </c>
+      <c r="S102">
+        <v>2700</v>
+      </c>
+      <c r="T102">
+        <v>0.125</v>
+      </c>
+      <c r="U102">
+        <v>2700</v>
+      </c>
+      <c r="V102">
+        <v>39.05012253615353</v>
+      </c>
+      <c r="W102">
+        <v>2647.0588235294117</v>
+      </c>
+      <c r="X102">
+        <v>81.287352941176465</v>
+      </c>
+      <c r="Y102">
+        <v>2700</v>
+      </c>
+      <c r="Z102">
+        <v>1</v>
+      </c>
+      <c r="AA102">
+        <v>1789.4736842105262</v>
+      </c>
+      <c r="AB102">
+        <v>135.5248491992995</v>
+      </c>
+      <c r="AC102">
+        <v>1800</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>2647.0588235294117</v>
+      </c>
+      <c r="AF102">
+        <v>81.287352941176465</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exercises/excercises/ex130.MF_well_new.xlsx
+++ b/exercises/excercises/ex130.MF_well_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A752DC-388F-4BE7-A2A6-66AB19832806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD8B7B3-B8AD-4C28-9978-C40C3343A458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="482" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="well1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <definedName name="muob_" localSheetId="0">well1!$C$15</definedName>
     <definedName name="Pb_" localSheetId="0">well1!$C$12</definedName>
     <definedName name="Pcalc_">well1!$C$23</definedName>
+    <definedName name="pgas_inj_">well1!$G$19</definedName>
     <definedName name="plin_calc_">well1!$G$78</definedName>
     <definedName name="PVTstr_">well1!$C$28</definedName>
     <definedName name="qgas_inj_">well1!$G$18</definedName>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Упражнения по работе с макросами Unifloc VBA</t>
   </si>
@@ -723,6 +724,12 @@
   <si>
     <t>dgl</t>
   </si>
+  <si>
+    <t>q_glv</t>
+  </si>
+  <si>
+    <t>p_glv</t>
+  </si>
 </sst>
 </file>
 
@@ -1042,43 +1049,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10.674381172177998</c:v>
+                  <c:v>10.674381172192323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.020313688307224</c:v>
+                  <c:v>13.020313688321865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.510456169259593</c:v>
+                  <c:v>15.510456169274324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.253406994127708</c:v>
+                  <c:v>18.25340699414242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.467436053240299</c:v>
+                  <c:v>21.467436053255192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.830223236085416</c:v>
+                  <c:v>24.830223236100196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.251385734908684</c:v>
+                  <c:v>27.251385734923169</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.670805434635128</c:v>
+                  <c:v>28.670805434649125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.158946998733917</c:v>
+                  <c:v>33.158946998746053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.992612715695806</c:v>
+                  <c:v>37.992612715705725</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.083795963353211</c:v>
+                  <c:v>43.083795963360473</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.287453302089368</c:v>
+                  <c:v>48.287453302093645</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.503560390921372</c:v>
+                  <c:v>53.503560390922466</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>55.236768886752095</c:v>
@@ -1220,67 +1227,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>119.99999999980091</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.61346228538</c:v>
+                  <c:v>121.61346228558365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.23125328351587</c:v>
+                  <c:v>123.23125328372409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.85315409095935</c:v>
+                  <c:v>124.85315409117209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>126.47895581607899</c:v>
+                  <c:v>126.47895581629626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.10845947778733</c:v>
+                  <c:v>128.10845947800911</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129.74147587197976</c:v>
+                  <c:v>129.74147587220602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131.37782540830813</c:v>
+                  <c:v>131.37782540853885</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133.01733791998811</c:v>
+                  <c:v>133.01733792022324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134.6499154047581</c:v>
+                  <c:v>134.64991540499761</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135.46089549041164</c:v>
+                  <c:v>135.46089549065334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>136.2470332527046</c:v>
+                  <c:v>136.2470332529484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>137.80704388795971</c:v>
+                  <c:v>137.80704388820766</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.33827363343198</c:v>
+                  <c:v>139.33827363368403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140.83659460008181</c:v>
+                  <c:v>140.83659460033778</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>142.3018285397938</c:v>
+                  <c:v>142.30182854005355</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>143.7241242008692</c:v>
+                  <c:v>143.72412420113264</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.06250832150499</c:v>
+                  <c:v>145.06250832177159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146.31489401633368</c:v>
+                  <c:v>146.31489401660301</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147.49507821348368</c:v>
+                  <c:v>147.49507821375533</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148.6135598900112</c:v>
+                  <c:v>148.61355989028496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2191,46 +2198,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.10483485463041342</c:v>
+                  <c:v>0.10483485463040422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11599601314554261</c:v>
+                  <c:v>0.11599601314551963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12700049465224481</c:v>
+                  <c:v>0.12700049465220811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13546171346477942</c:v>
+                  <c:v>0.13546171346472974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14472591882086824</c:v>
+                  <c:v>0.14472591882080607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1566156688248212</c:v>
+                  <c:v>0.15661566882474565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16833970770738149</c:v>
+                  <c:v>0.16833970770729242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23610457018391723</c:v>
+                  <c:v>0.23610457018377881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28637534517889474</c:v>
+                  <c:v>0.28637534517871643</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31727294870234196</c:v>
+                  <c:v>0.31727294870212691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34648982492483221</c:v>
+                  <c:v>0.34648982492458164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36965547647348079</c:v>
+                  <c:v>0.36965547647319885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38902861297657632</c:v>
+                  <c:v>0.38902861297626667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40515691493850203</c:v>
+                  <c:v>0.40515691493816913</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.84668844838029877</c:v>
@@ -3016,61 +3023,61 @@
                   <c:v>ptub</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25,02124155</c:v>
+                  <c:v>25,00444014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28,5576134</c:v>
+                  <c:v>28,4283599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32,33623369</c:v>
+                  <c:v>32,07645964</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36,38214363</c:v>
+                  <c:v>35,98022607</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40,73872997</c:v>
+                  <c:v>40,19924506</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45,34222569</c:v>
+                  <c:v>44,64652439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48,68624685</c:v>
+                  <c:v>47,8663883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50,76283795</c:v>
+                  <c:v>49,85421019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57,22961437</c:v>
+                  <c:v>56,04111491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64,05201598</c:v>
+                  <c:v>62,56379477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71,10823198</c:v>
+                  <c:v>69,30944214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78,18437244</c:v>
+                  <c:v>76,07619478</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85,15377228</c:v>
+                  <c:v>82,74427652</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87,44795418</c:v>
+                  <c:v>84,94003217</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94,19445765</c:v>
+                  <c:v>91,69152571</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104,0543111</c:v>
+                  <c:v>101,4564712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113,6700352</c:v>
+                  <c:v>110,9667659</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115,2562783</c:v>
+                  <c:v>112,536285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>122,8762512</c:v>
+                  <c:v>120,1526414</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3181,61 +3188,61 @@
                   <c:v>pcas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111,8887268</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113,328324</c:v>
+                  <c:v>121,6134623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114,7725879</c:v>
+                  <c:v>123,2312533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116,2213874</c:v>
+                  <c:v>124,8531541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117,6745981</c:v>
+                  <c:v>126,4789558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>119,1321012</c:v>
+                  <c:v>128,1084595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120,5937838</c:v>
+                  <c:v>129,7414759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122,0595388</c:v>
+                  <c:v>131,3778254</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123,5292643</c:v>
+                  <c:v>133,0173379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124,9939474</c:v>
+                  <c:v>134,6499154</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>125,7218413</c:v>
+                  <c:v>135,4608955</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>126,4280104</c:v>
+                  <c:v>136,2470333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>127,8299428</c:v>
+                  <c:v>137,8070439</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>129,2071722</c:v>
+                  <c:v>139,3382736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>130,5559477</c:v>
+                  <c:v>140,8365946</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>131,8760552</c:v>
+                  <c:v>142,3018285</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133,1600618</c:v>
+                  <c:v>143,7241242</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134,3770931</c:v>
+                  <c:v>145,0625083</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>135,5248492</c:v>
+                  <c:v>146,314894</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7696,30 +7703,30 @@
   <sheetPr codeName="Worksheet_well1"/>
   <dimension ref="A1:AZ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.1328125" customWidth="1"/>
-    <col min="27" max="27" width="9.53125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="13.1328125" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13.140625" customWidth="1"/>
     <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="39" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7731,17 +7738,17 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -7757,7 +7764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -7773,7 +7780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -7807,7 +7814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -7825,7 +7832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -7843,7 +7850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -7861,7 +7868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -7872,7 +7879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
@@ -7883,12 +7890,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="15.4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
@@ -7905,7 +7912,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -7915,20 +7922,26 @@
       <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>71</v>
       </c>
       <c r="H18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="10"/>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
@@ -7939,7 +7952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
@@ -7950,7 +7963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
@@ -7961,7 +7974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
@@ -7978,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
@@ -7989,7 +8002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
@@ -8000,7 +8013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
@@ -8011,7 +8024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
@@ -8042,7 +8055,7 @@
       <c r="X28" s="22"/>
       <c r="Y28" s="22"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>58</v>
       </c>
@@ -8089,13 +8102,13 @@
       <c r="AN29" s="23"/>
       <c r="AO29" s="23"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="24" t="str">
-        <f>[1]!GL_encode_string(qgas_inj_,,d_gl_,M35:M38,N35:N38,O35:O38)</f>
-        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:0,00000;d_gas_inj_mm:5,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
+        <f>[1]!GL_encode_string(qgas_inj_,pgas_inj_,d_gl_,M35:M38,N35:N38,O35:O38)</f>
+        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:120,00000;d_gas_inj_mm:5,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -8115,13 +8128,13 @@
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="25" t="str">
         <f>IF(ALsel,ESP_,GLV_)</f>
-        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:0,00000;d_gas_inj_mm:5,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
+        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:120,00000;d_gas_inj_mm:5,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -8162,7 +8175,7 @@
       <c r="AN31" s="25"/>
       <c r="AO31" s="25"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>39</v>
       </c>
@@ -8181,7 +8194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>40</v>
       </c>
@@ -8213,7 +8226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>41</v>
       </c>
@@ -8245,7 +8258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>43</v>
       </c>
@@ -8271,7 +8284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>44</v>
       </c>
@@ -8290,7 +8303,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>45</v>
       </c>
@@ -8302,15 +8315,15 @@
       </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="G39" s="10"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>46</v>
       </c>
@@ -8327,7 +8340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:26" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B42" s="17" t="s">
         <v>50</v>
       </c>
@@ -8358,7 +8371,7 @@
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>28</v>
       </c>
@@ -8389,7 +8402,7 @@
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="16">
         <v>0</v>
       </c>
@@ -8424,7 +8437,7 @@
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="16">
         <v>1000</v>
       </c>
@@ -8459,7 +8472,7 @@
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="16">
         <v>1100</v>
       </c>
@@ -8494,7 +8507,7 @@
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="16">
         <v>1200</v>
       </c>
@@ -8517,7 +8530,7 @@
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="16">
         <v>1300</v>
       </c>
@@ -8540,7 +8553,7 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
     </row>
-    <row r="49" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B49" s="16">
         <v>1400</v>
       </c>
@@ -8561,13 +8574,13 @@
       <c r="M49" s="18"/>
       <c r="N49" s="27">
         <f t="array" ref="N49:AZ75">[1]!well_plin_pwf_atma(qliq_,fw_,C24,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm,C26,,,,Qinj_)</f>
-        <v>9.5694159336517597</v>
+        <v>9.569415933664601</v>
       </c>
       <c r="O49" s="27">
-        <v>9.5694159336517597</v>
+        <v>9.569415933664601</v>
       </c>
       <c r="P49" s="27">
-        <v>10.674381172177998</v>
+        <v>10.674381172192323</v>
       </c>
       <c r="Q49" s="27">
         <v>120</v>
@@ -8588,7 +8601,7 @@
         <v>12</v>
       </c>
       <c r="W49" s="20">
-        <v>26033.586295782883</v>
+        <v>26033.586295822781</v>
       </c>
       <c r="X49" s="20">
         <v>20</v>
@@ -8678,7 +8691,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B50" s="16">
         <v>1500</v>
       </c>
@@ -8815,7 +8828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B51" s="16">
         <v>1600</v>
       </c>
@@ -8841,7 +8854,7 @@
         <v>2</v>
       </c>
       <c r="P51">
-        <v>21865.586295782883</v>
+        <v>21865.586295822781</v>
       </c>
       <c r="Q51">
         <v>120</v>
@@ -8850,37 +8863,37 @@
         <v>5</v>
       </c>
       <c r="S51">
+        <v>120</v>
+      </c>
+      <c r="T51">
         <v>2</v>
       </c>
-      <c r="T51">
-        <v>135.46089549041164</v>
-      </c>
       <c r="U51">
-        <v>27.251385734908684</v>
+        <v>135.46089549065334</v>
       </c>
       <c r="V51">
-        <v>6489.1123734776866</v>
+        <v>27.251385734923169</v>
       </c>
       <c r="W51" s="26">
+        <v>6489.1123734892644</v>
+      </c>
+      <c r="X51" s="26">
+        <v>30</v>
+      </c>
+      <c r="Y51" s="26">
         <v>3</v>
       </c>
-      <c r="X51" s="26">
-        <v>148.6135598900112</v>
-      </c>
-      <c r="Y51" s="26">
+      <c r="Z51" s="20">
+        <v>148.61355989028496</v>
+      </c>
+      <c r="AA51">
         <v>55.236768886752095</v>
       </c>
-      <c r="Z51" s="20">
-        <v>15376.473922305197</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
       <c r="AB51">
-        <v>0</v>
+        <v>15376.473922333518</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -8952,7 +8965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:52" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:52" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="16">
         <v>1700</v>
       </c>
@@ -8987,37 +9000,37 @@
         <v>d_gas_inj_mm</v>
       </c>
       <c r="S52" s="10" t="str">
+        <v>p_gas_cas_inj_atma</v>
+      </c>
+      <c r="T52" s="10" t="str">
         <v>glv1:d_mm</v>
       </c>
-      <c r="T52" s="10" t="str">
+      <c r="U52" s="10" t="str">
         <v>glv1:p_in_atma</v>
       </c>
-      <c r="U52" s="10" t="str">
+      <c r="V52" s="10" t="str">
         <v>glv1:p_out_atma</v>
       </c>
-      <c r="V52" s="10" t="str">
+      <c r="W52" s="28" t="str">
         <v>glv1:q_gas_scm3day</v>
       </c>
-      <c r="W52" s="28" t="str">
+      <c r="X52" s="28" t="str">
+        <v>glv1:t_C</v>
+      </c>
+      <c r="Y52" s="28" t="str">
         <v>glv2:d_mm</v>
       </c>
-      <c r="X52" s="28" t="str">
+      <c r="Z52" s="28" t="str">
         <v>glv2:p_in_atma</v>
       </c>
-      <c r="Y52" s="28" t="str">
+      <c r="AA52" s="10" t="str">
         <v>glv2:p_out_atma</v>
       </c>
-      <c r="Z52" s="28" t="str">
+      <c r="AB52" s="10" t="str">
         <v>glv2:q_gas_scm3day</v>
       </c>
-      <c r="AA52" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="10">
-        <v>0</v>
+      <c r="AC52" s="10" t="str">
+        <v>glv2:t_C</v>
       </c>
       <c r="AD52" s="10">
         <v>0</v>
@@ -9089,7 +9102,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B53" s="16">
         <v>1800</v>
       </c>
@@ -9226,7 +9239,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B54" s="16">
         <v>1900</v>
       </c>
@@ -9363,7 +9376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B55" s="16">
         <v>2000</v>
       </c>
@@ -9389,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>10.674381172177998</v>
+        <v>10.674381172192323</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -9419,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="Z55" s="26">
-        <v>0.10483485463041342</v>
+        <v>0.10483485463040422</v>
       </c>
       <c r="AA55">
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>119.99999999980091</v>
+        <v>120</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -9500,7 +9513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B56" s="16">
         <v>2100</v>
       </c>
@@ -9526,7 +9539,7 @@
         <v>176.47058823529412</v>
       </c>
       <c r="P56">
-        <v>13.020313688307224</v>
+        <v>13.020313688321865</v>
       </c>
       <c r="Q56">
         <v>150</v>
@@ -9556,13 +9569,13 @@
         <v>150</v>
       </c>
       <c r="Z56" s="26">
-        <v>0.11599601314554261</v>
+        <v>0.11599601314551963</v>
       </c>
       <c r="AA56">
         <v>105.26315789473684</v>
       </c>
       <c r="AB56">
-        <v>121.61346228538</v>
+        <v>121.61346228558365</v>
       </c>
       <c r="AC56">
         <v>100</v>
@@ -9637,7 +9650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B57" s="16">
         <v>2200</v>
       </c>
@@ -9663,7 +9676,7 @@
         <v>352.94117647058823</v>
       </c>
       <c r="P57">
-        <v>15.510456169259593</v>
+        <v>15.510456169274324</v>
       </c>
       <c r="Q57">
         <v>300</v>
@@ -9693,13 +9706,13 @@
         <v>300</v>
       </c>
       <c r="Z57" s="26">
-        <v>0.12700049465224481</v>
+        <v>0.12700049465220811</v>
       </c>
       <c r="AA57">
         <v>210.52631578947367</v>
       </c>
       <c r="AB57">
-        <v>123.23125328351587</v>
+        <v>123.23125328372409</v>
       </c>
       <c r="AC57">
         <v>200</v>
@@ -9774,7 +9787,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B58" s="16">
         <v>2300</v>
       </c>
@@ -9800,7 +9813,7 @@
         <v>529.41176470588232</v>
       </c>
       <c r="P58">
-        <v>18.253406994127708</v>
+        <v>18.25340699414242</v>
       </c>
       <c r="Q58">
         <v>450</v>
@@ -9830,13 +9843,13 @@
         <v>450</v>
       </c>
       <c r="Z58" s="26">
-        <v>0.13546171346477942</v>
+        <v>0.13546171346472974</v>
       </c>
       <c r="AA58">
         <v>315.78947368421052</v>
       </c>
       <c r="AB58">
-        <v>124.85315409095935</v>
+        <v>124.85315409117209</v>
       </c>
       <c r="AC58">
         <v>300</v>
@@ -9911,7 +9924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B59" s="16">
         <v>2400</v>
       </c>
@@ -9937,7 +9950,7 @@
         <v>705.88235294117646</v>
       </c>
       <c r="P59">
-        <v>21.467436053240299</v>
+        <v>21.467436053255192</v>
       </c>
       <c r="Q59">
         <v>600</v>
@@ -9967,13 +9980,13 @@
         <v>600</v>
       </c>
       <c r="Z59" s="26">
-        <v>0.14472591882086824</v>
+        <v>0.14472591882080607</v>
       </c>
       <c r="AA59">
         <v>421.05263157894734</v>
       </c>
       <c r="AB59">
-        <v>126.47895581607899</v>
+        <v>126.47895581629626</v>
       </c>
       <c r="AC59">
         <v>400</v>
@@ -10048,7 +10061,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B60" s="16">
         <v>2500</v>
       </c>
@@ -10074,7 +10087,7 @@
         <v>882.35294117647061</v>
       </c>
       <c r="P60">
-        <v>24.830223236085416</v>
+        <v>24.830223236100196</v>
       </c>
       <c r="Q60">
         <v>750</v>
@@ -10104,13 +10117,13 @@
         <v>750</v>
       </c>
       <c r="Z60" s="26">
-        <v>0.1566156688248212</v>
+        <v>0.15661566882474565</v>
       </c>
       <c r="AA60">
         <v>526.31578947368416</v>
       </c>
       <c r="AB60">
-        <v>128.10845947778733</v>
+        <v>128.10845947800911</v>
       </c>
       <c r="AC60">
         <v>500</v>
@@ -10185,7 +10198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B61" s="16">
         <v>2600</v>
       </c>
@@ -10211,7 +10224,7 @@
         <v>1000</v>
       </c>
       <c r="P61">
-        <v>27.251385734908684</v>
+        <v>27.251385734923169</v>
       </c>
       <c r="Q61">
         <v>900</v>
@@ -10241,13 +10254,13 @@
         <v>900</v>
       </c>
       <c r="Z61" s="26">
-        <v>0.16833970770738149</v>
+        <v>0.16833970770729242</v>
       </c>
       <c r="AA61">
         <v>631.57894736842104</v>
       </c>
       <c r="AB61">
-        <v>129.74147587197976</v>
+        <v>129.74147587220602</v>
       </c>
       <c r="AC61">
         <v>600</v>
@@ -10322,7 +10335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B62" s="16">
         <v>2700</v>
       </c>
@@ -10348,7 +10361,7 @@
         <v>1058.8235294117646</v>
       </c>
       <c r="P62">
-        <v>28.670805434635128</v>
+        <v>28.670805434649125</v>
       </c>
       <c r="Q62">
         <v>1050</v>
@@ -10378,13 +10391,13 @@
         <v>1050</v>
       </c>
       <c r="Z62" s="26">
-        <v>0.23610457018391723</v>
+        <v>0.23610457018377881</v>
       </c>
       <c r="AA62">
         <v>736.8421052631578</v>
       </c>
       <c r="AB62">
-        <v>131.37782540830813</v>
+        <v>131.37782540853885</v>
       </c>
       <c r="AC62">
         <v>700</v>
@@ -10459,7 +10472,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B63" s="16">
         <v>2800</v>
       </c>
@@ -10485,7 +10498,7 @@
         <v>1235.2941176470588</v>
       </c>
       <c r="P63">
-        <v>33.158946998733917</v>
+        <v>33.158946998746053</v>
       </c>
       <c r="Q63">
         <v>1200</v>
@@ -10515,13 +10528,13 @@
         <v>1200</v>
       </c>
       <c r="Z63" s="26">
-        <v>0.28637534517889474</v>
+        <v>0.28637534517871643</v>
       </c>
       <c r="AA63">
         <v>842.10526315789468</v>
       </c>
       <c r="AB63">
-        <v>133.01733791998811</v>
+        <v>133.01733792022324</v>
       </c>
       <c r="AC63">
         <v>800</v>
@@ -10596,7 +10609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B64" s="16">
         <v>3000</v>
       </c>
@@ -10616,7 +10629,7 @@
         <v>1411.7647058823529</v>
       </c>
       <c r="P64">
-        <v>37.992612715695806</v>
+        <v>37.992612715705725</v>
       </c>
       <c r="Q64">
         <v>1350</v>
@@ -10646,13 +10659,13 @@
         <v>1350</v>
       </c>
       <c r="Z64" s="26">
-        <v>0.31727294870234196</v>
+        <v>0.31727294870212691</v>
       </c>
       <c r="AA64">
         <v>947.36842105263156</v>
       </c>
       <c r="AB64">
-        <v>134.6499154047581</v>
+        <v>134.64991540499761</v>
       </c>
       <c r="AC64">
         <v>900</v>
@@ -10727,7 +10740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="G65" s="10"/>
@@ -10739,7 +10752,7 @@
         <v>1588.2352941176471</v>
       </c>
       <c r="P65">
-        <v>43.083795963353211</v>
+        <v>43.083795963360473</v>
       </c>
       <c r="Q65">
         <v>1500</v>
@@ -10769,13 +10782,13 @@
         <v>1500</v>
       </c>
       <c r="Z65" s="26">
-        <v>0.34648982492483221</v>
+        <v>0.34648982492458164</v>
       </c>
       <c r="AA65">
         <v>1000</v>
       </c>
       <c r="AB65">
-        <v>135.46089549041164</v>
+        <v>135.46089549065334</v>
       </c>
       <c r="AC65">
         <v>1000</v>
@@ -10850,7 +10863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="G66" s="10"/>
@@ -10862,7 +10875,7 @@
         <v>1764.7058823529412</v>
       </c>
       <c r="P66">
-        <v>48.287453302089368</v>
+        <v>48.287453302093645</v>
       </c>
       <c r="Q66">
         <v>1650</v>
@@ -10892,13 +10905,13 @@
         <v>1650</v>
       </c>
       <c r="Z66" s="26">
-        <v>0.36965547647348079</v>
+        <v>0.36965547647319885</v>
       </c>
       <c r="AA66">
         <v>1052.6315789473683</v>
       </c>
       <c r="AB66">
-        <v>136.2470332527046</v>
+        <v>136.2470332529484</v>
       </c>
       <c r="AC66">
         <v>1100</v>
@@ -10973,7 +10986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M67" s="18"/>
       <c r="N67">
         <v>13</v>
@@ -10982,7 +10995,7 @@
         <v>1941.1764705882354</v>
       </c>
       <c r="P67">
-        <v>53.503560390921372</v>
+        <v>53.503560390922466</v>
       </c>
       <c r="Q67">
         <v>1800</v>
@@ -11012,13 +11025,13 @@
         <v>1800</v>
       </c>
       <c r="Z67" s="26">
-        <v>0.38902861297657632</v>
+        <v>0.38902861297626667</v>
       </c>
       <c r="AA67">
         <v>1157.8947368421052</v>
       </c>
       <c r="AB67">
-        <v>137.80704388795971</v>
+        <v>137.80704388820766</v>
       </c>
       <c r="AC67">
         <v>1200</v>
@@ -11093,7 +11106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M68" s="18"/>
       <c r="N68">
         <v>14</v>
@@ -11132,13 +11145,13 @@
         <v>1950</v>
       </c>
       <c r="Z68" s="26">
-        <v>0.40515691493850203</v>
+        <v>0.40515691493816913</v>
       </c>
       <c r="AA68">
         <v>1263.1578947368421</v>
       </c>
       <c r="AB68">
-        <v>139.33827363343198</v>
+        <v>139.33827363368403</v>
       </c>
       <c r="AC68">
         <v>1300</v>
@@ -11213,7 +11226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M69" s="18"/>
       <c r="N69">
         <v>15</v>
@@ -11258,7 +11271,7 @@
         <v>1368.421052631579</v>
       </c>
       <c r="AB69">
-        <v>140.83659460008181</v>
+        <v>140.83659460033778</v>
       </c>
       <c r="AC69">
         <v>1400</v>
@@ -11333,7 +11346,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M70" s="18"/>
       <c r="N70">
         <v>16</v>
@@ -11378,7 +11391,7 @@
         <v>1473.6842105263156</v>
       </c>
       <c r="AB70">
-        <v>142.3018285397938</v>
+        <v>142.30182854005355</v>
       </c>
       <c r="AC70">
         <v>1500</v>
@@ -11453,7 +11466,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M71" s="18"/>
       <c r="N71">
         <v>17</v>
@@ -11498,7 +11511,7 @@
         <v>1578.9473684210525</v>
       </c>
       <c r="AB71">
-        <v>143.7241242008692</v>
+        <v>143.72412420113264</v>
       </c>
       <c r="AC71">
         <v>1600</v>
@@ -11573,7 +11586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M72" s="18"/>
       <c r="N72">
         <v>18</v>
@@ -11618,7 +11631,7 @@
         <v>1684.2105263157894</v>
       </c>
       <c r="AB72">
-        <v>145.06250832150499</v>
+        <v>145.06250832177159</v>
       </c>
       <c r="AC72">
         <v>1700</v>
@@ -11693,7 +11706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:52" x14ac:dyDescent="0.25">
       <c r="M73" s="18"/>
       <c r="N73">
         <v>19</v>
@@ -11738,7 +11751,7 @@
         <v>1789.4736842105262</v>
       </c>
       <c r="AB73">
-        <v>146.31489401633368</v>
+        <v>146.31489401660301</v>
       </c>
       <c r="AC73">
         <v>1800</v>
@@ -11813,7 +11826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:52" x14ac:dyDescent="0.25">
       <c r="N74">
         <v>20</v>
       </c>
@@ -11857,7 +11870,7 @@
         <v>1894.7368421052631</v>
       </c>
       <c r="AB74">
-        <v>147.49507821348368</v>
+        <v>147.49507821375533</v>
       </c>
       <c r="AC74">
         <v>1900</v>
@@ -11932,7 +11945,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:52" x14ac:dyDescent="0.25">
       <c r="N75">
         <v>21</v>
       </c>
@@ -11976,7 +11989,7 @@
         <v>2000</v>
       </c>
       <c r="AB75">
-        <v>148.6135598900112</v>
+        <v>148.61355989028496</v>
       </c>
       <c r="AC75">
         <v>2000</v>
@@ -12051,7 +12064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:52" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>57</v>
       </c>
@@ -12060,13 +12073,13 @@
       </c>
       <c r="N78">
         <f t="array" ref="N78:AM102">[1]!well_pwf_plin_atma(qliq_,fw_,plin_calc_,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm)</f>
-        <v>25.021241547779201</v>
+        <v>25.004440138527944</v>
       </c>
       <c r="O78">
-        <v>25.021241547779201</v>
+        <v>25.004440138527944</v>
       </c>
       <c r="P78">
-        <v>25.021241547779201</v>
+        <v>25.004440138527944</v>
       </c>
       <c r="Q78">
         <v>120</v>
@@ -12078,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>134.11105984662103</v>
+        <v>131.38076586981475</v>
       </c>
       <c r="U78">
         <v>45</v>
@@ -12087,7 +12100,7 @@
         <v>12</v>
       </c>
       <c r="W78">
-        <v>23155.296313422827</v>
+        <v>25006.745409186035</v>
       </c>
       <c r="X78">
         <v>20</v>
@@ -12138,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:52" x14ac:dyDescent="0.25">
       <c r="N79" t="str">
         <v>p_line_atma</v>
       </c>
@@ -12218,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:52" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:52" x14ac:dyDescent="0.25">
       <c r="N80">
         <v>0</v>
       </c>
@@ -12226,7 +12239,7 @@
         <v>2</v>
       </c>
       <c r="P80">
-        <v>19987.296313422827</v>
+        <v>21838.745409186035</v>
       </c>
       <c r="Q80">
         <v>120</v>
@@ -12235,37 +12248,37 @@
         <v>5</v>
       </c>
       <c r="S80">
+        <v>120</v>
+      </c>
+      <c r="T80">
         <v>2</v>
       </c>
-      <c r="T80">
-        <v>125.72184128843936</v>
-      </c>
       <c r="U80">
-        <v>48.686246849887695</v>
+        <v>135.46089549065334</v>
       </c>
       <c r="V80">
-        <v>6022.573178537391</v>
+        <v>47.866388298965703</v>
       </c>
       <c r="W80">
+        <v>6489.1123734892644</v>
+      </c>
+      <c r="X80">
+        <v>30</v>
+      </c>
+      <c r="Y80">
         <v>3</v>
       </c>
-      <c r="X80">
-        <v>137.64843768597751</v>
-      </c>
-      <c r="Y80">
-        <v>87.447954179107086</v>
-      </c>
       <c r="Z80">
-        <v>13964.723134885435</v>
+        <v>148.61355989028496</v>
       </c>
       <c r="AA80">
-        <v>0</v>
+        <v>84.940032165062021</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>15349.633035696768</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>55.844999999999999</v>
       </c>
       <c r="AD80">
         <v>0</v>
@@ -12298,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="81" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N81">
         <v>0</v>
       </c>
@@ -12315,37 +12328,37 @@
         <v>d_gas_inj_mm</v>
       </c>
       <c r="S81" t="str">
+        <v>p_gas_cas_inj_atma</v>
+      </c>
+      <c r="T81" t="str">
         <v>glv1:d_mm</v>
       </c>
-      <c r="T81" t="str">
+      <c r="U81" t="str">
         <v>glv1:p_in_atma</v>
       </c>
-      <c r="U81" t="str">
+      <c r="V81" t="str">
         <v>glv1:p_out_atma</v>
       </c>
-      <c r="V81" t="str">
+      <c r="W81" t="str">
         <v>glv1:q_gas_scm3day</v>
       </c>
-      <c r="W81" t="str">
+      <c r="X81" t="str">
+        <v>glv1:t_C</v>
+      </c>
+      <c r="Y81" t="str">
         <v>glv2:d_mm</v>
       </c>
-      <c r="X81" t="str">
+      <c r="Z81" t="str">
         <v>glv2:p_in_atma</v>
       </c>
-      <c r="Y81" t="str">
+      <c r="AA81" t="str">
         <v>glv2:p_out_atma</v>
       </c>
-      <c r="Z81" t="str">
+      <c r="AB81" t="str">
         <v>glv2:q_gas_scm3day</v>
       </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
+      <c r="AC81" t="str">
+        <v>glv2:t_C</v>
       </c>
       <c r="AD81">
         <v>0</v>
@@ -12378,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="82" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N82">
         <v>0</v>
       </c>
@@ -12458,7 +12471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="83" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N83" t="str">
         <v>num</v>
       </c>
@@ -12538,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="84" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N84">
         <v>1</v>
       </c>
@@ -12546,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>25.021241547779201</v>
+        <v>25.004440138527944</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -12576,13 +12589,13 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>0.1896381131687748</v>
+        <v>0.18130413220469685</v>
       </c>
       <c r="AA84">
         <v>0</v>
       </c>
       <c r="AB84">
-        <v>111.8887267746679</v>
+        <v>120</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -12618,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="85" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N85">
         <v>2</v>
       </c>
@@ -12626,7 +12639,7 @@
         <v>176.47058823529412</v>
       </c>
       <c r="P85">
-        <v>28.557613398426088</v>
+        <v>28.428359903627175</v>
       </c>
       <c r="Q85">
         <v>150</v>
@@ -12656,13 +12669,13 @@
         <v>150</v>
       </c>
       <c r="Z85">
-        <v>0.2026781869094777</v>
+        <v>0.19341238676541228</v>
       </c>
       <c r="AA85">
         <v>105.26315789473684</v>
       </c>
       <c r="AB85">
-        <v>113.32832403847758</v>
+        <v>121.61346228558365</v>
       </c>
       <c r="AC85">
         <v>100</v>
@@ -12698,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="86" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N86">
         <v>3</v>
       </c>
@@ -12706,7 +12719,7 @@
         <v>352.94117647058823</v>
       </c>
       <c r="P86">
-        <v>32.336233685947086</v>
+        <v>32.076459639311054</v>
       </c>
       <c r="Q86">
         <v>300</v>
@@ -12736,13 +12749,13 @@
         <v>300</v>
       </c>
       <c r="Z86">
-        <v>0.21583155340214191</v>
+        <v>0.20561663515449854</v>
       </c>
       <c r="AA86">
         <v>210.52631578947367</v>
       </c>
       <c r="AB86">
-        <v>114.7725878515745</v>
+        <v>123.23125328372409</v>
       </c>
       <c r="AC86">
         <v>200</v>
@@ -12778,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="87" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N87">
         <v>4</v>
       </c>
@@ -12786,7 +12799,7 @@
         <v>529.41176470588232</v>
       </c>
       <c r="P87">
-        <v>36.382143626124204</v>
+        <v>35.980226074835947</v>
       </c>
       <c r="Q87">
         <v>450</v>
@@ -12816,13 +12829,13 @@
         <v>450</v>
       </c>
       <c r="Z87">
-        <v>0.22510678881067375</v>
+        <v>0.21410944730914705</v>
       </c>
       <c r="AA87">
         <v>315.78947368421052</v>
       </c>
       <c r="AB87">
-        <v>116.22138743350642</v>
+        <v>124.85315409117209</v>
       </c>
       <c r="AC87">
         <v>300</v>
@@ -12858,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="88" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N88">
         <v>5</v>
       </c>
@@ -12866,7 +12879,7 @@
         <v>705.88235294117646</v>
       </c>
       <c r="P88">
-        <v>40.738729971421307</v>
+        <v>40.19924506386571</v>
       </c>
       <c r="Q88">
         <v>600</v>
@@ -12896,13 +12909,13 @@
         <v>600</v>
       </c>
       <c r="Z88">
-        <v>0.23438292034613259</v>
+        <v>0.22266481997200599</v>
       </c>
       <c r="AA88">
         <v>421.05263157894734</v>
       </c>
       <c r="AB88">
-        <v>117.67459811619798</v>
+        <v>126.47895581629626</v>
       </c>
       <c r="AC88">
         <v>400</v>
@@ -12938,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="89" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N89">
         <v>6</v>
       </c>
@@ -12946,7 +12959,7 @@
         <v>882.35294117647061</v>
       </c>
       <c r="P89">
-        <v>45.342225687215731</v>
+        <v>44.646524393135074</v>
       </c>
       <c r="Q89">
         <v>750</v>
@@ -12976,13 +12989,13 @@
         <v>750</v>
       </c>
       <c r="Z89">
-        <v>0.24765220204626431</v>
+        <v>0.23505412363019351</v>
       </c>
       <c r="AA89">
         <v>526.31578947368416</v>
       </c>
       <c r="AB89">
-        <v>119.1321012070093</v>
+        <v>128.10845947800911</v>
       </c>
       <c r="AC89">
         <v>500</v>
@@ -13018,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="90" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N90">
         <v>7</v>
       </c>
@@ -13026,7 +13039,7 @@
         <v>1000</v>
       </c>
       <c r="P90">
-        <v>48.686246849887695</v>
+        <v>47.866388298965703</v>
       </c>
       <c r="Q90">
         <v>900</v>
@@ -13056,13 +13069,13 @@
         <v>900</v>
       </c>
       <c r="Z90">
-        <v>0.26092256697785593</v>
+        <v>0.24743913098990986</v>
       </c>
       <c r="AA90">
         <v>631.57894736842104</v>
       </c>
       <c r="AB90">
-        <v>120.59378383483501</v>
+        <v>129.74147587220602</v>
       </c>
       <c r="AC90">
         <v>600</v>
@@ -13098,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="91" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N91">
         <v>8</v>
       </c>
@@ -13106,7 +13119,7 @@
         <v>1058.8235294117646</v>
       </c>
       <c r="P91">
-        <v>50.762837949554338</v>
+        <v>49.854210189077641</v>
       </c>
       <c r="Q91">
         <v>1050</v>
@@ -13136,13 +13149,13 @@
         <v>1050</v>
       </c>
       <c r="Z91">
-        <v>0.3629113883754268</v>
+        <v>0.34356929183274099</v>
       </c>
       <c r="AA91">
         <v>736.8421052631578</v>
       </c>
       <c r="AB91">
-        <v>122.05953878111112</v>
+        <v>131.37782540853885</v>
       </c>
       <c r="AC91">
         <v>700</v>
@@ -13178,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="92" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N92">
         <v>9</v>
       </c>
@@ -13186,7 +13199,7 @@
         <v>1235.2941176470588</v>
       </c>
       <c r="P92">
-        <v>57.229614367629495</v>
+        <v>56.041114908510409</v>
       </c>
       <c r="Q92">
         <v>1200</v>
@@ -13216,13 +13229,13 @@
         <v>1200</v>
       </c>
       <c r="Z92">
-        <v>0.43235396499011924</v>
+        <v>0.40930582554006567</v>
       </c>
       <c r="AA92">
         <v>842.10526315789468</v>
       </c>
       <c r="AB92">
-        <v>123.52926429753686</v>
+        <v>133.01733792022324</v>
       </c>
       <c r="AC92">
         <v>800</v>
@@ -13258,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="93" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N93">
         <v>10</v>
       </c>
@@ -13266,7 +13279,7 @@
         <v>1411.7647058823529</v>
       </c>
       <c r="P93">
-        <v>64.052015983618418</v>
+        <v>62.563794765152913</v>
       </c>
       <c r="Q93">
         <v>1350</v>
@@ -13296,13 +13309,13 @@
         <v>1350</v>
       </c>
       <c r="Z93">
-        <v>0.47043371595894051</v>
+        <v>0.44522249083091325</v>
       </c>
       <c r="AA93">
         <v>947.36842105263156</v>
       </c>
       <c r="AB93">
-        <v>124.99394741762089</v>
+        <v>134.64991540499761</v>
       </c>
       <c r="AC93">
         <v>900</v>
@@ -13338,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="94" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N94">
         <v>11</v>
       </c>
@@ -13346,7 +13359,7 @@
         <v>1588.2352941176471</v>
       </c>
       <c r="P94">
-        <v>71.108231978103845</v>
+        <v>69.309442138749247</v>
       </c>
       <c r="Q94">
         <v>1500</v>
@@ -13376,13 +13389,13 @@
         <v>1500</v>
       </c>
       <c r="Z94">
-        <v>0.50482013510258839</v>
+        <v>0.47777765988073762</v>
       </c>
       <c r="AA94">
         <v>1000</v>
       </c>
       <c r="AB94">
-        <v>125.72184128843936</v>
+        <v>135.46089549065334</v>
       </c>
       <c r="AC94">
         <v>1000</v>
@@ -13418,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="95" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N95">
         <v>12</v>
       </c>
@@ -13426,7 +13439,7 @@
         <v>1764.7058823529412</v>
       </c>
       <c r="P95">
-        <v>78.184372437645905</v>
+        <v>76.076194775055455</v>
       </c>
       <c r="Q95">
         <v>1650</v>
@@ -13456,13 +13469,13 @@
         <v>1650</v>
       </c>
       <c r="Z95">
-        <v>0.52926362882775602</v>
+        <v>0.5009994877584345</v>
       </c>
       <c r="AA95">
         <v>1052.6315789473683</v>
       </c>
       <c r="AB95">
-        <v>126.42801044768923</v>
+        <v>136.2470332529484</v>
       </c>
       <c r="AC95">
         <v>1100</v>
@@ -13498,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="96" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N96">
         <v>13</v>
       </c>
@@ -13506,7 +13519,7 @@
         <v>1941.1764705882354</v>
       </c>
       <c r="P96">
-        <v>85.153772276348533</v>
+        <v>82.744276520049453</v>
       </c>
       <c r="Q96">
         <v>1800</v>
@@ -13536,13 +13549,13 @@
         <v>1800</v>
       </c>
       <c r="Z96">
-        <v>0.54797249274747029</v>
+        <v>0.51884801929308277</v>
       </c>
       <c r="AA96">
         <v>1157.8947368421052</v>
       </c>
       <c r="AB96">
-        <v>127.82994275845719</v>
+        <v>137.80704388820766</v>
       </c>
       <c r="AC96">
         <v>1200</v>
@@ -13578,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="97" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N97">
         <v>14</v>
       </c>
@@ -13586,7 +13599,7 @@
         <v>2000</v>
       </c>
       <c r="P97">
-        <v>87.447954179107086</v>
+        <v>84.940032165062021</v>
       </c>
       <c r="Q97">
         <v>1950</v>
@@ -13616,13 +13629,13 @@
         <v>1950</v>
       </c>
       <c r="Z97">
-        <v>0.56219560190957596</v>
+        <v>0.53251673475341799</v>
       </c>
       <c r="AA97">
         <v>1263.1578947368421</v>
       </c>
       <c r="AB97">
-        <v>129.20717215179994</v>
+        <v>139.33827363368403</v>
       </c>
       <c r="AC97">
         <v>1300</v>
@@ -13658,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="98" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N98">
         <v>15</v>
       </c>
@@ -13666,7 +13679,7 @@
         <v>2117.6470588235293</v>
       </c>
       <c r="P98">
-        <v>94.194457646307399</v>
+        <v>91.691525705374389</v>
       </c>
       <c r="Q98">
         <v>2100</v>
@@ -13696,13 +13709,13 @@
         <v>2100</v>
       </c>
       <c r="Z98">
-        <v>0.92317979156990493</v>
+        <v>0.92452618707838941</v>
       </c>
       <c r="AA98">
         <v>1368.421052631579</v>
       </c>
       <c r="AB98">
-        <v>130.55594766040869</v>
+        <v>140.83659460033778</v>
       </c>
       <c r="AC98">
         <v>1400</v>
@@ -13738,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="99" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N99">
         <v>16</v>
       </c>
@@ -13746,7 +13759,7 @@
         <v>2294.1176470588234</v>
       </c>
       <c r="P99">
-        <v>104.0543111390126</v>
+        <v>101.45647116781574</v>
       </c>
       <c r="Q99">
         <v>2250</v>
@@ -13776,13 +13789,13 @@
         <v>2250</v>
       </c>
       <c r="Z99">
-        <v>0.95496721644428306</v>
+        <v>0.94089384595022585</v>
       </c>
       <c r="AA99">
         <v>1473.6842105263156</v>
       </c>
       <c r="AB99">
-        <v>131.87605524978204</v>
+        <v>142.30182854005355</v>
       </c>
       <c r="AC99">
         <v>1500</v>
@@ -13818,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="100" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N100">
         <v>17</v>
       </c>
@@ -13826,7 +13839,7 @@
         <v>2470.5882352941176</v>
       </c>
       <c r="P100">
-        <v>113.67003516776805</v>
+        <v>110.9667659180933</v>
       </c>
       <c r="Q100">
         <v>2400</v>
@@ -13856,13 +13869,13 @@
         <v>2400</v>
       </c>
       <c r="Z100">
-        <v>0.98583855858023561</v>
+        <v>0.97213205202712272</v>
       </c>
       <c r="AA100">
         <v>1578.9473684210525</v>
       </c>
       <c r="AB100">
-        <v>133.16006179830242</v>
+        <v>143.72412420113264</v>
       </c>
       <c r="AC100">
         <v>1600</v>
@@ -13898,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="101" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N101">
         <v>18</v>
       </c>
@@ -13906,7 +13919,7 @@
         <v>2500</v>
       </c>
       <c r="P101">
-        <v>115.25627828085527</v>
+        <v>112.53628502445636</v>
       </c>
       <c r="Q101">
         <v>2550</v>
@@ -13936,13 +13949,13 @@
         <v>2550</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>0.99560149900707851</v>
       </c>
       <c r="AA101">
         <v>1684.2105263157894</v>
       </c>
       <c r="AB101">
-        <v>134.37709312735603</v>
+        <v>145.06250832177159</v>
       </c>
       <c r="AC101">
         <v>1700</v>
@@ -13978,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="14:39" x14ac:dyDescent="0.45">
+    <row r="102" spans="14:39" x14ac:dyDescent="0.25">
       <c r="N102">
         <v>19</v>
       </c>
@@ -13986,7 +13999,7 @@
         <v>2647.0588235294117</v>
       </c>
       <c r="P102">
-        <v>122.87625119863851</v>
+        <v>120.15264142524914</v>
       </c>
       <c r="Q102">
         <v>2700</v>
@@ -14022,7 +14035,7 @@
         <v>1789.4736842105262</v>
       </c>
       <c r="AB102">
-        <v>135.5248491992995</v>
+        <v>146.31489401660301</v>
       </c>
       <c r="AC102">
         <v>1800</v>

--- a/exercises/excercises/ex130.MF_well_new.xlsx
+++ b/exercises/excercises/ex130.MF_well_new.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr codeName="Workbook________" defaultThemeVersion="166925"/>
+  <workbookPr codeName="Workbook_well" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD8B7B3-B8AD-4C28-9978-C40C3343A458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE4096-92ED-443A-A388-A897E33E5AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="482" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
@@ -1049,43 +1049,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10.674381172192323</c:v>
+                  <c:v>6.876227185655118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.020313688321865</c:v>
+                  <c:v>8.7920018431970277</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.510456169274324</c:v>
+                  <c:v>11.213623019604855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.25340699414242</c:v>
+                  <c:v>13.936206778395711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.467436053255192</c:v>
+                  <c:v>17.121766685680171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.830223236100196</c:v>
+                  <c:v>20.546025757184701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.251385734923169</c:v>
+                  <c:v>23.075782628130181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.670805434649125</c:v>
+                  <c:v>24.637037452231166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.158946998746053</c:v>
+                  <c:v>29.62164268562853</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.992612715705725</c:v>
+                  <c:v>35.089348697372436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.083795963360473</c:v>
+                  <c:v>40.954527331993667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.287453302093645</c:v>
+                  <c:v>47.032563680314496</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.503560390922466</c:v>
+                  <c:v>53.184033221097216</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>55.236768886752095</c:v>
@@ -1227,67 +1227,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>73.474034526540706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.61346228558365</c:v>
+                  <c:v>74.317966216202379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.23125328372409</c:v>
+                  <c:v>75.167027953216746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.85315409117209</c:v>
+                  <c:v>76.021208217277163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>126.47895581629626</c:v>
+                  <c:v>76.880495113317522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.10845947800911</c:v>
+                  <c:v>77.744876365383917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129.74147587220602</c:v>
+                  <c:v>78.614339310636112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131.37782540853885</c:v>
+                  <c:v>79.488870893497705</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133.01733792022324</c:v>
+                  <c:v>80.368457659973103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134.64991540499761</c:v>
+                  <c:v>81.247726113122752</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135.46089549065334</c:v>
+                  <c:v>81.685403339374588</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>136.2470332529484</c:v>
+                  <c:v>82.111277127644243</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>137.80704388820766</c:v>
+                  <c:v>82.958075319144328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.33827363368403</c:v>
+                  <c:v>83.792445021612636</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140.83659460033778</c:v>
+                  <c:v>84.611991164407428</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>142.30182854005355</c:v>
+                  <c:v>85.416438502057019</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>143.72412420113264</c:v>
+                  <c:v>86.20337977967101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.06250832177159</c:v>
+                  <c:v>86.96272251495084</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146.31489401660301</c:v>
+                  <c:v>87.691904413829235</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147.49507821375533</c:v>
+                  <c:v>88.392322039377234</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148.61355989028496</c:v>
+                  <c:v>89.065355456624147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,46 +2198,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.10483485463040422</c:v>
+                  <c:v>9.1985096642354977E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11599601314551963</c:v>
+                  <c:v>0.11590558824230275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12700049465220811</c:v>
+                  <c:v>0.13156697688587682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13546171346472974</c:v>
+                  <c:v>0.14451679994559768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14472591882080607</c:v>
+                  <c:v>0.15823526900405374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15661566882474565</c:v>
+                  <c:v>0.17473157957777549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16833970770729242</c:v>
+                  <c:v>0.19110776920251121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23610457018377881</c:v>
+                  <c:v>0.27262305973896911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28637534517871643</c:v>
+                  <c:v>0.33423333955691664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31727294870212691</c:v>
+                  <c:v>0.37652741351358432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34648982492458164</c:v>
+                  <c:v>0.41682646236920301</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36965547647319885</c:v>
+                  <c:v>0.44972567147902753</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38902861297626667</c:v>
+                  <c:v>0.47761484002428695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40515691493816913</c:v>
+                  <c:v>0.50084593490255247</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.84668844838029877</c:v>
@@ -2624,7 +2624,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>90</c:v>
@@ -3012,144 +3012,145 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>well1!$P$82:$P$102</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ptub</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25,00444014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28,4283599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32,07645964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35,98022607</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40,19924506</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44,64652439</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47,8663883</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49,85421019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56,04111491</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>62,56379477</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>69,30944214</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76,07619478</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>82,74427652</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>84,94003217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91,69152571</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>101,4564712</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110,9667659</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112,536285</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120,1526414</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
             <c:numRef>
-              <c:f>well1!$O$82:$O$102</c:f>
+              <c:f>well1!$P$84:$P$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>24.984518014457148</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>28.405489574079716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.050344370697104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.950714288861988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.166532489918254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.610312251059035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.827508428164499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.56653224228824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.96724864915749</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.628234389573166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.455344163248625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.284031552068939</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.019438289153939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.907276268113534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86.682474599329382</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.382701343418248</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105.67867509731823</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107.21348396069787</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114.83947600670687</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.81751343661816</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126.05651797315487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well1!$O$84:$O$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>176.47058823529412</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>352.94117647058823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.47058823529412</c:v>
+                  <c:v>529.41176470588232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>352.94117647058823</c:v>
+                  <c:v>705.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>529.41176470588232</c:v>
+                  <c:v>882.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>705.88235294117646</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>882.35294117647061</c:v>
+                  <c:v>1058.8235294117646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>1235.2941176470588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1058.8235294117646</c:v>
+                  <c:v>1411.7647058823529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1235.2941176470588</c:v>
+                  <c:v>1588.2352941176471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1411.7647058823529</c:v>
+                  <c:v>1764.7058823529412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1588.2352941176471</c:v>
+                  <c:v>1941.1764705882354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1764.7058823529412</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1941.1764705882354</c:v>
+                  <c:v>2117.6470588235293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2000</c:v>
+                  <c:v>2294.1176470588234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2117.6470588235293</c:v>
+                  <c:v>2470.5882352941176</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2294.1176470588234</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2470.5882352941176</c:v>
+                  <c:v>2647.0588235294117</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2500</c:v>
+                  <c:v>2823.5294117647059</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2647.0588235294117</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3177,144 +3178,145 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>well1!$AB$82:$AB$102</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>pcas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121,6134623</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>123,2312533</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124,8531541</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126,4789558</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128,1084595</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>129,7414759</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>131,3778254</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>133,0173379</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>134,6499154</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>135,4608955</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>136,2470333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>137,8070439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>139,3382736</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>140,8365946</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>142,3018285</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>143,7241242</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>145,0625083</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>146,314894</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
             <c:numRef>
-              <c:f>well1!$AA$82:$AA$102</c:f>
+              <c:f>well1!$AB$84:$AB$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>121.61346228558365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.23125328372409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.85315409117209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126.47895581629626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.10845947800911</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.74147587220602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131.37782540853885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133.01733792022324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134.64991540499761</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.46089549065334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.2470332529484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137.80704388820766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>139.33827363368403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140.83659460033778</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142.30182854005355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>143.72412420113264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.06250832177159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>146.31489401660301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147.49507821375533</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148.61355989028496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well1!$AA$84:$AA$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.26315789473684</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>210.52631578947367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.26315789473684</c:v>
+                  <c:v>315.78947368421052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.52631578947367</c:v>
+                  <c:v>421.05263157894734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>315.78947368421052</c:v>
+                  <c:v>526.31578947368416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>421.05263157894734</c:v>
+                  <c:v>631.57894736842104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>526.31578947368416</c:v>
+                  <c:v>736.8421052631578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>631.57894736842104</c:v>
+                  <c:v>842.10526315789468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>736.8421052631578</c:v>
+                  <c:v>947.36842105263156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>842.10526315789468</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>947.36842105263156</c:v>
+                  <c:v>1052.6315789473683</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1000</c:v>
+                  <c:v>1157.8947368421052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1052.6315789473683</c:v>
+                  <c:v>1263.1578947368421</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1157.8947368421052</c:v>
+                  <c:v>1368.421052631579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1263.1578947368421</c:v>
+                  <c:v>1473.6842105263156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1368.421052631579</c:v>
+                  <c:v>1578.9473684210525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1473.6842105263156</c:v>
+                  <c:v>1684.2105263157894</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1578.9473684210525</c:v>
+                  <c:v>1789.4736842105262</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1684.2105263157894</c:v>
+                  <c:v>1894.7368421052631</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1789.4736842105262</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,144 +3553,145 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>well1!$X$82:$X$102</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ttub</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21,76470588</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23,52941176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25,29411765</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27,05882353</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28,82352941</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30,56470588</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32,23823529</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33,85470588</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37,43264706</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45,43382353</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>53,28911765</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55,845</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>60,80794118</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67,98382353</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>74,80382353</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75,92</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>81,28735294</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
             <c:numRef>
-              <c:f>well1!$W$82:$W$102</c:f>
+              <c:f>well1!$X$84:$X$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21.764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.294117647058822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.823529411764707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.564705882352939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.238235294117651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.854705882352938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.432647058823527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.433823529411768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.289117647058823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.807941176470578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.983823529411765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.803823529411758</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.287352941176465</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.039705882352948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well1!$W$84:$W$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>176.47058823529412</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>352.94117647058823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.47058823529412</c:v>
+                  <c:v>529.41176470588232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>352.94117647058823</c:v>
+                  <c:v>705.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>529.41176470588232</c:v>
+                  <c:v>882.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>705.88235294117646</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>882.35294117647061</c:v>
+                  <c:v>1058.8235294117646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>1235.2941176470588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1058.8235294117646</c:v>
+                  <c:v>1411.7647058823529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1235.2941176470588</c:v>
+                  <c:v>1588.2352941176471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1411.7647058823529</c:v>
+                  <c:v>1764.7058823529412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1588.2352941176471</c:v>
+                  <c:v>1941.1764705882354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1764.7058823529412</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1941.1764705882354</c:v>
+                  <c:v>2117.6470588235293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2000</c:v>
+                  <c:v>2294.1176470588234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2117.6470588235293</c:v>
+                  <c:v>2470.5882352941176</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2294.1176470588234</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2470.5882352941176</c:v>
+                  <c:v>2647.0588235294117</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2500</c:v>
+                  <c:v>2823.5294117647059</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2647.0588235294117</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7701,29 +7704,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A7C6B1-D08D-4B8C-90EB-0A5185B9FB63}">
   <sheetPr codeName="Worksheet_well1"/>
-  <dimension ref="A1:AZ102"/>
+  <dimension ref="A1:AZ104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.5703125" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="13.140625" customWidth="1"/>
     <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7988,7 +8005,7 @@
         <v>70</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -8108,7 +8125,7 @@
       </c>
       <c r="C30" s="24" t="str">
         <f>[1]!GL_encode_string(qgas_inj_,pgas_inj_,d_gl_,M35:M38,N35:N38,O35:O38)</f>
-        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:120,00000;d_gas_inj_mm:5,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
+        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:120,00000;d_gas_inj_mm:3,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -8134,7 +8151,7 @@
       </c>
       <c r="C31" s="25" t="str">
         <f>IF(ALsel,ESP_,GLV_)</f>
-        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:120,00000;d_gas_inj_mm:5,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
+        <v>GLV:1;q_gas_inj_sm3day:0,00000;p_gas_inj_atma:120,00000;d_gas_inj_mm:3,00000;GLV:2;H_glv_m1:1000,000;d_glv_mm1:2,000;p_glv_atma1:25,000;H_glv_m2:2000,000;d_glv_mm2:3,000;p_glv_atma2:55,000;</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -8574,16 +8591,16 @@
       <c r="M49" s="18"/>
       <c r="N49" s="27">
         <f t="array" ref="N49:AZ75">[1]!well_plin_pwf_atma(qliq_,fw_,C24,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm,C26,,,,Qinj_)</f>
-        <v>9.569415933664601</v>
+        <v>1</v>
       </c>
       <c r="O49" s="27">
-        <v>9.569415933664601</v>
+        <v>1</v>
       </c>
       <c r="P49" s="27">
-        <v>10.674381172192323</v>
+        <v>6.876227185655118</v>
       </c>
       <c r="Q49" s="27">
-        <v>120</v>
+        <v>73.474034526540706</v>
       </c>
       <c r="R49" s="27">
         <v>0</v>
@@ -8601,7 +8618,7 @@
         <v>12</v>
       </c>
       <c r="W49" s="20">
-        <v>26033.586295822781</v>
+        <v>17172.02505536364</v>
       </c>
       <c r="X49" s="20">
         <v>20</v>
@@ -8854,13 +8871,13 @@
         <v>2</v>
       </c>
       <c r="P51">
-        <v>21865.586295822781</v>
+        <v>13004.02505536364</v>
       </c>
       <c r="Q51">
         <v>120</v>
       </c>
       <c r="R51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51">
         <v>120</v>
@@ -8869,13 +8886,13 @@
         <v>2</v>
       </c>
       <c r="U51">
-        <v>135.46089549065334</v>
+        <v>81.685403339374588</v>
       </c>
       <c r="V51">
-        <v>27.251385734923169</v>
+        <v>23.075782628130181</v>
       </c>
       <c r="W51" s="26">
-        <v>6489.1123734892644</v>
+        <v>3913.0537239034484</v>
       </c>
       <c r="X51" s="26">
         <v>30</v>
@@ -8884,13 +8901,13 @@
         <v>3</v>
       </c>
       <c r="Z51" s="20">
-        <v>148.61355989028496</v>
+        <v>89.065355456624147</v>
       </c>
       <c r="AA51">
         <v>55.236768886752095</v>
       </c>
       <c r="AB51">
-        <v>15376.473922333518</v>
+        <v>9090.9713314601922</v>
       </c>
       <c r="AC51">
         <v>55.844999999999999</v>
@@ -9402,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>10.674381172192323</v>
+        <v>6.876227185655118</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -9420,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W55" s="20">
         <v>0</v>
@@ -9432,13 +9449,13 @@
         <v>0</v>
       </c>
       <c r="Z55" s="26">
-        <v>0.10483485463040422</v>
+        <v>9.1985096642354977E-2</v>
       </c>
       <c r="AA55">
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>120</v>
+        <v>73.474034526540706</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -9539,7 +9556,7 @@
         <v>176.47058823529412</v>
       </c>
       <c r="P56">
-        <v>13.020313688321865</v>
+        <v>8.7920018431970277</v>
       </c>
       <c r="Q56">
         <v>150</v>
@@ -9569,13 +9586,13 @@
         <v>150</v>
       </c>
       <c r="Z56" s="26">
-        <v>0.11599601314551963</v>
+        <v>0.11590558824230275</v>
       </c>
       <c r="AA56">
         <v>105.26315789473684</v>
       </c>
       <c r="AB56">
-        <v>121.61346228558365</v>
+        <v>74.317966216202379</v>
       </c>
       <c r="AC56">
         <v>100</v>
@@ -9676,7 +9693,7 @@
         <v>352.94117647058823</v>
       </c>
       <c r="P57">
-        <v>15.510456169274324</v>
+        <v>11.213623019604855</v>
       </c>
       <c r="Q57">
         <v>300</v>
@@ -9706,13 +9723,13 @@
         <v>300</v>
       </c>
       <c r="Z57" s="26">
-        <v>0.12700049465220811</v>
+        <v>0.13156697688587682</v>
       </c>
       <c r="AA57">
         <v>210.52631578947367</v>
       </c>
       <c r="AB57">
-        <v>123.23125328372409</v>
+        <v>75.167027953216746</v>
       </c>
       <c r="AC57">
         <v>200</v>
@@ -9813,7 +9830,7 @@
         <v>529.41176470588232</v>
       </c>
       <c r="P58">
-        <v>18.25340699414242</v>
+        <v>13.936206778395711</v>
       </c>
       <c r="Q58">
         <v>450</v>
@@ -9843,13 +9860,13 @@
         <v>450</v>
       </c>
       <c r="Z58" s="26">
-        <v>0.13546171346472974</v>
+        <v>0.14451679994559768</v>
       </c>
       <c r="AA58">
         <v>315.78947368421052</v>
       </c>
       <c r="AB58">
-        <v>124.85315409117209</v>
+        <v>76.021208217277163</v>
       </c>
       <c r="AC58">
         <v>300</v>
@@ -9950,7 +9967,7 @@
         <v>705.88235294117646</v>
       </c>
       <c r="P59">
-        <v>21.467436053255192</v>
+        <v>17.121766685680171</v>
       </c>
       <c r="Q59">
         <v>600</v>
@@ -9980,13 +9997,13 @@
         <v>600</v>
       </c>
       <c r="Z59" s="26">
-        <v>0.14472591882080607</v>
+        <v>0.15823526900405374</v>
       </c>
       <c r="AA59">
         <v>421.05263157894734</v>
       </c>
       <c r="AB59">
-        <v>126.47895581629626</v>
+        <v>76.880495113317522</v>
       </c>
       <c r="AC59">
         <v>400</v>
@@ -10087,7 +10104,7 @@
         <v>882.35294117647061</v>
       </c>
       <c r="P60">
-        <v>24.830223236100196</v>
+        <v>20.546025757184701</v>
       </c>
       <c r="Q60">
         <v>750</v>
@@ -10117,13 +10134,13 @@
         <v>750</v>
       </c>
       <c r="Z60" s="26">
-        <v>0.15661566882474565</v>
+        <v>0.17473157957777549</v>
       </c>
       <c r="AA60">
         <v>526.31578947368416</v>
       </c>
       <c r="AB60">
-        <v>128.10845947800911</v>
+        <v>77.744876365383917</v>
       </c>
       <c r="AC60">
         <v>500</v>
@@ -10224,7 +10241,7 @@
         <v>1000</v>
       </c>
       <c r="P61">
-        <v>27.251385734923169</v>
+        <v>23.075782628130181</v>
       </c>
       <c r="Q61">
         <v>900</v>
@@ -10254,13 +10271,13 @@
         <v>900</v>
       </c>
       <c r="Z61" s="26">
-        <v>0.16833970770729242</v>
+        <v>0.19110776920251121</v>
       </c>
       <c r="AA61">
         <v>631.57894736842104</v>
       </c>
       <c r="AB61">
-        <v>129.74147587220602</v>
+        <v>78.614339310636112</v>
       </c>
       <c r="AC61">
         <v>600</v>
@@ -10361,7 +10378,7 @@
         <v>1058.8235294117646</v>
       </c>
       <c r="P62">
-        <v>28.670805434649125</v>
+        <v>24.637037452231166</v>
       </c>
       <c r="Q62">
         <v>1050</v>
@@ -10391,13 +10408,13 @@
         <v>1050</v>
       </c>
       <c r="Z62" s="26">
-        <v>0.23610457018377881</v>
+        <v>0.27262305973896911</v>
       </c>
       <c r="AA62">
         <v>736.8421052631578</v>
       </c>
       <c r="AB62">
-        <v>131.37782540853885</v>
+        <v>79.488870893497705</v>
       </c>
       <c r="AC62">
         <v>700</v>
@@ -10498,7 +10515,7 @@
         <v>1235.2941176470588</v>
       </c>
       <c r="P63">
-        <v>33.158946998746053</v>
+        <v>29.62164268562853</v>
       </c>
       <c r="Q63">
         <v>1200</v>
@@ -10528,13 +10545,13 @@
         <v>1200</v>
       </c>
       <c r="Z63" s="26">
-        <v>0.28637534517871643</v>
+        <v>0.33423333955691664</v>
       </c>
       <c r="AA63">
         <v>842.10526315789468</v>
       </c>
       <c r="AB63">
-        <v>133.01733792022324</v>
+        <v>80.368457659973103</v>
       </c>
       <c r="AC63">
         <v>800</v>
@@ -10629,7 +10646,7 @@
         <v>1411.7647058823529</v>
       </c>
       <c r="P64">
-        <v>37.992612715705725</v>
+        <v>35.089348697372436</v>
       </c>
       <c r="Q64">
         <v>1350</v>
@@ -10659,13 +10676,13 @@
         <v>1350</v>
       </c>
       <c r="Z64" s="26">
-        <v>0.31727294870212691</v>
+        <v>0.37652741351358432</v>
       </c>
       <c r="AA64">
         <v>947.36842105263156</v>
       </c>
       <c r="AB64">
-        <v>134.64991540499761</v>
+        <v>81.247726113122752</v>
       </c>
       <c r="AC64">
         <v>900</v>
@@ -10752,7 +10769,7 @@
         <v>1588.2352941176471</v>
       </c>
       <c r="P65">
-        <v>43.083795963360473</v>
+        <v>40.954527331993667</v>
       </c>
       <c r="Q65">
         <v>1500</v>
@@ -10782,13 +10799,13 @@
         <v>1500</v>
       </c>
       <c r="Z65" s="26">
-        <v>0.34648982492458164</v>
+        <v>0.41682646236920301</v>
       </c>
       <c r="AA65">
         <v>1000</v>
       </c>
       <c r="AB65">
-        <v>135.46089549065334</v>
+        <v>81.685403339374588</v>
       </c>
       <c r="AC65">
         <v>1000</v>
@@ -10875,7 +10892,7 @@
         <v>1764.7058823529412</v>
       </c>
       <c r="P66">
-        <v>48.287453302093645</v>
+        <v>47.032563680314496</v>
       </c>
       <c r="Q66">
         <v>1650</v>
@@ -10905,13 +10922,13 @@
         <v>1650</v>
       </c>
       <c r="Z66" s="26">
-        <v>0.36965547647319885</v>
+        <v>0.44972567147902753</v>
       </c>
       <c r="AA66">
         <v>1052.6315789473683</v>
       </c>
       <c r="AB66">
-        <v>136.2470332529484</v>
+        <v>82.111277127644243</v>
       </c>
       <c r="AC66">
         <v>1100</v>
@@ -10995,7 +11012,7 @@
         <v>1941.1764705882354</v>
       </c>
       <c r="P67">
-        <v>53.503560390922466</v>
+        <v>53.184033221097216</v>
       </c>
       <c r="Q67">
         <v>1800</v>
@@ -11025,13 +11042,13 @@
         <v>1800</v>
       </c>
       <c r="Z67" s="26">
-        <v>0.38902861297626667</v>
+        <v>0.47761484002428695</v>
       </c>
       <c r="AA67">
         <v>1157.8947368421052</v>
       </c>
       <c r="AB67">
-        <v>137.80704388820766</v>
+        <v>82.958075319144328</v>
       </c>
       <c r="AC67">
         <v>1200</v>
@@ -11145,13 +11162,13 @@
         <v>1950</v>
       </c>
       <c r="Z68" s="26">
-        <v>0.40515691493816913</v>
+        <v>0.50084593490255247</v>
       </c>
       <c r="AA68">
         <v>1263.1578947368421</v>
       </c>
       <c r="AB68">
-        <v>139.33827363368403</v>
+        <v>83.792445021612636</v>
       </c>
       <c r="AC68">
         <v>1300</v>
@@ -11271,7 +11288,7 @@
         <v>1368.421052631579</v>
       </c>
       <c r="AB69">
-        <v>140.83659460033778</v>
+        <v>84.611991164407428</v>
       </c>
       <c r="AC69">
         <v>1400</v>
@@ -11391,7 +11408,7 @@
         <v>1473.6842105263156</v>
       </c>
       <c r="AB70">
-        <v>142.30182854005355</v>
+        <v>85.416438502057019</v>
       </c>
       <c r="AC70">
         <v>1500</v>
@@ -11511,7 +11528,7 @@
         <v>1578.9473684210525</v>
       </c>
       <c r="AB71">
-        <v>143.72412420113264</v>
+        <v>86.20337977967101</v>
       </c>
       <c r="AC71">
         <v>1600</v>
@@ -11631,7 +11648,7 @@
         <v>1684.2105263157894</v>
       </c>
       <c r="AB72">
-        <v>145.06250832177159</v>
+        <v>86.96272251495084</v>
       </c>
       <c r="AC72">
         <v>1700</v>
@@ -11751,7 +11768,7 @@
         <v>1789.4736842105262</v>
       </c>
       <c r="AB73">
-        <v>146.31489401660301</v>
+        <v>87.691904413829235</v>
       </c>
       <c r="AC73">
         <v>1800</v>
@@ -11870,7 +11887,7 @@
         <v>1894.7368421052631</v>
       </c>
       <c r="AB74">
-        <v>147.49507821375533</v>
+        <v>88.392322039377234</v>
       </c>
       <c r="AC74">
         <v>1900</v>
@@ -11989,7 +12006,7 @@
         <v>2000</v>
       </c>
       <c r="AB75">
-        <v>148.61355989028496</v>
+        <v>89.065355456624147</v>
       </c>
       <c r="AC75">
         <v>2000</v>
@@ -12072,14 +12089,14 @@
         <v>25</v>
       </c>
       <c r="N78">
-        <f t="array" ref="N78:AM102">[1]!well_pwf_plin_atma(qliq_,fw_,plin_calc_,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm)</f>
-        <v>25.004440138527944</v>
+        <f t="array" ref="N78:AM104">[1]!well_pwf_plin_atma(qliq_,fw_,plin_calc_,C34,Pcalc_,C38,PVTstr_,AL_str_,B44:C64,J44:K46,H44:I46,E44:F46,hcor,tempm)</f>
+        <v>24.984518014457148</v>
       </c>
       <c r="O78">
-        <v>25.004440138527944</v>
+        <v>24.984518014457148</v>
       </c>
       <c r="P78">
-        <v>25.004440138527944</v>
+        <v>24.984518014457148</v>
       </c>
       <c r="Q78">
         <v>120</v>
@@ -12091,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>131.38076586981475</v>
+        <v>126.05651797315487</v>
       </c>
       <c r="U78">
         <v>45</v>
@@ -12100,7 +12117,7 @@
         <v>12</v>
       </c>
       <c r="W78">
-        <v>25006.745409186035</v>
+        <v>25033.586295822781</v>
       </c>
       <c r="X78">
         <v>20</v>
@@ -12239,13 +12256,13 @@
         <v>2</v>
       </c>
       <c r="P80">
-        <v>21838.745409186035</v>
+        <v>21865.586295822781</v>
       </c>
       <c r="Q80">
         <v>120</v>
       </c>
       <c r="R80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S80">
         <v>120</v>
@@ -12257,10 +12274,10 @@
         <v>135.46089549065334</v>
       </c>
       <c r="V80">
-        <v>47.866388298965703</v>
+        <v>47.827508428164499</v>
       </c>
       <c r="W80">
-        <v>6489.1123734892644</v>
+        <v>0</v>
       </c>
       <c r="X80">
         <v>30</v>
@@ -12272,10 +12289,10 @@
         <v>148.61355989028496</v>
       </c>
       <c r="AA80">
-        <v>84.940032165062021</v>
+        <v>79.907276268113534</v>
       </c>
       <c r="AB80">
-        <v>15349.633035696768</v>
+        <v>21865.586295822781</v>
       </c>
       <c r="AC80">
         <v>55.844999999999999</v>
@@ -12559,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="P84">
-        <v>25.004440138527944</v>
+        <v>24.984518014457148</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -12589,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>0.18130413220469685</v>
+        <v>0.18110182082576193</v>
       </c>
       <c r="AA84">
         <v>0</v>
@@ -12639,7 +12656,7 @@
         <v>176.47058823529412</v>
       </c>
       <c r="P85">
-        <v>28.428359903627175</v>
+        <v>28.405489574079716</v>
       </c>
       <c r="Q85">
         <v>150</v>
@@ -12669,7 +12686,7 @@
         <v>150</v>
       </c>
       <c r="Z85">
-        <v>0.19341238676541228</v>
+        <v>0.19319620673980864</v>
       </c>
       <c r="AA85">
         <v>105.26315789473684</v>
@@ -12719,7 +12736,7 @@
         <v>352.94117647058823</v>
       </c>
       <c r="P86">
-        <v>32.076459639311054</v>
+        <v>32.050344370697104</v>
       </c>
       <c r="Q86">
         <v>300</v>
@@ -12749,7 +12766,7 @@
         <v>300</v>
       </c>
       <c r="Z86">
-        <v>0.20561663515449854</v>
+        <v>0.20538632724301639</v>
       </c>
       <c r="AA86">
         <v>210.52631578947367</v>
@@ -12799,7 +12816,7 @@
         <v>529.41176470588232</v>
       </c>
       <c r="P87">
-        <v>35.980226074835947</v>
+        <v>35.950714288861988</v>
       </c>
       <c r="Q87">
         <v>450</v>
@@ -12829,7 +12846,7 @@
         <v>450</v>
       </c>
       <c r="Z87">
-        <v>0.21410944730914705</v>
+        <v>0.21386881080631875</v>
       </c>
       <c r="AA87">
         <v>315.78947368421052</v>
@@ -12879,7 +12896,7 @@
         <v>705.88235294117646</v>
       </c>
       <c r="P88">
-        <v>40.19924506386571</v>
+        <v>40.166532489918254</v>
       </c>
       <c r="Q88">
         <v>600</v>
@@ -12909,7 +12926,7 @@
         <v>600</v>
       </c>
       <c r="Z88">
-        <v>0.22266481997200599</v>
+        <v>0.22241523612069733</v>
       </c>
       <c r="AA88">
         <v>421.05263157894734</v>
@@ -12959,7 +12976,7 @@
         <v>882.35294117647061</v>
       </c>
       <c r="P89">
-        <v>44.646524393135074</v>
+        <v>44.610312251059035</v>
       </c>
       <c r="Q89">
         <v>750</v>
@@ -12989,7 +13006,7 @@
         <v>750</v>
       </c>
       <c r="Z89">
-        <v>0.23505412363019351</v>
+        <v>0.2347921328998285</v>
       </c>
       <c r="AA89">
         <v>526.31578947368416</v>
@@ -13039,7 +13056,7 @@
         <v>1000</v>
       </c>
       <c r="P90">
-        <v>47.866388298965703</v>
+        <v>47.827508428164499</v>
       </c>
       <c r="Q90">
         <v>900</v>
@@ -13069,7 +13086,7 @@
         <v>900</v>
       </c>
       <c r="Z90">
-        <v>0.24743913098990986</v>
+        <v>0.24716465157980383</v>
       </c>
       <c r="AA90">
         <v>631.57894736842104</v>
@@ -13119,7 +13136,7 @@
         <v>1058.8235294117646</v>
       </c>
       <c r="P91">
-        <v>49.854210189077641</v>
+        <v>49.56653224228824</v>
       </c>
       <c r="Q91">
         <v>1050</v>
@@ -13149,7 +13166,7 @@
         <v>1050</v>
       </c>
       <c r="Z91">
-        <v>0.34356929183274099</v>
+        <v>0.31219193332427964</v>
       </c>
       <c r="AA91">
         <v>736.8421052631578</v>
@@ -13199,7 +13216,7 @@
         <v>1235.2941176470588</v>
       </c>
       <c r="P92">
-        <v>56.041114908510409</v>
+        <v>54.96724864915749</v>
       </c>
       <c r="Q92">
         <v>1200</v>
@@ -13229,7 +13246,7 @@
         <v>1200</v>
       </c>
       <c r="Z92">
-        <v>0.40930582554006567</v>
+        <v>0.34127975854804032</v>
       </c>
       <c r="AA92">
         <v>842.10526315789468</v>
@@ -13279,7 +13296,7 @@
         <v>1411.7647058823529</v>
       </c>
       <c r="P93">
-        <v>62.563794765152913</v>
+        <v>60.628234389573166</v>
       </c>
       <c r="Q93">
         <v>1350</v>
@@ -13309,7 +13326,7 @@
         <v>1350</v>
       </c>
       <c r="Z93">
-        <v>0.44522249083091325</v>
+        <v>0.36958937887736898</v>
       </c>
       <c r="AA93">
         <v>947.36842105263156</v>
@@ -13359,7 +13376,7 @@
         <v>1588.2352941176471</v>
       </c>
       <c r="P94">
-        <v>69.309442138749247</v>
+        <v>66.455344163248625</v>
       </c>
       <c r="Q94">
         <v>1500</v>
@@ -13389,7 +13406,7 @@
         <v>1500</v>
       </c>
       <c r="Z94">
-        <v>0.47777765988073762</v>
+        <v>0.39534663211483378</v>
       </c>
       <c r="AA94">
         <v>1000</v>
@@ -13439,7 +13456,7 @@
         <v>1764.7058823529412</v>
       </c>
       <c r="P95">
-        <v>76.076194775055455</v>
+        <v>72.284031552068939</v>
       </c>
       <c r="Q95">
         <v>1650</v>
@@ -13469,7 +13486,7 @@
         <v>1650</v>
       </c>
       <c r="Z95">
-        <v>0.5009994877584345</v>
+        <v>0.41350207775206144</v>
       </c>
       <c r="AA95">
         <v>1052.6315789473683</v>
@@ -13519,7 +13536,7 @@
         <v>1941.1764705882354</v>
       </c>
       <c r="P96">
-        <v>82.744276520049453</v>
+        <v>78.019438289153939</v>
       </c>
       <c r="Q96">
         <v>1800</v>
@@ -13549,7 +13566,7 @@
         <v>1800</v>
       </c>
       <c r="Z96">
-        <v>0.51884801929308277</v>
+        <v>0.42739320760154698</v>
       </c>
       <c r="AA96">
         <v>1157.8947368421052</v>
@@ -13599,7 +13616,7 @@
         <v>2000</v>
       </c>
       <c r="P97">
-        <v>84.940032165062021</v>
+        <v>79.907276268113534</v>
       </c>
       <c r="Q97">
         <v>1950</v>
@@ -13629,7 +13646,7 @@
         <v>1950</v>
       </c>
       <c r="Z97">
-        <v>0.53251673475341799</v>
+        <v>0.43810479986891299</v>
       </c>
       <c r="AA97">
         <v>1263.1578947368421</v>
@@ -13679,7 +13696,7 @@
         <v>2117.6470588235293</v>
       </c>
       <c r="P98">
-        <v>91.691525705374389</v>
+        <v>86.682474599329382</v>
       </c>
       <c r="Q98">
         <v>2100</v>
@@ -13709,7 +13726,7 @@
         <v>2100</v>
       </c>
       <c r="Z98">
-        <v>0.92452618707838941</v>
+        <v>0.92625456308475784</v>
       </c>
       <c r="AA98">
         <v>1368.421052631579</v>
@@ -13759,7 +13776,7 @@
         <v>2294.1176470588234</v>
       </c>
       <c r="P99">
-        <v>101.45647116781574</v>
+        <v>96.382701343418248</v>
       </c>
       <c r="Q99">
         <v>2250</v>
@@ -13789,7 +13806,7 @@
         <v>2250</v>
       </c>
       <c r="Z99">
-        <v>0.94089384595022585</v>
+        <v>0.92376328987231859</v>
       </c>
       <c r="AA99">
         <v>1473.6842105263156</v>
@@ -13839,7 +13856,7 @@
         <v>2470.5882352941176</v>
       </c>
       <c r="P100">
-        <v>110.9667659180933</v>
+        <v>105.67867509731823</v>
       </c>
       <c r="Q100">
         <v>2400</v>
@@ -13869,7 +13886,7 @@
         <v>2400</v>
       </c>
       <c r="Z100">
-        <v>0.97213205202712272</v>
+        <v>0.94453351482166981</v>
       </c>
       <c r="AA100">
         <v>1578.9473684210525</v>
@@ -13919,7 +13936,7 @@
         <v>2500</v>
       </c>
       <c r="P101">
-        <v>112.53628502445636</v>
+        <v>107.21348396069787</v>
       </c>
       <c r="Q101">
         <v>2550</v>
@@ -13949,7 +13966,7 @@
         <v>2550</v>
       </c>
       <c r="Z101">
-        <v>0.99560149900707851</v>
+        <v>0.98189870242776933</v>
       </c>
       <c r="AA101">
         <v>1684.2105263157894</v>
@@ -13999,7 +14016,7 @@
         <v>2647.0588235294117</v>
       </c>
       <c r="P102">
-        <v>120.15264142524914</v>
+        <v>114.83947600670687</v>
       </c>
       <c r="Q102">
         <v>2700</v>
@@ -14068,6 +14085,166 @@
         <v>0</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <v>20</v>
+      </c>
+      <c r="O103">
+        <v>2823.5294117647059</v>
+      </c>
+      <c r="P103">
+        <v>121.81751343661816</v>
+      </c>
+      <c r="Q103">
+        <v>2850</v>
+      </c>
+      <c r="R103">
+        <v>395.75</v>
+      </c>
+      <c r="S103">
+        <v>2850</v>
+      </c>
+      <c r="T103">
+        <v>0.125</v>
+      </c>
+      <c r="U103">
+        <v>2850</v>
+      </c>
+      <c r="V103">
+        <v>17.758163906557428</v>
+      </c>
+      <c r="W103">
+        <v>2823.5294117647059</v>
+      </c>
+      <c r="X103">
+        <v>87.039705882352948</v>
+      </c>
+      <c r="Y103">
+        <v>2850</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
+      </c>
+      <c r="AA103">
+        <v>1894.7368421052631</v>
+      </c>
+      <c r="AB103">
+        <v>147.49507821375533</v>
+      </c>
+      <c r="AC103">
+        <v>1900</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>2823.5294117647059</v>
+      </c>
+      <c r="AF103">
+        <v>87.039705882352948</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="14:39" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>21</v>
+      </c>
+      <c r="O104">
+        <v>3000</v>
+      </c>
+      <c r="P104">
+        <v>126.05651797315487</v>
+      </c>
+      <c r="Q104">
+        <v>3000</v>
+      </c>
+      <c r="R104">
+        <v>500</v>
+      </c>
+      <c r="S104">
+        <v>3000</v>
+      </c>
+      <c r="T104">
+        <v>0.125</v>
+      </c>
+      <c r="U104">
+        <v>3000</v>
+      </c>
+      <c r="V104">
+        <v>17.758163906557428</v>
+      </c>
+      <c r="W104">
+        <v>3000</v>
+      </c>
+      <c r="X104">
+        <v>90</v>
+      </c>
+      <c r="Y104">
+        <v>3000</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <v>2000</v>
+      </c>
+      <c r="AB104">
+        <v>148.61355989028496</v>
+      </c>
+      <c r="AC104">
+        <v>2000</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>3000</v>
+      </c>
+      <c r="AF104">
+        <v>90</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
         <v>0</v>
       </c>
     </row>
